--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1816,17 +1816,13 @@
         <v>29.16666666666663</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K41" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1855,104 +1851,96 @@
         <v>29.16666666666663</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>29.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="C43" t="n">
         <v>29.2</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="D43" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3136.2397</v>
+      </c>
+      <c r="G43" t="n">
+        <v>29.19999999999997</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>29.19999999999997</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D43" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E43" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3136.2397</v>
-      </c>
-      <c r="G43" t="n">
-        <v>29.19999999999997</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D44" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G44" t="n">
-        <v>29.19999999999997</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2023,22 +2011,14 @@
         <v>29.2333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2066,17 +2046,13 @@
         <v>29.26666666666663</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
@@ -2105,22 +2081,14 @@
         <v>29.4333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K48" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2116,14 @@
         <v>29.5333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K49" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2191,17 +2151,13 @@
         <v>29.6333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K50" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
@@ -2230,22 +2186,14 @@
         <v>29.59999999999997</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K51" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2279,14 +2227,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2877,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2912,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2982,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3857,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C2" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="D2" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E2" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>47866.9624</v>
       </c>
       <c r="G2" t="n">
-        <v>29.69999999999997</v>
+        <v>29.67833333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>29.8</v>
       </c>
       <c r="F3" t="n">
-        <v>31880.5747</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>29.69999999999997</v>
+        <v>29.66833333333332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C4" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D4" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F4" t="n">
-        <v>15968.3056</v>
+        <v>31880.5747</v>
       </c>
       <c r="G4" t="n">
-        <v>29.89999999999997</v>
+        <v>29.66499999999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
         <v>30.1</v>
@@ -547,13 +547,13 @@
         <v>30.1</v>
       </c>
       <c r="E5" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>10440.3289</v>
+        <v>15968.3056</v>
       </c>
       <c r="G5" t="n">
-        <v>29.99999999999997</v>
+        <v>29.67499999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>30.1</v>
       </c>
       <c r="C6" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="E6" t="n">
         <v>30.1</v>
       </c>
       <c r="F6" t="n">
-        <v>11000</v>
+        <v>10440.3289</v>
       </c>
       <c r="G6" t="n">
-        <v>30.1333333333333</v>
+        <v>29.68333333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C7" t="n">
         <v>30.2</v>
@@ -617,13 +617,13 @@
         <v>30.2</v>
       </c>
       <c r="E7" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F7" t="n">
-        <v>12255.7268</v>
+        <v>11000</v>
       </c>
       <c r="G7" t="n">
-        <v>30.16666666666664</v>
+        <v>29.68333333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>30.2</v>
       </c>
       <c r="C8" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="D8" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="E8" t="n">
         <v>30.2</v>
       </c>
       <c r="F8" t="n">
-        <v>48781.0612</v>
+        <v>12255.7268</v>
       </c>
       <c r="G8" t="n">
-        <v>30.2333333333333</v>
+        <v>29.69666666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="C9" t="n">
         <v>30.3</v>
@@ -687,13 +687,13 @@
         <v>30.3</v>
       </c>
       <c r="E9" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="F9" t="n">
-        <v>24882.1203</v>
+        <v>48781.0612</v>
       </c>
       <c r="G9" t="n">
-        <v>30.26666666666663</v>
+        <v>29.71833333333331</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>30.3</v>
       </c>
       <c r="F10" t="n">
-        <v>13970.3959</v>
+        <v>24882.1203</v>
       </c>
       <c r="G10" t="n">
-        <v>30.29999999999997</v>
+        <v>29.72333333333331</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="D11" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="E11" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="F11" t="n">
-        <v>32.8947</v>
+        <v>13970.3959</v>
       </c>
       <c r="G11" t="n">
-        <v>30.3333333333333</v>
+        <v>29.73999999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.9</v>
+        <v>30.4</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="D12" t="n">
-        <v>29.9</v>
+        <v>30.4</v>
       </c>
       <c r="E12" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="F12" t="n">
-        <v>997.5</v>
+        <v>32.8947</v>
       </c>
       <c r="G12" t="n">
-        <v>30.16666666666663</v>
+        <v>29.75833333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4</v>
+        <v>29.8</v>
       </c>
       <c r="D13" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="E13" t="n">
-        <v>30.4</v>
+        <v>29.8</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>997.5</v>
       </c>
       <c r="G13" t="n">
-        <v>30.19999999999996</v>
+        <v>29.76499999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="D14" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="F14" t="n">
-        <v>130.5181</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>30.06666666666663</v>
+        <v>29.77499999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E15" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>23024.187</v>
+        <v>130.5181</v>
       </c>
       <c r="G15" t="n">
-        <v>30.06666666666663</v>
+        <v>29.77833333333331</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="D16" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="F16" t="n">
-        <v>56333.8294</v>
+        <v>23024.187</v>
       </c>
       <c r="G16" t="n">
-        <v>29.79999999999997</v>
+        <v>29.78166666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="C17" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D17" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E17" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F17" t="n">
-        <v>47762.0705</v>
+        <v>56333.8294</v>
       </c>
       <c r="G17" t="n">
-        <v>29.6333333333333</v>
+        <v>29.78333333333331</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>29.7</v>
       </c>
       <c r="C18" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="D18" t="n">
         <v>29.7</v>
       </c>
       <c r="E18" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>47762.0705</v>
       </c>
       <c r="G18" t="n">
-        <v>29.59999999999997</v>
+        <v>29.77499999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>29.7</v>
       </c>
       <c r="F19" t="n">
-        <v>3072.3905</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>29.6333333333333</v>
+        <v>29.77666666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>3072.3905</v>
       </c>
       <c r="G20" t="n">
-        <v>29.79999999999997</v>
+        <v>29.77833333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>2861.617080398671</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>29.93333333333329</v>
+        <v>29.77833333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="D22" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="E22" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>2861.617080398671</v>
       </c>
       <c r="G22" t="n">
-        <v>29.96666666666663</v>
+        <v>29.77999999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="C23" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="D23" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E23" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="F23" t="n">
-        <v>28179.956</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>29.8333333333333</v>
+        <v>29.77499999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>29.7</v>
       </c>
       <c r="C24" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D24" t="n">
         <v>29.7</v>
       </c>
       <c r="E24" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F24" t="n">
-        <v>115637.3973</v>
+        <v>28179.956</v>
       </c>
       <c r="G24" t="n">
-        <v>29.6333333333333</v>
+        <v>29.76499999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="C25" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="D25" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="E25" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>115637.3973</v>
       </c>
       <c r="G25" t="n">
-        <v>29.66666666666663</v>
+        <v>29.75333333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>29.9</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>29.76666666666663</v>
+        <v>29.74666666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="C27" t="n">
-        <v>29.4</v>
+        <v>29.9</v>
       </c>
       <c r="D27" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="E27" t="n">
-        <v>29.4</v>
+        <v>29.9</v>
       </c>
       <c r="F27" t="n">
-        <v>96554.6507</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>29.7333333333333</v>
+        <v>29.74999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C28" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="D28" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E28" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="F28" t="n">
-        <v>11.0318</v>
+        <v>96554.6507</v>
       </c>
       <c r="G28" t="n">
-        <v>29.69999999999997</v>
+        <v>29.73833333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="C29" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D29" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="E29" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F29" t="n">
-        <v>2345.8597</v>
+        <v>11.0318</v>
       </c>
       <c r="G29" t="n">
-        <v>29.56666666666663</v>
+        <v>29.73999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C30" t="n">
         <v>29.5</v>
       </c>
       <c r="D30" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E30" t="n">
         <v>29.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1762.3675</v>
+        <v>2345.8597</v>
       </c>
       <c r="G30" t="n">
-        <v>29.59999999999997</v>
+        <v>29.73833333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>29.5</v>
       </c>
       <c r="F31" t="n">
-        <v>33970.9224</v>
+        <v>1762.3675</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49999999999997</v>
+        <v>29.73666666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>29.5</v>
       </c>
       <c r="F32" t="n">
-        <v>6782.0915</v>
+        <v>33970.9224</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49999999999997</v>
+        <v>29.73666666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>29.5</v>
       </c>
       <c r="F33" t="n">
-        <v>4253.0403</v>
+        <v>6782.0915</v>
       </c>
       <c r="G33" t="n">
-        <v>29.49999999999997</v>
+        <v>29.73666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>29.5</v>
       </c>
       <c r="F34" t="n">
-        <v>1850.8444</v>
+        <v>4253.0403</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49999999999997</v>
+        <v>29.73666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="C35" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="D35" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="E35" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>1850.8444</v>
       </c>
       <c r="G35" t="n">
-        <v>29.56666666666663</v>
+        <v>29.73833333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="C36" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="D36" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="E36" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="F36" t="n">
-        <v>49942.919</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>29.49999999999997</v>
+        <v>29.74333333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C37" t="n">
         <v>29.3</v>
       </c>
       <c r="D37" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E37" t="n">
         <v>29.3</v>
       </c>
       <c r="F37" t="n">
-        <v>16243.1004</v>
+        <v>49942.919</v>
       </c>
       <c r="G37" t="n">
-        <v>29.4333333333333</v>
+        <v>29.74333333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>29.3</v>
       </c>
       <c r="F38" t="n">
-        <v>32736.9852</v>
+        <v>16243.1004</v>
       </c>
       <c r="G38" t="n">
-        <v>29.29999999999997</v>
+        <v>29.73333333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C39" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D39" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E39" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F39" t="n">
-        <v>38137.346</v>
+        <v>32736.9852</v>
       </c>
       <c r="G39" t="n">
-        <v>29.26666666666663</v>
+        <v>29.73499999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,28 +1766,32 @@
         <v>29.2</v>
       </c>
       <c r="C40" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D40" t="n">
         <v>29.2</v>
       </c>
       <c r="E40" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F40" t="n">
-        <v>19996.1101</v>
+        <v>38137.346</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19999999999996</v>
+        <v>29.73499999999998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>29.3</v>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
@@ -1801,19 +1805,19 @@
         <v>29.2</v>
       </c>
       <c r="C41" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D41" t="n">
         <v>29.2</v>
       </c>
       <c r="E41" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>19996.1101</v>
       </c>
       <c r="G41" t="n">
-        <v>29.16666666666663</v>
+        <v>29.72666666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1826,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1855,28 @@
         <v>29.2</v>
       </c>
       <c r="F42" t="n">
-        <v>3479.3012</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>29.16666666666663</v>
+        <v>29.72666666666665</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,24 +1898,26 @@
         <v>29.2</v>
       </c>
       <c r="F43" t="n">
-        <v>3136.2397</v>
+        <v>3479.3012</v>
       </c>
       <c r="G43" t="n">
-        <v>29.19999999999997</v>
+        <v>29.72166666666665</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
+        <v>29.3</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1919,10 +1939,10 @@
         <v>29.2</v>
       </c>
       <c r="F44" t="n">
-        <v>10000</v>
+        <v>3136.2397</v>
       </c>
       <c r="G44" t="n">
-        <v>29.19999999999997</v>
+        <v>29.71166666666665</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1934,11 +1954,11 @@
         <v>29.2</v>
       </c>
       <c r="K44" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -1962,10 +1982,10 @@
         <v>29.2</v>
       </c>
       <c r="F45" t="n">
-        <v>323.4263</v>
+        <v>10000</v>
       </c>
       <c r="G45" t="n">
-        <v>29.19999999999997</v>
+        <v>29.70333333333332</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1977,11 +1997,11 @@
         <v>29.2</v>
       </c>
       <c r="K45" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -1993,32 +2013,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>323.4263</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29.69499999999999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
         <v>29.3</v>
       </c>
-      <c r="C46" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>10</v>
-      </c>
-      <c r="G46" t="n">
-        <v>29.2333333333333</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2040,10 +2066,10 @@
         <v>29.3</v>
       </c>
       <c r="F47" t="n">
-        <v>33549.1591</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>29.26666666666663</v>
+        <v>29.68666666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2052,8 +2078,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2063,22 +2095,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="C48" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="D48" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="E48" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="F48" t="n">
-        <v>1985.2861</v>
+        <v>33549.1591</v>
       </c>
       <c r="G48" t="n">
-        <v>29.4333333333333</v>
+        <v>29.67833333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2087,8 +2119,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2098,32 +2136,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C49" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D49" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E49" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F49" t="n">
-        <v>22857.9827</v>
+        <v>1985.2861</v>
       </c>
       <c r="G49" t="n">
-        <v>29.5333333333333</v>
+        <v>29.67499999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2145,10 +2191,10 @@
         <v>29.6</v>
       </c>
       <c r="F50" t="n">
-        <v>76261.20209999999</v>
+        <v>22857.9827</v>
       </c>
       <c r="G50" t="n">
-        <v>29.6333333333333</v>
+        <v>29.67166666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2157,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2180,10 +2232,10 @@
         <v>29.6</v>
       </c>
       <c r="F51" t="n">
-        <v>671.9969</v>
+        <v>76261.20209999999</v>
       </c>
       <c r="G51" t="n">
-        <v>29.59999999999997</v>
+        <v>29.67166666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2192,8 +2244,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2203,22 +2261,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C52" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="D52" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E52" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>671.9969</v>
       </c>
       <c r="G52" t="n">
-        <v>29.63333333333331</v>
+        <v>29.67666666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2227,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2250,10 +2314,10 @@
         <v>29.7</v>
       </c>
       <c r="F53" t="n">
-        <v>8496.7392</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>29.66666666666664</v>
+        <v>29.67833333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2262,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2285,10 +2355,10 @@
         <v>29.7</v>
       </c>
       <c r="F54" t="n">
-        <v>4997.0318</v>
+        <v>8496.7392</v>
       </c>
       <c r="G54" t="n">
-        <v>29.69999999999997</v>
+        <v>29.67999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2297,8 +2367,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2308,22 +2384,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C55" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D55" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E55" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F55" t="n">
-        <v>68573.94809999999</v>
+        <v>4997.0318</v>
       </c>
       <c r="G55" t="n">
-        <v>29.66666666666663</v>
+        <v>29.68166666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2332,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2355,10 +2437,10 @@
         <v>29.6</v>
       </c>
       <c r="F56" t="n">
-        <v>146.8478</v>
+        <v>68573.94809999999</v>
       </c>
       <c r="G56" t="n">
-        <v>29.6333333333333</v>
+        <v>29.67833333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2367,8 +2449,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2390,10 +2478,10 @@
         <v>29.6</v>
       </c>
       <c r="F57" t="n">
-        <v>868.3292</v>
+        <v>146.8478</v>
       </c>
       <c r="G57" t="n">
-        <v>29.59999999999997</v>
+        <v>29.67833333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2402,8 +2490,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2425,10 +2519,10 @@
         <v>29.6</v>
       </c>
       <c r="F58" t="n">
-        <v>17000</v>
+        <v>868.3292</v>
       </c>
       <c r="G58" t="n">
-        <v>29.59999999999998</v>
+        <v>29.67999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2437,8 +2531,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2448,22 +2548,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C59" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="D59" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E59" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="F59" t="n">
-        <v>19361.88552188552</v>
+        <v>17000</v>
       </c>
       <c r="G59" t="n">
-        <v>29.63333333333331</v>
+        <v>29.67666666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2472,8 +2572,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2495,10 +2601,10 @@
         <v>29.7</v>
       </c>
       <c r="F60" t="n">
-        <v>62579.4629</v>
+        <v>19361.88552188552</v>
       </c>
       <c r="G60" t="n">
-        <v>29.66666666666664</v>
+        <v>29.67499999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2507,8 +2613,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2521,19 +2633,19 @@
         <v>29.7</v>
       </c>
       <c r="C61" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="D61" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="E61" t="n">
         <v>29.7</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>62579.4629</v>
       </c>
       <c r="G61" t="n">
-        <v>29.7333333333333</v>
+        <v>29.67333333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2542,8 +2654,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2553,7 +2671,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="C62" t="n">
         <v>29.8</v>
@@ -2562,13 +2680,13 @@
         <v>29.8</v>
       </c>
       <c r="E62" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="F62" t="n">
-        <v>15921.1073</v>
+        <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>29.76666666666663</v>
+        <v>29.67833333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2577,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2600,10 +2724,10 @@
         <v>29.8</v>
       </c>
       <c r="F63" t="n">
-        <v>35129.60287811448</v>
+        <v>15921.1073</v>
       </c>
       <c r="G63" t="n">
-        <v>29.79999999999997</v>
+        <v>29.67833333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2612,8 +2736,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2635,10 +2765,10 @@
         <v>29.8</v>
       </c>
       <c r="F64" t="n">
-        <v>16000.0167</v>
+        <v>35129.60287811448</v>
       </c>
       <c r="G64" t="n">
-        <v>29.79999999999997</v>
+        <v>29.67833333333332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2647,8 +2777,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2670,10 +2806,10 @@
         <v>29.8</v>
       </c>
       <c r="F65" t="n">
-        <v>1600.0016</v>
+        <v>16000.0167</v>
       </c>
       <c r="G65" t="n">
-        <v>29.79999999999997</v>
+        <v>29.67333333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2682,8 +2818,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2693,22 +2835,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C66" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="D66" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="E66" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F66" t="n">
-        <v>33022.7509</v>
+        <v>1600.0016</v>
       </c>
       <c r="G66" t="n">
-        <v>29.9333333333333</v>
+        <v>29.66833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2717,8 +2859,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2728,7 +2876,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="C67" t="n">
         <v>30.2</v>
@@ -2737,13 +2885,13 @@
         <v>30.2</v>
       </c>
       <c r="E67" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="F67" t="n">
-        <v>43306.3576</v>
+        <v>33022.7509</v>
       </c>
       <c r="G67" t="n">
-        <v>30.06666666666663</v>
+        <v>29.66833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2752,8 +2900,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2775,10 +2929,10 @@
         <v>30.2</v>
       </c>
       <c r="F68" t="n">
-        <v>46326.8538</v>
+        <v>43306.3576</v>
       </c>
       <c r="G68" t="n">
-        <v>30.19999999999997</v>
+        <v>29.66833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2787,8 +2941,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2798,32 +2958,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D69" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E69" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F69" t="n">
         <v>46326.8538</v>
       </c>
       <c r="G69" t="n">
-        <v>30.1333333333333</v>
+        <v>29.66666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2833,22 +2999,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="E70" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="F70" t="n">
-        <v>75070.924</v>
+        <v>46326.8538</v>
       </c>
       <c r="G70" t="n">
-        <v>30.16666666666663</v>
+        <v>29.66166666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2857,10 +3023,16 @@
         <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>1.018890784982935</v>
       </c>
     </row>
     <row r="71">
@@ -2868,22 +3040,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="D71" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="E71" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F71" t="n">
-        <v>14400.0152</v>
+        <v>75070.924</v>
       </c>
       <c r="G71" t="n">
-        <v>30.09999999999997</v>
+        <v>29.66166666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2903,22 +3075,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C72" t="n">
         <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E72" t="n">
         <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>30593</v>
+        <v>14400.0152</v>
       </c>
       <c r="G72" t="n">
-        <v>30.09999999999997</v>
+        <v>29.65499999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2941,19 +3113,19 @@
         <v>30</v>
       </c>
       <c r="C73" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
         <v>30</v>
       </c>
       <c r="E73" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>52874.8934</v>
+        <v>30593</v>
       </c>
       <c r="G73" t="n">
-        <v>29.9333333333333</v>
+        <v>29.65833333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2973,22 +3145,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
         <v>29.8</v>
       </c>
       <c r="D74" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E74" t="n">
         <v>29.8</v>
       </c>
       <c r="F74" t="n">
-        <v>132.023</v>
+        <v>52874.8934</v>
       </c>
       <c r="G74" t="n">
-        <v>29.86666666666663</v>
+        <v>29.64833333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3011,19 +3183,19 @@
         <v>29.8</v>
       </c>
       <c r="C75" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="D75" t="n">
         <v>29.8</v>
       </c>
       <c r="E75" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="F75" t="n">
-        <v>22308.9047</v>
+        <v>132.023</v>
       </c>
       <c r="G75" t="n">
-        <v>29.76666666666663</v>
+        <v>29.64499999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3043,22 +3215,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="C76" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="D76" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="E76" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>22308.9047</v>
       </c>
       <c r="G76" t="n">
-        <v>29.89999999999997</v>
+        <v>29.64333333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3078,22 +3250,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="C77" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D77" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E77" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F77" t="n">
-        <v>117.4158</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>29.96666666666664</v>
+        <v>29.65333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3113,22 +3285,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E78" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="F78" t="n">
-        <v>39907.0232</v>
+        <v>117.4158</v>
       </c>
       <c r="G78" t="n">
-        <v>29.96666666666664</v>
+        <v>29.66166666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3148,22 +3320,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D79" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="E79" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>39907.0232</v>
       </c>
       <c r="G79" t="n">
-        <v>29.89999999999997</v>
+        <v>29.66166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3183,22 +3355,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="E80" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="F80" t="n">
-        <v>4991.786321885522</v>
+        <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>29.79999999999997</v>
+        <v>29.66666666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3218,22 +3390,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C81" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D81" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E81" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F81" t="n">
-        <v>17247.0945</v>
+        <v>4991.786321885522</v>
       </c>
       <c r="G81" t="n">
-        <v>29.76666666666664</v>
+        <v>29.66166666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3253,22 +3425,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="C82" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="D82" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="E82" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="F82" t="n">
-        <v>238.7779</v>
+        <v>17247.0945</v>
       </c>
       <c r="G82" t="n">
-        <v>29.5333333333333</v>
+        <v>29.65333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3288,22 +3460,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C83" t="n">
         <v>29.3</v>
       </c>
       <c r="D83" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E83" t="n">
         <v>29.3</v>
       </c>
       <c r="F83" t="n">
-        <v>43393.9783</v>
+        <v>238.7779</v>
       </c>
       <c r="G83" t="n">
-        <v>29.39999999999997</v>
+        <v>29.64499999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3323,22 +3495,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="C84" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="D84" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="E84" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>43393.9783</v>
       </c>
       <c r="G84" t="n">
-        <v>29.46666666666663</v>
+        <v>29.63999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3358,22 +3530,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="C85" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="D85" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E85" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="F85" t="n">
-        <v>792.2053</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>29.59999999999997</v>
+        <v>29.64499999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3393,22 +3565,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C86" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="D86" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E86" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F86" t="n">
-        <v>5664.59</v>
+        <v>792.2053</v>
       </c>
       <c r="G86" t="n">
-        <v>29.66666666666663</v>
+        <v>29.64166666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3428,22 +3600,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C87" t="n">
         <v>29.5</v>
       </c>
       <c r="D87" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E87" t="n">
         <v>29.5</v>
       </c>
       <c r="F87" t="n">
-        <v>1003</v>
+        <v>5664.59</v>
       </c>
       <c r="G87" t="n">
-        <v>29.56666666666663</v>
+        <v>29.63499999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3463,22 +3635,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C88" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="D88" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="E88" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F88" t="n">
-        <v>140.4335</v>
+        <v>1003</v>
       </c>
       <c r="G88" t="n">
-        <v>29.56666666666663</v>
+        <v>29.63666666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3498,22 +3670,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C89" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="D89" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="E89" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="F89" t="n">
-        <v>84.4295</v>
+        <v>140.4335</v>
       </c>
       <c r="G89" t="n">
-        <v>29.66666666666663</v>
+        <v>29.63499999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3536,19 +3708,19 @@
         <v>29.8</v>
       </c>
       <c r="C90" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="D90" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E90" t="n">
         <v>29.8</v>
       </c>
       <c r="F90" t="n">
-        <v>59858.4505</v>
+        <v>84.4295</v>
       </c>
       <c r="G90" t="n">
-        <v>29.8333333333333</v>
+        <v>29.63999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3568,22 +3740,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C91" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D91" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E91" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>59858.4505</v>
       </c>
       <c r="G91" t="n">
-        <v>29.99999999999997</v>
+        <v>29.64833333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3603,22 +3775,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="C92" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="D92" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E92" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F92" t="n">
-        <v>8966.5502</v>
+        <v>20</v>
       </c>
       <c r="G92" t="n">
-        <v>30.16666666666663</v>
+        <v>29.65999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3644,16 +3816,16 @@
         <v>30.3</v>
       </c>
       <c r="D93" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="E93" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="F93" t="n">
-        <v>4779.2079</v>
+        <v>8966.5502</v>
       </c>
       <c r="G93" t="n">
-        <v>30.26666666666663</v>
+        <v>29.67333333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3673,22 +3845,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="C94" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="D94" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="E94" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="F94" t="n">
-        <v>13752.34</v>
+        <v>4779.2079</v>
       </c>
       <c r="G94" t="n">
-        <v>30.1333333333333</v>
+        <v>29.68666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3711,19 +3883,19 @@
         <v>30.1</v>
       </c>
       <c r="C95" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D95" t="n">
         <v>30.1</v>
       </c>
       <c r="E95" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F95" t="n">
-        <v>48</v>
+        <v>13752.34</v>
       </c>
       <c r="G95" t="n">
-        <v>30.06666666666663</v>
+        <v>29.69166666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3755,10 +3927,10 @@
         <v>30.1</v>
       </c>
       <c r="F96" t="n">
-        <v>3317.0091</v>
+        <v>48</v>
       </c>
       <c r="G96" t="n">
-        <v>29.99999999999997</v>
+        <v>29.69833333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3790,10 +3962,10 @@
         <v>30.1</v>
       </c>
       <c r="F97" t="n">
-        <v>10239.5981</v>
+        <v>3317.0091</v>
       </c>
       <c r="G97" t="n">
-        <v>30.09999999999997</v>
+        <v>29.71166666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3813,22 +3985,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C98" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D98" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E98" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F98" t="n">
-        <v>11</v>
+        <v>10239.5981</v>
       </c>
       <c r="G98" t="n">
-        <v>30.06666666666663</v>
+        <v>29.72499999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3848,22 +4020,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C99" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D99" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F99" t="n">
-        <v>5394.7831</v>
+        <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>29.96666666666663</v>
+        <v>29.73666666666665</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3883,22 +4055,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C100" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D100" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E100" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>5394.7831</v>
       </c>
       <c r="G100" t="n">
-        <v>29.96666666666663</v>
+        <v>29.74666666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3921,19 +4093,19 @@
         <v>30.1</v>
       </c>
       <c r="C101" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="D101" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="E101" t="n">
         <v>30.1</v>
       </c>
       <c r="F101" t="n">
-        <v>237.5868</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>30.06666666666663</v>
+        <v>29.76333333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3953,22 +4125,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C102" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="D102" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="E102" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F102" t="n">
-        <v>8.8256</v>
+        <v>237.5868</v>
       </c>
       <c r="G102" t="n">
-        <v>30.19999999999996</v>
+        <v>29.78166666666665</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3988,22 +4160,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C103" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="D103" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="E103" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F103" t="n">
-        <v>18586.1299</v>
+        <v>8.8256</v>
       </c>
       <c r="G103" t="n">
-        <v>30.26666666666663</v>
+        <v>29.79833333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4026,19 +4198,19 @@
         <v>30.1</v>
       </c>
       <c r="C104" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="D104" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="E104" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F104" t="n">
-        <v>18.1818</v>
+        <v>18586.1299</v>
       </c>
       <c r="G104" t="n">
-        <v>30.19999999999996</v>
+        <v>29.81666666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4058,22 +4230,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C105" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D105" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E105" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F105" t="n">
-        <v>1541.7141</v>
+        <v>18.1818</v>
       </c>
       <c r="G105" t="n">
-        <v>30.1333333333333</v>
+        <v>29.83166666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4093,22 +4265,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C106" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D106" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E106" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F106" t="n">
-        <v>7107.7173</v>
+        <v>1541.7141</v>
       </c>
       <c r="G106" t="n">
-        <v>29.96666666666663</v>
+        <v>29.84499999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4128,22 +4300,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C107" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="D107" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E107" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F107" t="n">
-        <v>7356.69</v>
+        <v>7107.7173</v>
       </c>
       <c r="G107" t="n">
-        <v>29.89999999999997</v>
+        <v>29.85333333333331</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4175,10 +4347,10 @@
         <v>29.9</v>
       </c>
       <c r="F108" t="n">
-        <v>17000</v>
+        <v>7356.69</v>
       </c>
       <c r="G108" t="n">
-        <v>29.86666666666664</v>
+        <v>29.86333333333331</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4198,22 +4370,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C109" t="n">
         <v>29.9</v>
       </c>
       <c r="D109" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E109" t="n">
         <v>29.9</v>
       </c>
       <c r="F109" t="n">
-        <v>3439.12</v>
+        <v>17000</v>
       </c>
       <c r="G109" t="n">
-        <v>29.89999999999997</v>
+        <v>29.86666666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4233,22 +4405,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="C110" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D110" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="E110" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="F110" t="n">
-        <v>23374.778</v>
+        <v>3439.12</v>
       </c>
       <c r="G110" t="n">
-        <v>29.93333333333331</v>
+        <v>29.87166666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4280,10 +4452,10 @@
         <v>30</v>
       </c>
       <c r="F111" t="n">
-        <v>8323.822</v>
+        <v>23374.778</v>
       </c>
       <c r="G111" t="n">
-        <v>29.96666666666664</v>
+        <v>29.87833333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4303,7 +4475,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C112" t="n">
         <v>30</v>
@@ -4312,13 +4484,13 @@
         <v>30</v>
       </c>
       <c r="E112" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F112" t="n">
-        <v>69603.92630000001</v>
+        <v>8323.822</v>
       </c>
       <c r="G112" t="n">
-        <v>29.99999999999997</v>
+        <v>29.88499999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4338,7 +4510,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="C113" t="n">
         <v>30</v>
@@ -4347,13 +4519,13 @@
         <v>30</v>
       </c>
       <c r="E113" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F113" t="n">
-        <v>10509.8305</v>
+        <v>69603.92630000001</v>
       </c>
       <c r="G113" t="n">
-        <v>29.99999999999997</v>
+        <v>29.88999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4382,13 +4554,13 @@
         <v>30</v>
       </c>
       <c r="E114" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="F114" t="n">
-        <v>20170.6666</v>
+        <v>10509.8305</v>
       </c>
       <c r="G114" t="n">
-        <v>29.99999999999997</v>
+        <v>29.89499999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4408,7 +4580,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C115" t="n">
         <v>30</v>
@@ -4417,13 +4589,13 @@
         <v>30</v>
       </c>
       <c r="E115" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F115" t="n">
-        <v>51397.4899</v>
+        <v>20170.6666</v>
       </c>
       <c r="G115" t="n">
-        <v>29.99999999999997</v>
+        <v>29.89999999999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4443,22 +4615,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C116" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="D116" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E116" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F116" t="n">
-        <v>30357.1905</v>
+        <v>51397.4899</v>
       </c>
       <c r="G116" t="n">
-        <v>29.96666666666664</v>
+        <v>29.90666666666665</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4481,19 +4653,19 @@
         <v>29.9</v>
       </c>
       <c r="C117" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D117" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="E117" t="n">
         <v>29.9</v>
       </c>
       <c r="F117" t="n">
-        <v>10118.9333</v>
+        <v>30357.1905</v>
       </c>
       <c r="G117" t="n">
-        <v>29.96666666666664</v>
+        <v>29.91166666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4513,22 +4685,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C118" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D118" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E118" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="F118" t="n">
-        <v>10590.11</v>
+        <v>10118.9333</v>
       </c>
       <c r="G118" t="n">
-        <v>29.86666666666664</v>
+        <v>29.91833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4548,22 +4720,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C119" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D119" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E119" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="F119" t="n">
-        <v>3680.9</v>
+        <v>10590.11</v>
       </c>
       <c r="G119" t="n">
-        <v>29.89999999999998</v>
+        <v>29.91999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4583,22 +4755,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="C120" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="D120" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="E120" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="F120" t="n">
-        <v>19425.65</v>
+        <v>3680.9</v>
       </c>
       <c r="G120" t="n">
-        <v>29.76666666666664</v>
+        <v>29.92499999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4621,19 +4793,19 @@
         <v>29.7</v>
       </c>
       <c r="C121" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D121" t="n">
         <v>29.7</v>
       </c>
       <c r="E121" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F121" t="n">
-        <v>32182.1724</v>
+        <v>19425.65</v>
       </c>
       <c r="G121" t="n">
-        <v>29.69999999999997</v>
+        <v>29.92333333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4656,19 +4828,19 @@
         <v>29.7</v>
       </c>
       <c r="C122" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="D122" t="n">
         <v>29.7</v>
       </c>
       <c r="E122" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="F122" t="n">
-        <v>11</v>
+        <v>32182.1724</v>
       </c>
       <c r="G122" t="n">
-        <v>29.59999999999998</v>
+        <v>29.91833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4688,22 +4860,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C123" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D123" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E123" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F123" t="n">
-        <v>3778.8172</v>
+        <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>29.59999999999998</v>
+        <v>29.91666666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4726,19 +4898,19 @@
         <v>29.6</v>
       </c>
       <c r="C124" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D124" t="n">
         <v>29.6</v>
       </c>
       <c r="E124" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F124" t="n">
-        <v>42496.5979</v>
+        <v>3778.8172</v>
       </c>
       <c r="G124" t="n">
-        <v>29.59999999999998</v>
+        <v>29.91333333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4761,19 +4933,19 @@
         <v>29.6</v>
       </c>
       <c r="C125" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="D125" t="n">
         <v>29.6</v>
       </c>
       <c r="E125" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F125" t="n">
-        <v>12260.753</v>
+        <v>42496.5979</v>
       </c>
       <c r="G125" t="n">
-        <v>29.56666666666664</v>
+        <v>29.90833333333332</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4805,10 +4977,10 @@
         <v>29.6</v>
       </c>
       <c r="F126" t="n">
-        <v>3778.8171</v>
+        <v>12260.753</v>
       </c>
       <c r="G126" t="n">
-        <v>29.56666666666665</v>
+        <v>29.90499999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4828,22 +5000,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C127" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="D127" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E127" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="F127" t="n">
-        <v>50.6734</v>
+        <v>3778.8171</v>
       </c>
       <c r="G127" t="n">
-        <v>29.63333333333331</v>
+        <v>29.89499999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4863,22 +5035,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C128" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D128" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E128" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F128" t="n">
-        <v>15885.6712</v>
+        <v>50.6734</v>
       </c>
       <c r="G128" t="n">
-        <v>29.63333333333332</v>
+        <v>29.88666666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4910,10 +5082,10 @@
         <v>29.6</v>
       </c>
       <c r="F129" t="n">
-        <v>25000</v>
+        <v>15885.6712</v>
       </c>
       <c r="G129" t="n">
-        <v>29.63333333333332</v>
+        <v>29.87666666666665</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4945,10 +5117,10 @@
         <v>29.6</v>
       </c>
       <c r="F130" t="n">
-        <v>965.8533</v>
+        <v>25000</v>
       </c>
       <c r="G130" t="n">
-        <v>29.59999999999998</v>
+        <v>29.86999999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4968,22 +5140,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C131" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="D131" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E131" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F131" t="n">
-        <v>80792.51210000001</v>
+        <v>965.8533</v>
       </c>
       <c r="G131" t="n">
-        <v>29.53333333333331</v>
+        <v>29.85833333333332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5006,19 +5178,19 @@
         <v>29.5</v>
       </c>
       <c r="C132" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D132" t="n">
         <v>29.5</v>
       </c>
       <c r="E132" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F132" t="n">
-        <v>248.8746</v>
+        <v>80792.51210000001</v>
       </c>
       <c r="G132" t="n">
-        <v>29.49999999999998</v>
+        <v>29.84833333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5038,22 +5210,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="C133" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D133" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E133" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F133" t="n">
-        <v>19922.3617</v>
+        <v>248.8746</v>
       </c>
       <c r="G133" t="n">
-        <v>29.43333333333332</v>
+        <v>29.83999999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5073,22 +5245,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C134" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="D134" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E134" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="F134" t="n">
-        <v>6090.8239</v>
+        <v>19922.3617</v>
       </c>
       <c r="G134" t="n">
-        <v>29.39999999999999</v>
+        <v>29.83333333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5108,22 +5280,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C135" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="D135" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="E135" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F135" t="n">
-        <v>40.2243</v>
+        <v>6090.8239</v>
       </c>
       <c r="G135" t="n">
-        <v>29.46666666666665</v>
+        <v>29.82499999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5143,22 +5315,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C136" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="D136" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="E136" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F136" t="n">
-        <v>334.051</v>
+        <v>40.2243</v>
       </c>
       <c r="G136" t="n">
-        <v>29.49999999999999</v>
+        <v>29.82499999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5178,22 +5350,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C137" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="D137" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E137" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>334.051</v>
       </c>
       <c r="G137" t="n">
-        <v>29.59999999999999</v>
+        <v>29.81333333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5213,22 +5385,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C138" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D138" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E138" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="F138" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>29.63333333333332</v>
+        <v>29.80666666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5260,10 +5432,10 @@
         <v>29.8</v>
       </c>
       <c r="F139" t="n">
-        <v>9814.551799999999</v>
+        <v>11</v>
       </c>
       <c r="G139" t="n">
-        <v>29.73333333333332</v>
+        <v>29.80833333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5295,10 +5467,10 @@
         <v>29.8</v>
       </c>
       <c r="F140" t="n">
-        <v>121.1058</v>
+        <v>9814.551799999999</v>
       </c>
       <c r="G140" t="n">
-        <v>29.79999999999998</v>
+        <v>29.80499999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5318,22 +5490,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C141" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="D141" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E141" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F141" t="n">
-        <v>22.2742</v>
+        <v>121.1058</v>
       </c>
       <c r="G141" t="n">
-        <v>29.83333333333332</v>
+        <v>29.80666666666665</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5353,22 +5525,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C142" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="D142" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="E142" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="F142" t="n">
-        <v>790.2248</v>
+        <v>22.2742</v>
       </c>
       <c r="G142" t="n">
-        <v>29.83333333333332</v>
+        <v>29.81166666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5388,22 +5560,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C143" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="D143" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E143" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F143" t="n">
-        <v>11</v>
+        <v>790.2248</v>
       </c>
       <c r="G143" t="n">
-        <v>29.86666666666665</v>
+        <v>29.81999999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5426,19 +5598,19 @@
         <v>29.9</v>
       </c>
       <c r="C144" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D144" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="E144" t="n">
         <v>29.9</v>
       </c>
       <c r="F144" t="n">
-        <v>30886.7962</v>
+        <v>11</v>
       </c>
       <c r="G144" t="n">
-        <v>29.89999999999999</v>
+        <v>29.82999999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5458,22 +5630,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="C145" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D145" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E145" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F145" t="n">
-        <v>99</v>
+        <v>30886.7962</v>
       </c>
       <c r="G145" t="n">
-        <v>30.03333333333332</v>
+        <v>29.83333333333332</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5493,22 +5665,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C146" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D146" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E146" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F146" t="n">
-        <v>2963.522</v>
+        <v>99</v>
       </c>
       <c r="G146" t="n">
-        <v>30.06666666666665</v>
+        <v>29.84166666666665</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5528,22 +5700,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="C147" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D147" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E147" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="F147" t="n">
-        <v>3883.4768</v>
+        <v>2963.522</v>
       </c>
       <c r="G147" t="n">
-        <v>30.13333333333332</v>
+        <v>29.84999999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5575,10 +5747,10 @@
         <v>30.2</v>
       </c>
       <c r="F148" t="n">
-        <v>943.6821</v>
+        <v>3883.4768</v>
       </c>
       <c r="G148" t="n">
-        <v>30.13333333333332</v>
+        <v>29.86166666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5598,22 +5770,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C149" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="D149" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="E149" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F149" t="n">
-        <v>1000</v>
+        <v>943.6821</v>
       </c>
       <c r="G149" t="n">
-        <v>30.16666666666666</v>
+        <v>29.86999999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5645,10 +5817,10 @@
         <v>30.1</v>
       </c>
       <c r="F150" t="n">
-        <v>168.9136</v>
+        <v>1000</v>
       </c>
       <c r="G150" t="n">
-        <v>30.13333333333332</v>
+        <v>29.87499999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5668,22 +5840,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C151" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D151" t="n">
         <v>30.1</v>
       </c>
       <c r="E151" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F151" t="n">
-        <v>5195.6687</v>
+        <v>168.9136</v>
       </c>
       <c r="G151" t="n">
-        <v>30.06666666666665</v>
+        <v>29.87666666666665</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5709,16 +5881,16 @@
         <v>30</v>
       </c>
       <c r="D152" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E152" t="n">
         <v>30</v>
       </c>
       <c r="F152" t="n">
-        <v>4067.7321</v>
+        <v>5195.6687</v>
       </c>
       <c r="G152" t="n">
-        <v>30.03333333333332</v>
+        <v>29.87333333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5738,22 +5910,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C153" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="D153" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E153" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="F153" t="n">
-        <v>12403</v>
+        <v>4067.7321</v>
       </c>
       <c r="G153" t="n">
-        <v>29.96666666666666</v>
+        <v>29.86833333333332</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5776,19 +5948,19 @@
         <v>30.1</v>
       </c>
       <c r="C154" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="D154" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="E154" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F154" t="n">
-        <v>344</v>
+        <v>12403</v>
       </c>
       <c r="G154" t="n">
-        <v>30.03333333333333</v>
+        <v>29.86166666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5811,19 +5983,19 @@
         <v>30.1</v>
       </c>
       <c r="C155" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="D155" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="E155" t="n">
         <v>30.1</v>
       </c>
       <c r="F155" t="n">
-        <v>28173.9867</v>
+        <v>344</v>
       </c>
       <c r="G155" t="n">
-        <v>30.06666666666666</v>
+        <v>29.86833333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5855,10 +6027,10 @@
         <v>30.1</v>
       </c>
       <c r="F156" t="n">
-        <v>17840.6667</v>
+        <v>28173.9867</v>
       </c>
       <c r="G156" t="n">
-        <v>30.13333333333333</v>
+        <v>29.86833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5890,10 +6062,10 @@
         <v>30.1</v>
       </c>
       <c r="F157" t="n">
-        <v>28814.7419</v>
+        <v>17840.6667</v>
       </c>
       <c r="G157" t="n">
-        <v>30.09999999999999</v>
+        <v>29.86833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5913,22 +6085,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C158" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D158" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E158" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F158" t="n">
-        <v>25835.7061</v>
+        <v>28814.7419</v>
       </c>
       <c r="G158" t="n">
-        <v>30.06666666666665</v>
+        <v>29.86833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5948,22 +6120,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C159" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D159" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E159" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F159" t="n">
-        <v>72</v>
+        <v>25835.7061</v>
       </c>
       <c r="G159" t="n">
-        <v>30.06666666666665</v>
+        <v>29.86833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5995,10 +6167,10 @@
         <v>30.1</v>
       </c>
       <c r="F160" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G160" t="n">
-        <v>30.06666666666665</v>
+        <v>29.87333333333332</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6018,22 +6190,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C161" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="D161" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="E161" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F161" t="n">
-        <v>18.841</v>
+        <v>54</v>
       </c>
       <c r="G161" t="n">
-        <v>30.13333333333332</v>
+        <v>29.87333333333332</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6065,10 +6237,10 @@
         <v>30.2</v>
       </c>
       <c r="F162" t="n">
-        <v>10</v>
+        <v>18.841</v>
       </c>
       <c r="G162" t="n">
-        <v>30.16666666666666</v>
+        <v>29.87166666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6088,22 +6260,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C163" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="D163" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="E163" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F163" t="n">
-        <v>19959.52</v>
+        <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>30.16666666666666</v>
+        <v>29.87166666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6126,19 +6298,19 @@
         <v>30.1</v>
       </c>
       <c r="C164" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D164" t="n">
         <v>30.1</v>
       </c>
       <c r="E164" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F164" t="n">
-        <v>184331.5756</v>
+        <v>19959.52</v>
       </c>
       <c r="G164" t="n">
-        <v>30.09999999999999</v>
+        <v>29.86833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6158,22 +6330,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C165" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D165" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="E165" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="F165" t="n">
-        <v>10</v>
+        <v>184331.5756</v>
       </c>
       <c r="G165" t="n">
-        <v>30.09999999999999</v>
+        <v>29.86666666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6196,19 +6368,19 @@
         <v>30.2</v>
       </c>
       <c r="C166" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="D166" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E166" t="n">
         <v>30.2</v>
       </c>
       <c r="F166" t="n">
-        <v>16665</v>
+        <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>30.19999999999999</v>
+        <v>29.86999999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6228,22 +6400,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C167" t="n">
         <v>30.4</v>
       </c>
-      <c r="C167" t="n">
-        <v>30.6</v>
-      </c>
       <c r="D167" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="E167" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="F167" t="n">
-        <v>90017.776</v>
+        <v>16665</v>
       </c>
       <c r="G167" t="n">
-        <v>30.39999999999999</v>
+        <v>29.88</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6263,22 +6435,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="C168" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="D168" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="E168" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F168" t="n">
-        <v>10</v>
+        <v>90017.776</v>
       </c>
       <c r="G168" t="n">
-        <v>30.56666666666665</v>
+        <v>29.89166666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6301,19 +6473,19 @@
         <v>30.7</v>
       </c>
       <c r="C169" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D169" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E169" t="n">
         <v>30.7</v>
       </c>
       <c r="F169" t="n">
-        <v>158429.9193</v>
+        <v>10</v>
       </c>
       <c r="G169" t="n">
-        <v>30.69999999999999</v>
+        <v>29.90499999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6345,10 +6517,10 @@
         <v>30.7</v>
       </c>
       <c r="F170" t="n">
-        <v>1002</v>
+        <v>158429.9193</v>
       </c>
       <c r="G170" t="n">
-        <v>30.76666666666665</v>
+        <v>29.91999999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6371,19 +6543,19 @@
         <v>30.7</v>
       </c>
       <c r="C171" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="D171" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="E171" t="n">
         <v>30.7</v>
       </c>
       <c r="F171" t="n">
-        <v>95710.6251</v>
+        <v>1002</v>
       </c>
       <c r="G171" t="n">
-        <v>30.83333333333332</v>
+        <v>29.93333333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6403,22 +6575,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="C172" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="D172" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="E172" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="F172" t="n">
-        <v>16149.6129</v>
+        <v>95710.6251</v>
       </c>
       <c r="G172" t="n">
-        <v>30.89999999999999</v>
+        <v>29.94833333333332</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6438,22 +6610,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="C173" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="D173" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="E173" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="F173" t="n">
-        <v>134.6192</v>
+        <v>16149.6129</v>
       </c>
       <c r="G173" t="n">
-        <v>30.86666666666666</v>
+        <v>29.96499999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6479,16 +6651,16 @@
         <v>30.7</v>
       </c>
       <c r="D174" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E174" t="n">
         <v>30.7</v>
       </c>
       <c r="F174" t="n">
-        <v>18723.6659</v>
+        <v>134.6192</v>
       </c>
       <c r="G174" t="n">
-        <v>30.79999999999999</v>
+        <v>29.97666666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6511,19 +6683,19 @@
         <v>30.7</v>
       </c>
       <c r="C175" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="D175" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="E175" t="n">
         <v>30.7</v>
       </c>
       <c r="F175" t="n">
-        <v>120230.2943</v>
+        <v>18723.6659</v>
       </c>
       <c r="G175" t="n">
-        <v>30.79999999999999</v>
+        <v>29.98833333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6546,19 +6718,19 @@
         <v>30.7</v>
       </c>
       <c r="C176" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="D176" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="E176" t="n">
         <v>30.7</v>
       </c>
       <c r="F176" t="n">
-        <v>230.568</v>
+        <v>120230.2943</v>
       </c>
       <c r="G176" t="n">
-        <v>30.79999999999999</v>
+        <v>30.00499999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6581,19 +6753,19 @@
         <v>30.7</v>
       </c>
       <c r="C177" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D177" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E177" t="n">
         <v>30.7</v>
       </c>
       <c r="F177" t="n">
-        <v>1165.1387</v>
+        <v>230.568</v>
       </c>
       <c r="G177" t="n">
-        <v>30.83333333333333</v>
+        <v>30.01833333333332</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6613,22 +6785,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="C178" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="D178" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="E178" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="F178" t="n">
-        <v>142687.9889</v>
+        <v>1165.1387</v>
       </c>
       <c r="G178" t="n">
-        <v>30.83333333333333</v>
+        <v>30.03166666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6648,22 +6820,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C179" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D179" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E179" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="F179" t="n">
-        <v>10407.62056752412</v>
+        <v>142687.9889</v>
       </c>
       <c r="G179" t="n">
-        <v>30.96666666666665</v>
+        <v>30.05333333333332</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6689,16 +6861,16 @@
         <v>31.1</v>
       </c>
       <c r="D180" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="E180" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="F180" t="n">
-        <v>72740.94127766819</v>
+        <v>10407.62056752412</v>
       </c>
       <c r="G180" t="n">
-        <v>31.06666666666666</v>
+        <v>30.07166666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6718,22 +6890,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="C181" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="D181" t="n">
         <v>31.2</v>
       </c>
       <c r="E181" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F181" t="n">
-        <v>2629.9679</v>
+        <v>72740.94127766819</v>
       </c>
       <c r="G181" t="n">
-        <v>31.13333333333333</v>
+        <v>30.09666666666665</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6765,10 +6937,10 @@
         <v>31.2</v>
       </c>
       <c r="F182" t="n">
-        <v>16571.915</v>
+        <v>2629.9679</v>
       </c>
       <c r="G182" t="n">
-        <v>31.16666666666666</v>
+        <v>30.12499999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6788,22 +6960,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="C183" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="D183" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="E183" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="F183" t="n">
-        <v>30</v>
+        <v>16571.915</v>
       </c>
       <c r="G183" t="n">
-        <v>31.16666666666666</v>
+        <v>30.14999999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6835,10 +7007,10 @@
         <v>31.1</v>
       </c>
       <c r="F184" t="n">
-        <v>4431.5384</v>
+        <v>30</v>
       </c>
       <c r="G184" t="n">
-        <v>31.13333333333332</v>
+        <v>30.17499999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6861,19 +7033,19 @@
         <v>31.1</v>
       </c>
       <c r="C185" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="D185" t="n">
         <v>31.1</v>
       </c>
       <c r="E185" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="F185" t="n">
-        <v>6255.7051</v>
+        <v>4431.5384</v>
       </c>
       <c r="G185" t="n">
-        <v>31.06666666666665</v>
+        <v>30.20166666666665</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6896,19 +7068,19 @@
         <v>31.1</v>
       </c>
       <c r="C186" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D186" t="n">
         <v>31.1</v>
       </c>
       <c r="E186" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F186" t="n">
-        <v>11</v>
+        <v>6255.7051</v>
       </c>
       <c r="G186" t="n">
-        <v>31.06666666666665</v>
+        <v>30.22499999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6940,10 +7112,10 @@
         <v>31.1</v>
       </c>
       <c r="F187" t="n">
-        <v>20190.9842</v>
+        <v>11</v>
       </c>
       <c r="G187" t="n">
-        <v>31.06666666666665</v>
+        <v>30.24999999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6963,7 +7135,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="C188" t="n">
         <v>31.1</v>
@@ -6972,13 +7144,13 @@
         <v>31.1</v>
       </c>
       <c r="E188" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="F188" t="n">
-        <v>5806.57</v>
+        <v>20190.9842</v>
       </c>
       <c r="G188" t="n">
-        <v>31.09999999999998</v>
+        <v>30.27333333333332</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6998,22 +7170,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="C189" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="D189" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="E189" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="F189" t="n">
-        <v>102.5806</v>
+        <v>5806.57</v>
       </c>
       <c r="G189" t="n">
-        <v>31.06666666666665</v>
+        <v>30.29833333333332</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7033,22 +7205,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="C190" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="D190" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="E190" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="F190" t="n">
-        <v>107.3226</v>
+        <v>102.5806</v>
       </c>
       <c r="G190" t="n">
-        <v>30.99999999999999</v>
+        <v>30.32166666666665</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7080,10 +7252,10 @@
         <v>30.9</v>
       </c>
       <c r="F191" t="n">
-        <v>639</v>
+        <v>107.3226</v>
       </c>
       <c r="G191" t="n">
-        <v>30.93333333333333</v>
+        <v>30.34333333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7115,10 +7287,10 @@
         <v>30.9</v>
       </c>
       <c r="F192" t="n">
-        <v>0.7453</v>
+        <v>639</v>
       </c>
       <c r="G192" t="n">
-        <v>30.9</v>
+        <v>30.36833333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7138,22 +7310,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="C193" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="D193" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="E193" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="F193" t="n">
-        <v>47601.5119</v>
+        <v>0.7453</v>
       </c>
       <c r="G193" t="n">
-        <v>30.79999999999999</v>
+        <v>30.39166666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7168,6 +7340,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C194" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F194" t="n">
+        <v>47601.5119</v>
+      </c>
+      <c r="G194" t="n">
+        <v>30.41166666666665</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>47866.9624</v>
       </c>
       <c r="G2" t="n">
+        <v>29.66666666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>29.67833333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>11</v>
       </c>
       <c r="G3" t="n">
+        <v>29.66666666666668</v>
+      </c>
+      <c r="H3" t="n">
         <v>29.66833333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>31880.5747</v>
       </c>
       <c r="G4" t="n">
+        <v>29.66000000000002</v>
+      </c>
+      <c r="H4" t="n">
         <v>29.66499999999998</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>15968.3056</v>
       </c>
       <c r="G5" t="n">
+        <v>29.68000000000002</v>
+      </c>
+      <c r="H5" t="n">
         <v>29.67499999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10440.3289</v>
       </c>
       <c r="G6" t="n">
+        <v>29.71333333333335</v>
+      </c>
+      <c r="H6" t="n">
         <v>29.68333333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>11000</v>
       </c>
       <c r="G7" t="n">
+        <v>29.77333333333335</v>
+      </c>
+      <c r="H7" t="n">
         <v>29.68333333333332</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>12255.7268</v>
       </c>
       <c r="G8" t="n">
+        <v>29.81333333333335</v>
+      </c>
+      <c r="H8" t="n">
         <v>29.69666666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>48781.0612</v>
       </c>
       <c r="G9" t="n">
+        <v>29.86000000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>29.71833333333331</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>24882.1203</v>
       </c>
       <c r="G10" t="n">
+        <v>29.90666666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>29.72333333333331</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>13970.3959</v>
       </c>
       <c r="G11" t="n">
+        <v>29.94000000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>29.73999999999998</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>32.8947</v>
       </c>
       <c r="G12" t="n">
+        <v>29.99333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>29.75833333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>997.5</v>
       </c>
       <c r="G13" t="n">
+        <v>30.01333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>29.76499999999998</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
+        <v>30.05333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>29.77499999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>130.5181</v>
       </c>
       <c r="G15" t="n">
+        <v>30.06666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>29.77833333333331</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>23024.187</v>
       </c>
       <c r="G16" t="n">
+        <v>30.06666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>29.78166666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>56333.8294</v>
       </c>
       <c r="G17" t="n">
+        <v>30.07333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>29.78333333333331</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>47762.0705</v>
       </c>
       <c r="G18" t="n">
+        <v>30.05333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>29.77499999999998</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
+        <v>30.04666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>29.77666666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>3072.3905</v>
       </c>
       <c r="G20" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="H20" t="n">
         <v>29.77833333333332</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
+        <v>30.01333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>29.77833333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2861.617080398671</v>
       </c>
       <c r="G22" t="n">
+        <v>30.00666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>29.77999999999998</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
+        <v>29.98000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>29.77499999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>28179.956</v>
       </c>
       <c r="G24" t="n">
+        <v>29.93333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>29.76499999999998</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>115637.3973</v>
       </c>
       <c r="G25" t="n">
+        <v>29.88000000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>29.75333333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
+        <v>29.85333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>29.74666666666665</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>100</v>
       </c>
       <c r="G27" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H27" t="n">
         <v>29.74999999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>96554.6507</v>
       </c>
       <c r="G28" t="n">
+        <v>29.79333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>29.73833333333332</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>11.0318</v>
       </c>
       <c r="G29" t="n">
+        <v>29.75333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>29.73999999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2345.8597</v>
       </c>
       <c r="G30" t="n">
+        <v>29.72000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>29.73833333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1762.3675</v>
       </c>
       <c r="G31" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="H31" t="n">
         <v>29.73666666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>33970.9224</v>
       </c>
       <c r="G32" t="n">
+        <v>29.69333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>29.73666666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>6782.0915</v>
       </c>
       <c r="G33" t="n">
+        <v>29.69333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>29.73666666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>4253.0403</v>
       </c>
       <c r="G34" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="H34" t="n">
         <v>29.73666666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,25 @@
         <v>1850.8444</v>
       </c>
       <c r="G35" t="n">
+        <v>29.66666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>29.73833333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1749,29 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
+        <v>29.64666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>29.74333333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1795,27 @@
         <v>49942.919</v>
       </c>
       <c r="G37" t="n">
+        <v>29.59333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>29.74333333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1839,27 @@
         <v>16243.1004</v>
       </c>
       <c r="G38" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="H38" t="n">
         <v>29.73333333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1883,27 @@
         <v>32736.9852</v>
       </c>
       <c r="G39" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="H39" t="n">
         <v>29.73499999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,22 +1927,27 @@
         <v>38137.346</v>
       </c>
       <c r="G40" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="H40" t="n">
         <v>29.73499999999998</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1817,24 +1971,27 @@
         <v>19996.1101</v>
       </c>
       <c r="G41" t="n">
+        <v>29.46666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>29.72666666666665</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,26 +2015,29 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
+        <v>29.42000000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>29.72666666666665</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>29.1</v>
       </c>
-      <c r="K42" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,24 +2061,29 @@
         <v>3479.3012</v>
       </c>
       <c r="G43" t="n">
+        <v>29.40666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>29.72166666666665</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,26 +2107,29 @@
         <v>3136.2397</v>
       </c>
       <c r="G44" t="n">
+        <v>29.36666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>29.71166666666665</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>29.2</v>
       </c>
-      <c r="K44" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1985,26 +2153,29 @@
         <v>10000</v>
       </c>
       <c r="G45" t="n">
+        <v>29.34666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>29.70333333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>29.2</v>
       </c>
-      <c r="K45" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2028,24 +2199,29 @@
         <v>323.4263</v>
       </c>
       <c r="G46" t="n">
+        <v>29.32666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>29.69499999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2069,24 +2245,29 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
+        <v>29.31333333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>29.68666666666665</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,24 +2291,29 @@
         <v>33549.1591</v>
       </c>
       <c r="G48" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="H48" t="n">
         <v>29.67833333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="n">
         <v>29.3</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2151,26 +2337,29 @@
         <v>1985.2861</v>
       </c>
       <c r="G49" t="n">
+        <v>29.31333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>29.67499999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>29.3</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,24 +2383,27 @@
         <v>22857.9827</v>
       </c>
       <c r="G50" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="H50" t="n">
         <v>29.67166666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,24 +2427,27 @@
         <v>76261.20209999999</v>
       </c>
       <c r="G51" t="n">
+        <v>29.31333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>29.67166666666665</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,24 +2471,27 @@
         <v>671.9969</v>
       </c>
       <c r="G52" t="n">
+        <v>29.33333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>29.67666666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2317,24 +2515,27 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
+        <v>29.36000000000001</v>
+      </c>
+      <c r="H53" t="n">
         <v>29.67833333333332</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,24 +2559,27 @@
         <v>8496.7392</v>
       </c>
       <c r="G54" t="n">
+        <v>29.38666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>29.67999999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,24 +2603,27 @@
         <v>4997.0318</v>
       </c>
       <c r="G55" t="n">
+        <v>29.42000000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>29.68166666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2440,24 +2647,27 @@
         <v>68573.94809999999</v>
       </c>
       <c r="G56" t="n">
+        <v>29.45333333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>29.67833333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2481,24 +2691,27 @@
         <v>146.8478</v>
       </c>
       <c r="G57" t="n">
+        <v>29.48000000000001</v>
+      </c>
+      <c r="H57" t="n">
         <v>29.67833333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,24 +2735,27 @@
         <v>868.3292</v>
       </c>
       <c r="G58" t="n">
+        <v>29.50666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>29.67999999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2563,24 +2779,27 @@
         <v>17000</v>
       </c>
       <c r="G59" t="n">
+        <v>29.53333333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>29.67666666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,24 +2823,27 @@
         <v>19361.88552188552</v>
       </c>
       <c r="G60" t="n">
+        <v>29.56666666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>29.67499999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2645,24 +2867,27 @@
         <v>62579.4629</v>
       </c>
       <c r="G61" t="n">
+        <v>29.60000000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>29.67333333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2686,24 +2911,27 @@
         <v>200</v>
       </c>
       <c r="G62" t="n">
+        <v>29.63333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>29.67833333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2727,24 +2955,27 @@
         <v>15921.1073</v>
       </c>
       <c r="G63" t="n">
+        <v>29.66666666666668</v>
+      </c>
+      <c r="H63" t="n">
         <v>29.67833333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,24 +2999,27 @@
         <v>35129.60287811448</v>
       </c>
       <c r="G64" t="n">
+        <v>29.67333333333335</v>
+      </c>
+      <c r="H64" t="n">
         <v>29.67833333333332</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,24 +3043,27 @@
         <v>16000.0167</v>
       </c>
       <c r="G65" t="n">
+        <v>29.68666666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>29.67333333333332</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,24 +3087,27 @@
         <v>1600.0016</v>
       </c>
       <c r="G66" t="n">
+        <v>29.70000000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>29.66833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2891,24 +3131,27 @@
         <v>33022.7509</v>
       </c>
       <c r="G67" t="n">
+        <v>29.74000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>29.66833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,24 +3175,27 @@
         <v>43306.3576</v>
       </c>
       <c r="G68" t="n">
+        <v>29.77333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>29.66833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2973,24 +3219,27 @@
         <v>46326.8538</v>
       </c>
       <c r="G69" t="n">
+        <v>29.80666666666668</v>
+      </c>
+      <c r="H69" t="n">
         <v>29.66666666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,25 +3263,28 @@
         <v>46326.8538</v>
       </c>
       <c r="G70" t="n">
+        <v>29.82666666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>29.66166666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1.018890784982935</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3055,18 +3307,27 @@
         <v>75070.924</v>
       </c>
       <c r="G71" t="n">
+        <v>29.87333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>29.66166666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,18 +3351,27 @@
         <v>14400.0152</v>
       </c>
       <c r="G72" t="n">
+        <v>29.90000000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>29.65499999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,18 +3395,27 @@
         <v>30593</v>
       </c>
       <c r="G73" t="n">
+        <v>29.92666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>29.65833333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,18 +3439,27 @@
         <v>52874.8934</v>
       </c>
       <c r="G74" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="H74" t="n">
         <v>29.64833333333332</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3195,18 +3483,27 @@
         <v>132.023</v>
       </c>
       <c r="G75" t="n">
+        <v>29.94666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>29.64499999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,18 +3527,27 @@
         <v>22308.9047</v>
       </c>
       <c r="G76" t="n">
+        <v>29.94666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>29.64333333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,18 +3571,29 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
+        <v>29.97333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>29.65333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L77" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,18 +3617,27 @@
         <v>117.4158</v>
       </c>
       <c r="G78" t="n">
+        <v>29.98666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>29.66166666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,18 +3661,27 @@
         <v>39907.0232</v>
       </c>
       <c r="G79" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="H79" t="n">
         <v>29.66166666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,18 +3705,27 @@
         <v>11</v>
       </c>
       <c r="G80" t="n">
+        <v>29.99333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>29.66666666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3405,18 +3749,27 @@
         <v>4991.786321885522</v>
       </c>
       <c r="G81" t="n">
+        <v>29.98666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>29.66166666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,18 +3793,27 @@
         <v>17247.0945</v>
       </c>
       <c r="G82" t="n">
+        <v>29.94666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>29.65333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,18 +3837,27 @@
         <v>238.7779</v>
       </c>
       <c r="G83" t="n">
+        <v>29.88666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>29.64499999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,18 +3881,29 @@
         <v>43393.9783</v>
       </c>
       <c r="G84" t="n">
+        <v>29.82666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>29.63999999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3545,18 +3927,29 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
+        <v>29.81333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>29.64499999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3580,18 +3973,29 @@
         <v>792.2053</v>
       </c>
       <c r="G86" t="n">
+        <v>29.77333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>29.64166666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L86" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,18 +4019,27 @@
         <v>5664.59</v>
       </c>
       <c r="G87" t="n">
+        <v>29.74000000000001</v>
+      </c>
+      <c r="H87" t="n">
         <v>29.63499999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,18 +4063,29 @@
         <v>1003</v>
       </c>
       <c r="G88" t="n">
+        <v>29.70666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>29.63666666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L88" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,18 +4109,29 @@
         <v>140.4335</v>
       </c>
       <c r="G89" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="H89" t="n">
         <v>29.63499999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,18 +4155,29 @@
         <v>84.4295</v>
       </c>
       <c r="G90" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="H90" t="n">
         <v>29.63999999999999</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L90" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,18 +4201,29 @@
         <v>59858.4505</v>
       </c>
       <c r="G91" t="n">
+        <v>29.72000000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>29.64833333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L91" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,18 +4247,29 @@
         <v>20</v>
       </c>
       <c r="G92" t="n">
+        <v>29.72000000000001</v>
+      </c>
+      <c r="H92" t="n">
         <v>29.65999999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>30</v>
+      </c>
+      <c r="L92" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3825,18 +4293,27 @@
         <v>8966.5502</v>
       </c>
       <c r="G93" t="n">
+        <v>29.74000000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>29.67333333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,18 +4337,27 @@
         <v>4779.2079</v>
       </c>
       <c r="G94" t="n">
+        <v>29.78000000000001</v>
+      </c>
+      <c r="H94" t="n">
         <v>29.68666666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,18 +4381,27 @@
         <v>13752.34</v>
       </c>
       <c r="G95" t="n">
+        <v>29.76666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>29.69166666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,18 +4425,27 @@
         <v>48</v>
       </c>
       <c r="G96" t="n">
+        <v>29.79333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>29.69833333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,18 +4469,27 @@
         <v>3317.0091</v>
       </c>
       <c r="G97" t="n">
+        <v>29.82666666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>29.71166666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,18 +4513,27 @@
         <v>10239.5981</v>
       </c>
       <c r="G98" t="n">
+        <v>29.88000000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>29.72499999999998</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4035,18 +4557,27 @@
         <v>11</v>
       </c>
       <c r="G99" t="n">
+        <v>29.92666666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>29.73666666666665</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,18 +4601,27 @@
         <v>5394.7831</v>
       </c>
       <c r="G100" t="n">
+        <v>29.92666666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>29.74666666666665</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,18 +4645,27 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
+        <v>29.95333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>29.76333333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,18 +4689,27 @@
         <v>237.5868</v>
       </c>
       <c r="G102" t="n">
+        <v>30.00666666666668</v>
+      </c>
+      <c r="H102" t="n">
         <v>29.78166666666665</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4175,18 +4733,27 @@
         <v>8.8256</v>
       </c>
       <c r="G103" t="n">
+        <v>30.05333333333335</v>
+      </c>
+      <c r="H103" t="n">
         <v>29.79833333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,18 +4777,27 @@
         <v>18586.1299</v>
       </c>
       <c r="G104" t="n">
+        <v>30.09333333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>29.81666666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,18 +4821,27 @@
         <v>18.1818</v>
       </c>
       <c r="G105" t="n">
+        <v>30.11333333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>29.83166666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,18 +4865,27 @@
         <v>1541.7141</v>
       </c>
       <c r="G106" t="n">
+        <v>30.11333333333335</v>
+      </c>
+      <c r="H106" t="n">
         <v>29.84499999999998</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,18 +4909,27 @@
         <v>7107.7173</v>
       </c>
       <c r="G107" t="n">
+        <v>30.08666666666668</v>
+      </c>
+      <c r="H107" t="n">
         <v>29.85333333333331</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,18 +4953,27 @@
         <v>7356.69</v>
       </c>
       <c r="G108" t="n">
+        <v>30.06000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>29.86333333333331</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,18 +4997,27 @@
         <v>17000</v>
       </c>
       <c r="G109" t="n">
+        <v>30.03333333333335</v>
+      </c>
+      <c r="H109" t="n">
         <v>29.86666666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,18 +5041,27 @@
         <v>3439.12</v>
       </c>
       <c r="G110" t="n">
+        <v>30.04000000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>29.87166666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,18 +5085,29 @@
         <v>23374.778</v>
       </c>
       <c r="G111" t="n">
+        <v>30.03333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>29.87833333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L111" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,18 +5131,29 @@
         <v>8323.822</v>
       </c>
       <c r="G112" t="n">
+        <v>30.02666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>29.88499999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>30</v>
+      </c>
+      <c r="L112" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,18 +5177,29 @@
         <v>69603.92630000001</v>
       </c>
       <c r="G113" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="H113" t="n">
         <v>29.88999999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>30</v>
+      </c>
+      <c r="L113" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,18 +5223,29 @@
         <v>10509.8305</v>
       </c>
       <c r="G114" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="H114" t="n">
         <v>29.89499999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>30</v>
+      </c>
+      <c r="L114" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,18 +5269,27 @@
         <v>20170.6666</v>
       </c>
       <c r="G115" t="n">
+        <v>30.03333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>29.89999999999998</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,18 +5313,27 @@
         <v>51397.4899</v>
       </c>
       <c r="G116" t="n">
+        <v>30.02666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>29.90666666666665</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,18 +5357,27 @@
         <v>30357.1905</v>
       </c>
       <c r="G117" t="n">
+        <v>30</v>
+      </c>
+      <c r="H117" t="n">
         <v>29.91166666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,18 +5401,27 @@
         <v>10118.9333</v>
       </c>
       <c r="G118" t="n">
+        <v>29.98666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>29.91833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,18 +5445,27 @@
         <v>10590.11</v>
       </c>
       <c r="G119" t="n">
+        <v>29.94666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>29.91999999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,18 +5489,29 @@
         <v>3680.9</v>
       </c>
       <c r="G120" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="H120" t="n">
         <v>29.92499999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L120" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4805,18 +5535,27 @@
         <v>19425.65</v>
       </c>
       <c r="G121" t="n">
+        <v>29.91333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>29.92333333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,18 +5579,29 @@
         <v>32182.1724</v>
       </c>
       <c r="G122" t="n">
+        <v>29.89333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>29.91833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L122" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4875,18 +5625,29 @@
         <v>11</v>
       </c>
       <c r="G123" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="H123" t="n">
         <v>29.91666666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L123" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,18 +5671,29 @@
         <v>3778.8172</v>
       </c>
       <c r="G124" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="H124" t="n">
         <v>29.91333333333332</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L124" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4945,18 +5717,29 @@
         <v>42496.5979</v>
       </c>
       <c r="G125" t="n">
+        <v>29.83333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>29.90833333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L125" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,18 +5763,29 @@
         <v>12260.753</v>
       </c>
       <c r="G126" t="n">
+        <v>29.80666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>29.90499999999999</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L126" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,18 +5809,29 @@
         <v>3778.8171</v>
       </c>
       <c r="G127" t="n">
+        <v>29.78000000000001</v>
+      </c>
+      <c r="H127" t="n">
         <v>29.89499999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,18 +5855,29 @@
         <v>50.6734</v>
       </c>
       <c r="G128" t="n">
+        <v>29.76000000000001</v>
+      </c>
+      <c r="H128" t="n">
         <v>29.88666666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L128" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5085,18 +5901,29 @@
         <v>15885.6712</v>
       </c>
       <c r="G129" t="n">
+        <v>29.73333333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>29.87666666666665</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L129" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,18 +5947,29 @@
         <v>25000</v>
       </c>
       <c r="G130" t="n">
+        <v>29.70666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>29.86999999999999</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L130" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5155,18 +5993,29 @@
         <v>965.8533</v>
       </c>
       <c r="G131" t="n">
+        <v>29.68000000000001</v>
+      </c>
+      <c r="H131" t="n">
         <v>29.85833333333332</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L131" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,18 +6039,29 @@
         <v>80792.51210000001</v>
       </c>
       <c r="G132" t="n">
+        <v>29.64666666666668</v>
+      </c>
+      <c r="H132" t="n">
         <v>29.84833333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L132" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5225,18 +6085,29 @@
         <v>248.8746</v>
       </c>
       <c r="G133" t="n">
+        <v>29.61333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>29.83999999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="L133" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5260,18 +6131,29 @@
         <v>19922.3617</v>
       </c>
       <c r="G134" t="n">
+        <v>29.59333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>29.83333333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5295,18 +6177,29 @@
         <v>6090.8239</v>
       </c>
       <c r="G135" t="n">
+        <v>29.54666666666668</v>
+      </c>
+      <c r="H135" t="n">
         <v>29.82499999999999</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="L135" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,18 +6223,29 @@
         <v>40.2243</v>
       </c>
       <c r="G136" t="n">
+        <v>29.55333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>29.82499999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L136" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5365,18 +6269,29 @@
         <v>334.051</v>
       </c>
       <c r="G137" t="n">
+        <v>29.55333333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>29.81333333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L137" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,18 +6315,27 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
+        <v>29.54666666666668</v>
+      </c>
+      <c r="H138" t="n">
         <v>29.80666666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5435,18 +6359,27 @@
         <v>11</v>
       </c>
       <c r="G139" t="n">
+        <v>29.56000000000001</v>
+      </c>
+      <c r="H139" t="n">
         <v>29.80833333333332</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,18 +6403,27 @@
         <v>9814.551799999999</v>
       </c>
       <c r="G140" t="n">
+        <v>29.58000000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>29.80499999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,18 +6447,27 @@
         <v>121.1058</v>
       </c>
       <c r="G141" t="n">
+        <v>29.59333333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>29.80666666666665</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,18 +6491,27 @@
         <v>22.2742</v>
       </c>
       <c r="G142" t="n">
+        <v>29.61333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>29.81166666666665</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,18 +6535,27 @@
         <v>790.2248</v>
       </c>
       <c r="G143" t="n">
+        <v>29.62000000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>29.81999999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,18 +6579,27 @@
         <v>11</v>
       </c>
       <c r="G144" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="H144" t="n">
         <v>29.82999999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,18 +6623,27 @@
         <v>30886.7962</v>
       </c>
       <c r="G145" t="n">
+        <v>29.66666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>29.83333333333332</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,18 +6667,27 @@
         <v>99</v>
       </c>
       <c r="G146" t="n">
+        <v>29.70666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>29.84166666666665</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,18 +6711,27 @@
         <v>2963.522</v>
       </c>
       <c r="G147" t="n">
+        <v>29.74666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>29.84999999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,18 +6755,27 @@
         <v>3883.4768</v>
       </c>
       <c r="G148" t="n">
+        <v>29.79333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>29.86166666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,18 +6799,27 @@
         <v>943.6821</v>
       </c>
       <c r="G149" t="n">
+        <v>29.84666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>29.86999999999999</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,18 +6843,27 @@
         <v>1000</v>
       </c>
       <c r="G150" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H150" t="n">
         <v>29.87499999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5855,18 +6887,27 @@
         <v>168.9136</v>
       </c>
       <c r="G151" t="n">
+        <v>29.92666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>29.87666666666665</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5890,18 +6931,27 @@
         <v>5195.6687</v>
       </c>
       <c r="G152" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="H152" t="n">
         <v>29.87333333333332</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5925,18 +6975,27 @@
         <v>4067.7321</v>
       </c>
       <c r="G153" t="n">
+        <v>29.98666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>29.86833333333332</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5960,18 +7019,27 @@
         <v>12403</v>
       </c>
       <c r="G154" t="n">
+        <v>29.99333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>29.86166666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5995,18 +7063,27 @@
         <v>344</v>
       </c>
       <c r="G155" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="H155" t="n">
         <v>29.86833333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6030,18 +7107,27 @@
         <v>28173.9867</v>
       </c>
       <c r="G156" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="H156" t="n">
         <v>29.86833333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6065,18 +7151,27 @@
         <v>17840.6667</v>
       </c>
       <c r="G157" t="n">
+        <v>30.05333333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>29.86833333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,18 +7195,27 @@
         <v>28814.7419</v>
       </c>
       <c r="G158" t="n">
+        <v>30.07333333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>29.86833333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6135,18 +7239,27 @@
         <v>25835.7061</v>
       </c>
       <c r="G159" t="n">
+        <v>30.08000000000001</v>
+      </c>
+      <c r="H159" t="n">
         <v>29.86833333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6170,18 +7283,29 @@
         <v>72</v>
       </c>
       <c r="G160" t="n">
+        <v>30.08666666666668</v>
+      </c>
+      <c r="H160" t="n">
         <v>29.87333333333332</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>30</v>
+      </c>
+      <c r="L160" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6205,18 +7329,27 @@
         <v>54</v>
       </c>
       <c r="G161" t="n">
+        <v>30.08000000000001</v>
+      </c>
+      <c r="H161" t="n">
         <v>29.87333333333332</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6240,18 +7373,27 @@
         <v>18.841</v>
       </c>
       <c r="G162" t="n">
+        <v>30.09333333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>29.87166666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6275,18 +7417,27 @@
         <v>10</v>
       </c>
       <c r="G163" t="n">
+        <v>30.09333333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>29.87166666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,18 +7461,27 @@
         <v>19959.52</v>
       </c>
       <c r="G164" t="n">
+        <v>30.08666666666668</v>
+      </c>
+      <c r="H164" t="n">
         <v>29.86833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6345,18 +7505,27 @@
         <v>184331.5756</v>
       </c>
       <c r="G165" t="n">
+        <v>30.08000000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>29.86666666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6380,18 +7549,27 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
+        <v>30.08666666666668</v>
+      </c>
+      <c r="H166" t="n">
         <v>29.86999999999999</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,18 +7593,27 @@
         <v>16665</v>
       </c>
       <c r="G167" t="n">
+        <v>30.11333333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>29.88</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6450,18 +7637,27 @@
         <v>90017.776</v>
       </c>
       <c r="G168" t="n">
+        <v>30.15333333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>29.89166666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6485,18 +7681,27 @@
         <v>10</v>
       </c>
       <c r="G169" t="n">
+        <v>30.20666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>29.90499999999999</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6520,18 +7725,27 @@
         <v>158429.9193</v>
       </c>
       <c r="G170" t="n">
+        <v>30.24666666666668</v>
+      </c>
+      <c r="H170" t="n">
         <v>29.91999999999999</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6555,18 +7769,27 @@
         <v>1002</v>
       </c>
       <c r="G171" t="n">
+        <v>30.29333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>29.93333333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6590,18 +7813,27 @@
         <v>95710.6251</v>
       </c>
       <c r="G172" t="n">
+        <v>30.34666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>29.94833333333332</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6625,18 +7857,27 @@
         <v>16149.6129</v>
       </c>
       <c r="G173" t="n">
+        <v>30.40666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>29.96499999999999</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6660,18 +7901,27 @@
         <v>134.6192</v>
       </c>
       <c r="G174" t="n">
+        <v>30.45333333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>29.97666666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6695,18 +7945,27 @@
         <v>18723.6659</v>
       </c>
       <c r="G175" t="n">
+        <v>30.49333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>29.98833333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6730,18 +7989,27 @@
         <v>120230.2943</v>
       </c>
       <c r="G176" t="n">
+        <v>30.55333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>30.00499999999999</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6765,18 +8033,27 @@
         <v>230.568</v>
       </c>
       <c r="G177" t="n">
+        <v>30.58666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>30.01833333333332</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6800,18 +8077,27 @@
         <v>1165.1387</v>
       </c>
       <c r="G178" t="n">
+        <v>30.62666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>30.03166666666666</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6835,18 +8121,27 @@
         <v>142687.9889</v>
       </c>
       <c r="G179" t="n">
+        <v>30.68666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>30.05333333333332</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6870,18 +8165,27 @@
         <v>10407.62056752412</v>
       </c>
       <c r="G180" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="H180" t="n">
         <v>30.07166666666665</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6905,18 +8209,27 @@
         <v>72740.94127766819</v>
       </c>
       <c r="G181" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="H181" t="n">
         <v>30.09666666666665</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6940,19 +8253,28 @@
         <v>2629.9679</v>
       </c>
       <c r="G182" t="n">
+        <v>30.87333333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>30.12499999999999</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
+      <c r="L182" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1.052627118644068</v>
       </c>
     </row>
     <row r="183">
@@ -6975,18 +8297,21 @@
         <v>16571.915</v>
       </c>
       <c r="G183" t="n">
+        <v>30.91333333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>30.14999999999999</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7010,18 +8335,21 @@
         <v>30</v>
       </c>
       <c r="G184" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="H184" t="n">
         <v>30.17499999999999</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7045,18 +8373,21 @@
         <v>4431.5384</v>
       </c>
       <c r="G185" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="H185" t="n">
         <v>30.20166666666665</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7080,18 +8411,21 @@
         <v>6255.7051</v>
       </c>
       <c r="G186" t="n">
+        <v>30.97333333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>30.22499999999999</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7115,18 +8449,21 @@
         <v>11</v>
       </c>
       <c r="G187" t="n">
+        <v>30.98666666666668</v>
+      </c>
+      <c r="H187" t="n">
         <v>30.24999999999999</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7150,18 +8487,21 @@
         <v>20190.9842</v>
       </c>
       <c r="G188" t="n">
+        <v>30.99333333333334</v>
+      </c>
+      <c r="H188" t="n">
         <v>30.27333333333332</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7185,18 +8525,21 @@
         <v>5806.57</v>
       </c>
       <c r="G189" t="n">
+        <v>31.02000000000001</v>
+      </c>
+      <c r="H189" t="n">
         <v>30.29833333333332</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7220,18 +8563,21 @@
         <v>102.5806</v>
       </c>
       <c r="G190" t="n">
+        <v>31.04000000000001</v>
+      </c>
+      <c r="H190" t="n">
         <v>30.32166666666665</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7255,18 +8601,21 @@
         <v>107.3226</v>
       </c>
       <c r="G191" t="n">
+        <v>31.03333333333335</v>
+      </c>
+      <c r="H191" t="n">
         <v>30.34333333333332</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7290,18 +8639,21 @@
         <v>639</v>
       </c>
       <c r="G192" t="n">
+        <v>31.04666666666668</v>
+      </c>
+      <c r="H192" t="n">
         <v>30.36833333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7325,18 +8677,21 @@
         <v>0.7453</v>
       </c>
       <c r="G193" t="n">
+        <v>31.05333333333334</v>
+      </c>
+      <c r="H193" t="n">
         <v>30.39166666666666</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7360,18 +8715,401 @@
         <v>47601.5119</v>
       </c>
       <c r="G194" t="n">
+        <v>31.02666666666668</v>
+      </c>
+      <c r="H194" t="n">
         <v>30.41166666666665</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C195" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D195" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E195" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4995.5977</v>
+      </c>
+      <c r="G195" t="n">
+        <v>31.00000000000001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>30.43499999999999</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C196" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D196" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E196" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>11</v>
+      </c>
+      <c r="G196" t="n">
+        <v>30.98666666666667</v>
+      </c>
+      <c r="H196" t="n">
+        <v>30.45499999999999</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C197" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F197" t="n">
+        <v>266.1031</v>
+      </c>
+      <c r="G197" t="n">
+        <v>30.96666666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>30.47833333333333</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>31</v>
+      </c>
+      <c r="C198" t="n">
+        <v>31</v>
+      </c>
+      <c r="D198" t="n">
+        <v>31</v>
+      </c>
+      <c r="E198" t="n">
+        <v>31</v>
+      </c>
+      <c r="F198" t="n">
+        <v>603.1741</v>
+      </c>
+      <c r="G198" t="n">
+        <v>30.95333333333334</v>
+      </c>
+      <c r="H198" t="n">
+        <v>30.50166666666666</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>31</v>
+      </c>
+      <c r="C199" t="n">
+        <v>31</v>
+      </c>
+      <c r="D199" t="n">
+        <v>31</v>
+      </c>
+      <c r="E199" t="n">
+        <v>31</v>
+      </c>
+      <c r="F199" t="n">
+        <v>583.3516</v>
+      </c>
+      <c r="G199" t="n">
+        <v>30.94666666666667</v>
+      </c>
+      <c r="H199" t="n">
+        <v>30.52166666666666</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>31</v>
+      </c>
+      <c r="D200" t="n">
+        <v>31</v>
+      </c>
+      <c r="E200" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11835.2937</v>
+      </c>
+      <c r="G200" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="H200" t="n">
+        <v>30.54166666666666</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>31</v>
+      </c>
+      <c r="C201" t="n">
+        <v>31</v>
+      </c>
+      <c r="D201" t="n">
+        <v>31</v>
+      </c>
+      <c r="E201" t="n">
+        <v>31</v>
+      </c>
+      <c r="F201" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="H201" t="n">
+        <v>30.56166666666666</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>31</v>
+      </c>
+      <c r="C202" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>31</v>
+      </c>
+      <c r="E202" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3531.3107</v>
+      </c>
+      <c r="G202" t="n">
+        <v>30.92666666666667</v>
+      </c>
+      <c r="H202" t="n">
+        <v>30.57833333333333</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F203" t="n">
+        <v>32815.3398</v>
+      </c>
+      <c r="G203" t="n">
+        <v>30.91333333333333</v>
+      </c>
+      <c r="H203" t="n">
+        <v>30.59666666666667</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C204" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D204" t="n">
+        <v>31</v>
+      </c>
+      <c r="E204" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3544.0204</v>
+      </c>
+      <c r="G204" t="n">
+        <v>30.88666666666666</v>
+      </c>
+      <c r="H204" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M233"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="C2" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="E2" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>212.0756</v>
+        <v>130.5181</v>
       </c>
       <c r="G2" t="n">
-        <v>-619607.4595000001</v>
+        <v>30.06666666666663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D3" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1797.5845</v>
+        <v>23024.187</v>
       </c>
       <c r="G3" t="n">
-        <v>-619607.4595000001</v>
+        <v>30.06666666666663</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="E4" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F4" t="n">
-        <v>6102.4155</v>
+        <v>56333.8294</v>
       </c>
       <c r="G4" t="n">
-        <v>-625709.8750000001</v>
+        <v>29.79999999999997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="C5" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D5" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F5" t="n">
-        <v>23146.64</v>
+        <v>47762.0705</v>
       </c>
       <c r="G5" t="n">
-        <v>-625709.8750000001</v>
+        <v>29.6333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="C6" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="D6" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="E6" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="F6" t="n">
-        <v>21599.8984</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-647309.7734000001</v>
+        <v>29.59999999999997</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="C7" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="D7" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="E7" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>3072.3905</v>
       </c>
       <c r="G7" t="n">
-        <v>-647298.7734000001</v>
+        <v>29.6333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>44083.4199</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-691382.1933</v>
+        <v>29.79999999999997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>29.2</v>
+        <v>30.1</v>
       </c>
       <c r="D9" t="n">
-        <v>29.2</v>
+        <v>30.1</v>
       </c>
       <c r="E9" t="n">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>16348.1312</v>
+        <v>2861.617080398671</v>
       </c>
       <c r="G9" t="n">
-        <v>-691382.1933</v>
+        <v>29.93333333333329</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="D10" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="E10" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-691371.1933</v>
+        <v>29.96666666666663</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="C11" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="D11" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="E11" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="F11" t="n">
-        <v>2723.1078</v>
+        <v>28179.956</v>
       </c>
       <c r="G11" t="n">
-        <v>-694094.3011</v>
+        <v>29.8333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="C12" t="n">
         <v>29.5</v>
       </c>
       <c r="D12" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="E12" t="n">
         <v>29.5</v>
       </c>
       <c r="F12" t="n">
-        <v>5000</v>
+        <v>115637.3973</v>
       </c>
       <c r="G12" t="n">
-        <v>-689094.3011</v>
+        <v>29.6333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="D13" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="E13" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="F13" t="n">
-        <v>7286.4429</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-681807.8582</v>
+        <v>29.66666666666663</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="C14" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="D14" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="E14" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="F14" t="n">
-        <v>3226.39</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>-685034.2482</v>
+        <v>29.76666666666663</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C15" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="D15" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E15" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="F15" t="n">
-        <v>1050.46</v>
+        <v>96554.6507</v>
       </c>
       <c r="G15" t="n">
-        <v>-685034.2482</v>
+        <v>29.7333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -935,10 +954,10 @@
         <v>29.8</v>
       </c>
       <c r="F16" t="n">
-        <v>462.7916</v>
+        <v>11.0318</v>
       </c>
       <c r="G16" t="n">
-        <v>-684571.4566</v>
+        <v>29.69999999999997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="D17" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E17" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="F17" t="n">
-        <v>5277.9142</v>
+        <v>2345.8597</v>
       </c>
       <c r="G17" t="n">
-        <v>-684571.4566</v>
+        <v>29.56666666666663</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C18" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="D18" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="E18" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="F18" t="n">
-        <v>15925.4849</v>
+        <v>1762.3675</v>
       </c>
       <c r="G18" t="n">
-        <v>-668645.9717</v>
+        <v>29.59999999999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="C19" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="D19" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="E19" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="F19" t="n">
-        <v>34722.0858</v>
+        <v>33970.9224</v>
       </c>
       <c r="G19" t="n">
-        <v>-703368.0575</v>
+        <v>29.49999999999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C20" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="D20" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E20" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F20" t="n">
-        <v>13856.3175</v>
+        <v>6782.0915</v>
       </c>
       <c r="G20" t="n">
-        <v>-717224.375</v>
+        <v>29.49999999999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="C21" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="D21" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E21" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="F21" t="n">
-        <v>5718.936</v>
+        <v>4253.0403</v>
       </c>
       <c r="G21" t="n">
-        <v>-722943.311</v>
+        <v>29.49999999999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C22" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="D22" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E22" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>1850.8444</v>
       </c>
       <c r="G22" t="n">
-        <v>-722932.311</v>
+        <v>29.49999999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C23" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D23" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E23" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F23" t="n">
-        <v>27710.7004</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>-722932.311</v>
+        <v>29.56666666666663</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="C24" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="D24" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="E24" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="F24" t="n">
-        <v>8448.795099999999</v>
+        <v>49942.919</v>
       </c>
       <c r="G24" t="n">
-        <v>-722932.311</v>
+        <v>29.49999999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="C25" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="D25" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="E25" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>16243.1004</v>
       </c>
       <c r="G25" t="n">
-        <v>-722922.311</v>
+        <v>29.4333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="C26" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="D26" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="E26" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="F26" t="n">
-        <v>30000</v>
+        <v>32736.9852</v>
       </c>
       <c r="G26" t="n">
-        <v>-752922.311</v>
+        <v>29.29999999999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="C27" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="D27" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="E27" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="F27" t="n">
-        <v>229372.7055</v>
+        <v>38137.346</v>
       </c>
       <c r="G27" t="n">
-        <v>-982295.0165</v>
+        <v>29.26666666666663</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="C28" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="D28" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="E28" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="F28" t="n">
-        <v>91</v>
+        <v>19996.1101</v>
       </c>
       <c r="G28" t="n">
-        <v>-982204.0165</v>
+        <v>29.19999999999996</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="C29" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="D29" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="E29" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="F29" t="n">
-        <v>552.7667</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>-982204.0165</v>
+        <v>29.16666666666663</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="C30" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="D30" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="E30" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="F30" t="n">
-        <v>268.7013</v>
+        <v>3479.3012</v>
       </c>
       <c r="G30" t="n">
-        <v>-982204.0165</v>
+        <v>29.16666666666663</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="C31" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="D31" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="E31" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="F31" t="n">
-        <v>47866.9624</v>
+        <v>3136.2397</v>
       </c>
       <c r="G31" t="n">
-        <v>-1030070.9789</v>
+        <v>29.19999999999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="C32" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="D32" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="E32" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="F32" t="n">
-        <v>11</v>
+        <v>10000</v>
       </c>
       <c r="G32" t="n">
-        <v>-1030059.9789</v>
+        <v>29.19999999999997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="C33" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="D33" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="E33" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="F33" t="n">
-        <v>31880.5747</v>
+        <v>323.4263</v>
       </c>
       <c r="G33" t="n">
-        <v>-1030059.9789</v>
+        <v>29.19999999999997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="C34" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="D34" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="F34" t="n">
-        <v>15968.3056</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-1014091.6733</v>
+        <v>29.2333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="C35" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="D35" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="E35" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="F35" t="n">
-        <v>10440.3289</v>
+        <v>33549.1591</v>
       </c>
       <c r="G35" t="n">
-        <v>-1014091.6733</v>
+        <v>29.26666666666663</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="C36" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="D36" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="E36" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="F36" t="n">
-        <v>11000</v>
+        <v>1985.2861</v>
       </c>
       <c r="G36" t="n">
-        <v>-1003091.6733</v>
+        <v>29.4333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="C37" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="D37" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="E37" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="F37" t="n">
-        <v>12255.7268</v>
+        <v>22857.9827</v>
       </c>
       <c r="G37" t="n">
-        <v>-1003091.6733</v>
+        <v>29.5333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="C38" t="n">
-        <v>30.3</v>
+        <v>29.6</v>
       </c>
       <c r="D38" t="n">
-        <v>30.3</v>
+        <v>29.6</v>
       </c>
       <c r="E38" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="F38" t="n">
-        <v>48781.0612</v>
+        <v>76261.20209999999</v>
       </c>
       <c r="G38" t="n">
-        <v>-954310.6121</v>
+        <v>29.6333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30.3</v>
+        <v>29.6</v>
       </c>
       <c r="C39" t="n">
-        <v>30.3</v>
+        <v>29.6</v>
       </c>
       <c r="D39" t="n">
-        <v>30.3</v>
+        <v>29.6</v>
       </c>
       <c r="E39" t="n">
-        <v>30.3</v>
+        <v>29.6</v>
       </c>
       <c r="F39" t="n">
-        <v>24882.1203</v>
+        <v>671.9969</v>
       </c>
       <c r="G39" t="n">
-        <v>-954310.6121</v>
+        <v>29.59999999999997</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="C40" t="n">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="D40" t="n">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="E40" t="n">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="F40" t="n">
-        <v>13970.3959</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-954310.6121</v>
+        <v>29.63333333333331</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30.4</v>
+        <v>29.7</v>
       </c>
       <c r="C41" t="n">
-        <v>30.4</v>
+        <v>29.7</v>
       </c>
       <c r="D41" t="n">
-        <v>30.4</v>
+        <v>29.7</v>
       </c>
       <c r="E41" t="n">
-        <v>30.4</v>
+        <v>29.7</v>
       </c>
       <c r="F41" t="n">
-        <v>32.8947</v>
+        <v>8496.7392</v>
       </c>
       <c r="G41" t="n">
-        <v>-954277.7174000001</v>
+        <v>29.66666666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="C42" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="D42" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="E42" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="F42" t="n">
-        <v>997.5</v>
+        <v>4997.0318</v>
       </c>
       <c r="G42" t="n">
-        <v>-955275.2174000001</v>
+        <v>29.69999999999997</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="C43" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="D43" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="E43" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="F43" t="n">
-        <v>11</v>
+        <v>68573.94809999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-955264.2174000001</v>
+        <v>29.66666666666663</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="D44" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="F44" t="n">
-        <v>130.5181</v>
+        <v>146.8478</v>
       </c>
       <c r="G44" t="n">
-        <v>-955394.7355000001</v>
+        <v>29.6333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="C45" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="E45" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="F45" t="n">
-        <v>23024.187</v>
+        <v>868.3292</v>
       </c>
       <c r="G45" t="n">
-        <v>-978418.9225000001</v>
+        <v>29.59999999999997</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C46" t="n">
         <v>29.6</v>
       </c>
       <c r="D46" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E46" t="n">
         <v>29.6</v>
       </c>
       <c r="F46" t="n">
-        <v>56333.8294</v>
+        <v>17000</v>
       </c>
       <c r="G46" t="n">
-        <v>-1034752.7519</v>
+        <v>29.59999999999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2011,19 +2061,19 @@
         <v>29.7</v>
       </c>
       <c r="C47" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="D47" t="n">
         <v>29.7</v>
       </c>
       <c r="E47" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F47" t="n">
-        <v>47762.0705</v>
+        <v>19361.88552188552</v>
       </c>
       <c r="G47" t="n">
-        <v>-1082514.8224</v>
+        <v>29.63333333333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2055,10 +2106,10 @@
         <v>29.7</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>62579.4629</v>
       </c>
       <c r="G48" t="n">
-        <v>-1082504.8224</v>
+        <v>29.66666666666664</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2081,19 +2133,19 @@
         <v>29.7</v>
       </c>
       <c r="C49" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="D49" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E49" t="n">
         <v>29.7</v>
       </c>
       <c r="F49" t="n">
-        <v>3072.3905</v>
+        <v>200</v>
       </c>
       <c r="G49" t="n">
-        <v>-1082504.8224</v>
+        <v>29.7333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>15921.1073</v>
       </c>
       <c r="G50" t="n">
-        <v>-1082494.8224</v>
+        <v>29.76666666666663</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C51" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D51" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F51" t="n">
-        <v>2861.617080398671</v>
+        <v>35129.60287811448</v>
       </c>
       <c r="G51" t="n">
-        <v>-1079633.205319602</v>
+        <v>29.79999999999997</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2195,10 +2250,10 @@
         <v>29.8</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>16000.0167</v>
       </c>
       <c r="G52" t="n">
-        <v>-1079643.205319602</v>
+        <v>29.79999999999997</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="C53" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="D53" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E53" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="F53" t="n">
-        <v>28179.956</v>
+        <v>1600.0016</v>
       </c>
       <c r="G53" t="n">
-        <v>-1107823.161319602</v>
+        <v>29.79999999999997</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="C54" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="D54" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="E54" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="F54" t="n">
-        <v>115637.3973</v>
+        <v>33022.7509</v>
       </c>
       <c r="G54" t="n">
-        <v>-1223460.558619602</v>
+        <v>29.9333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="C55" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="D55" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="E55" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>43306.3576</v>
       </c>
       <c r="G55" t="n">
-        <v>-1223450.558619602</v>
+        <v>30.06666666666663</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="C56" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="D56" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="E56" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>46326.8538</v>
       </c>
       <c r="G56" t="n">
-        <v>-1223450.558619602</v>
+        <v>30.19999999999997</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="F57" t="n">
-        <v>96554.6507</v>
+        <v>46326.8538</v>
       </c>
       <c r="G57" t="n">
-        <v>-1320005.209319602</v>
+        <v>30.1333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="C58" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="D58" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="E58" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="F58" t="n">
-        <v>11.0318</v>
+        <v>75070.924</v>
       </c>
       <c r="G58" t="n">
-        <v>-1319994.177519602</v>
+        <v>30.16666666666663</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="C59" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="E59" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F59" t="n">
-        <v>2345.8597</v>
+        <v>14400.0152</v>
       </c>
       <c r="G59" t="n">
-        <v>-1322340.037219602</v>
+        <v>30.09999999999997</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="E60" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F60" t="n">
-        <v>1762.3675</v>
+        <v>30593</v>
       </c>
       <c r="G60" t="n">
-        <v>-1322340.037219602</v>
+        <v>30.09999999999997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D61" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F61" t="n">
-        <v>33970.9224</v>
+        <v>52874.8934</v>
       </c>
       <c r="G61" t="n">
-        <v>-1322340.037219602</v>
+        <v>29.9333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="C62" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D62" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="E62" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F62" t="n">
-        <v>6782.0915</v>
+        <v>132.023</v>
       </c>
       <c r="G62" t="n">
-        <v>-1322340.037219602</v>
+        <v>29.86666666666663</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="C63" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="D63" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="E63" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F63" t="n">
-        <v>4253.0403</v>
+        <v>22308.9047</v>
       </c>
       <c r="G63" t="n">
-        <v>-1322340.037219602</v>
+        <v>29.76666666666663</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="C64" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="D64" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="E64" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="F64" t="n">
-        <v>1850.8444</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-1322340.037219602</v>
+        <v>29.89999999999997</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="E65" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>117.4158</v>
       </c>
       <c r="G65" t="n">
-        <v>-1322329.037219602</v>
+        <v>29.96666666666664</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.4</v>
+        <v>29.9</v>
       </c>
       <c r="C66" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="D66" t="n">
-        <v>29.4</v>
+        <v>29.9</v>
       </c>
       <c r="E66" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="F66" t="n">
-        <v>49942.919</v>
+        <v>39907.0232</v>
       </c>
       <c r="G66" t="n">
-        <v>-1372271.956219602</v>
+        <v>29.96666666666664</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="F67" t="n">
-        <v>16243.1004</v>
+        <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>-1372271.956219602</v>
+        <v>29.89999999999997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="C68" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="D68" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="E68" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="F68" t="n">
-        <v>32736.9852</v>
+        <v>4991.786321885522</v>
       </c>
       <c r="G68" t="n">
-        <v>-1372271.956219602</v>
+        <v>29.79999999999997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="C69" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="D69" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="E69" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="F69" t="n">
-        <v>38137.346</v>
+        <v>17247.0945</v>
       </c>
       <c r="G69" t="n">
-        <v>-1410409.302219602</v>
+        <v>29.76666666666664</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="C70" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="D70" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E70" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F70" t="n">
-        <v>19996.1101</v>
+        <v>238.7779</v>
       </c>
       <c r="G70" t="n">
-        <v>-1430405.412319602</v>
+        <v>29.5333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C71" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D71" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E71" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>43393.9783</v>
       </c>
       <c r="G71" t="n">
-        <v>-1430394.412319602</v>
+        <v>29.39999999999997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="C72" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="D72" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="E72" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="F72" t="n">
-        <v>3479.3012</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>-1430394.412319602</v>
+        <v>29.46666666666663</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="C73" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="D73" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="E73" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="F73" t="n">
-        <v>3136.2397</v>
+        <v>792.2053</v>
       </c>
       <c r="G73" t="n">
-        <v>-1430394.412319602</v>
+        <v>29.59999999999997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="C74" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D74" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="E74" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F74" t="n">
-        <v>10000</v>
+        <v>5664.59</v>
       </c>
       <c r="G74" t="n">
-        <v>-1430394.412319602</v>
+        <v>29.66666666666663</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C75" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D75" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E75" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F75" t="n">
-        <v>323.4263</v>
+        <v>1003</v>
       </c>
       <c r="G75" t="n">
-        <v>-1430394.412319602</v>
+        <v>29.56666666666663</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="C76" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="D76" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="E76" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>140.4335</v>
       </c>
       <c r="G76" t="n">
-        <v>-1430384.412319602</v>
+        <v>29.56666666666663</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="C77" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="D77" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="E77" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="F77" t="n">
-        <v>33549.1591</v>
+        <v>84.4295</v>
       </c>
       <c r="G77" t="n">
-        <v>-1430384.412319602</v>
+        <v>29.66666666666663</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="C78" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="E78" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="F78" t="n">
-        <v>1985.2861</v>
+        <v>59858.4505</v>
       </c>
       <c r="G78" t="n">
-        <v>-1428399.126219602</v>
+        <v>29.8333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="C79" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="D79" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="E79" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="F79" t="n">
-        <v>22857.9827</v>
+        <v>20</v>
       </c>
       <c r="G79" t="n">
-        <v>-1451257.108919602</v>
+        <v>29.99999999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="C80" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="D80" t="n">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E80" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="F80" t="n">
-        <v>76261.20209999999</v>
+        <v>8966.5502</v>
       </c>
       <c r="G80" t="n">
-        <v>-1451257.108919602</v>
+        <v>30.16666666666663</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="C81" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="D81" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="E81" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="F81" t="n">
-        <v>671.9969</v>
+        <v>4779.2079</v>
       </c>
       <c r="G81" t="n">
-        <v>-1451257.108919602</v>
+        <v>30.26666666666663</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="C82" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="D82" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="E82" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>13752.34</v>
       </c>
       <c r="G82" t="n">
-        <v>-1451247.108919602</v>
+        <v>30.1333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="C83" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="D83" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="E83" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="F83" t="n">
-        <v>8496.7392</v>
+        <v>48</v>
       </c>
       <c r="G83" t="n">
-        <v>-1451247.108919602</v>
+        <v>30.06666666666663</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="C84" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="D84" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="E84" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="F84" t="n">
-        <v>4997.0318</v>
+        <v>3317.0091</v>
       </c>
       <c r="G84" t="n">
-        <v>-1451247.108919602</v>
+        <v>29.99999999999997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="C85" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="D85" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="E85" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="F85" t="n">
-        <v>68573.94809999999</v>
+        <v>10239.5981</v>
       </c>
       <c r="G85" t="n">
-        <v>-1519821.057019602</v>
+        <v>30.09999999999997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="C86" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="E86" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="F86" t="n">
-        <v>146.8478</v>
+        <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>-1519821.057019602</v>
+        <v>30.06666666666663</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="C87" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="D87" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="E87" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="F87" t="n">
-        <v>868.3292</v>
+        <v>5394.7831</v>
       </c>
       <c r="G87" t="n">
-        <v>-1519821.057019602</v>
+        <v>29.96666666666663</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="C88" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="D88" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="E88" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="F88" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>-1519821.057019602</v>
+        <v>29.96666666666663</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="C89" t="n">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="D89" t="n">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="E89" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="F89" t="n">
-        <v>19361.88552188552</v>
+        <v>237.5868</v>
       </c>
       <c r="G89" t="n">
-        <v>-1500459.171497716</v>
+        <v>30.06666666666663</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="C90" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="D90" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="E90" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="F90" t="n">
-        <v>62579.4629</v>
+        <v>8.8256</v>
       </c>
       <c r="G90" t="n">
-        <v>-1500459.171497716</v>
+        <v>30.19999999999996</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="C91" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="D91" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="E91" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>18586.1299</v>
       </c>
       <c r="G91" t="n">
-        <v>-1500259.171497716</v>
+        <v>30.26666666666663</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="C92" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="D92" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="E92" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="F92" t="n">
-        <v>15921.1073</v>
+        <v>18.1818</v>
       </c>
       <c r="G92" t="n">
-        <v>-1500259.171497716</v>
+        <v>30.19999999999996</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C93" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E93" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F93" t="n">
-        <v>35129.60287811448</v>
+        <v>1541.7141</v>
       </c>
       <c r="G93" t="n">
-        <v>-1500259.171497716</v>
+        <v>30.1333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3665,10 +3762,10 @@
         <v>29.8</v>
       </c>
       <c r="F94" t="n">
-        <v>16000.0167</v>
+        <v>7107.7173</v>
       </c>
       <c r="G94" t="n">
-        <v>-1500259.171497716</v>
+        <v>29.96666666666663</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C95" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="D95" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E95" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="F95" t="n">
-        <v>1600.0016</v>
+        <v>7356.69</v>
       </c>
       <c r="G95" t="n">
-        <v>-1500259.171497716</v>
+        <v>29.89999999999997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>30</v>
+      </c>
+      <c r="C96" t="n">
         <v>29.9</v>
       </c>
-      <c r="C96" t="n">
-        <v>30.2</v>
-      </c>
       <c r="D96" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E96" t="n">
         <v>29.9</v>
       </c>
       <c r="F96" t="n">
-        <v>33022.7509</v>
+        <v>17000</v>
       </c>
       <c r="G96" t="n">
-        <v>-1467236.420597716</v>
+        <v>29.86666666666664</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="C97" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="D97" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="E97" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="F97" t="n">
-        <v>43306.3576</v>
+        <v>3439.12</v>
       </c>
       <c r="G97" t="n">
-        <v>-1467236.420597716</v>
+        <v>29.89999999999997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="C98" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D98" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E98" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="F98" t="n">
-        <v>46326.8538</v>
+        <v>23374.778</v>
       </c>
       <c r="G98" t="n">
-        <v>-1467236.420597716</v>
+        <v>29.93333333333331</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3840,10 +3942,10 @@
         <v>30</v>
       </c>
       <c r="F99" t="n">
-        <v>46326.8538</v>
+        <v>8323.822</v>
       </c>
       <c r="G99" t="n">
-        <v>-1513563.274397716</v>
+        <v>29.96666666666664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="C100" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="D100" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="E100" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="F100" t="n">
-        <v>75070.924</v>
+        <v>69603.92630000001</v>
       </c>
       <c r="G100" t="n">
-        <v>-1438492.350397716</v>
+        <v>29.99999999999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C101" t="n">
         <v>30</v>
       </c>
       <c r="D101" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E101" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="F101" t="n">
-        <v>14400.0152</v>
+        <v>10509.8305</v>
       </c>
       <c r="G101" t="n">
-        <v>-1452892.365597716</v>
+        <v>29.99999999999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3945,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="F102" t="n">
-        <v>30593</v>
+        <v>20170.6666</v>
       </c>
       <c r="G102" t="n">
-        <v>-1452892.365597716</v>
+        <v>29.99999999999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,16 +4067,17 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C103" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D103" t="n">
         <v>30</v>
@@ -3980,10 +4086,10 @@
         <v>29.8</v>
       </c>
       <c r="F103" t="n">
-        <v>52874.8934</v>
+        <v>51397.4899</v>
       </c>
       <c r="G103" t="n">
-        <v>-1505767.258997716</v>
+        <v>29.99999999999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C104" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="D104" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="E104" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="F104" t="n">
-        <v>132.023</v>
+        <v>30357.1905</v>
       </c>
       <c r="G104" t="n">
-        <v>-1505767.258997716</v>
+        <v>29.96666666666664</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C105" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D105" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E105" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="F105" t="n">
-        <v>22308.9047</v>
+        <v>10118.9333</v>
       </c>
       <c r="G105" t="n">
-        <v>-1528076.163697716</v>
+        <v>29.96666666666664</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="C106" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="D106" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="E106" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>10590.11</v>
       </c>
       <c r="G106" t="n">
-        <v>-1528066.163697716</v>
+        <v>29.86666666666664</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,6 +4211,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4120,10 +4230,10 @@
         <v>30</v>
       </c>
       <c r="F107" t="n">
-        <v>117.4158</v>
+        <v>3680.9</v>
       </c>
       <c r="G107" t="n">
-        <v>-1528183.579497716</v>
+        <v>29.89999999999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="C108" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="D108" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="E108" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="F108" t="n">
-        <v>39907.0232</v>
+        <v>19425.65</v>
       </c>
       <c r="G108" t="n">
-        <v>-1568090.602697716</v>
+        <v>29.76666666666664</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="C109" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D109" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="E109" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>32182.1724</v>
       </c>
       <c r="G109" t="n">
-        <v>-1568079.602697716</v>
+        <v>29.69999999999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,6 +4319,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4225,10 +4338,10 @@
         <v>29.7</v>
       </c>
       <c r="F110" t="n">
-        <v>4991.786321885522</v>
+        <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>-1573071.389019601</v>
+        <v>29.59999999999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,6 +4355,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4260,10 +4374,10 @@
         <v>29.6</v>
       </c>
       <c r="F111" t="n">
-        <v>17247.0945</v>
+        <v>3778.8172</v>
       </c>
       <c r="G111" t="n">
-        <v>-1590318.483519601</v>
+        <v>29.59999999999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="C112" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="D112" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="E112" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="F112" t="n">
-        <v>238.7779</v>
+        <v>42496.5979</v>
       </c>
       <c r="G112" t="n">
-        <v>-1590557.261419601</v>
+        <v>29.59999999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="C113" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="D113" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="E113" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="F113" t="n">
-        <v>43393.9783</v>
+        <v>12260.753</v>
       </c>
       <c r="G113" t="n">
-        <v>-1590557.261419601</v>
+        <v>29.56666666666664</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C114" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D114" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E114" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>3778.8171</v>
       </c>
       <c r="G114" t="n">
-        <v>-1590547.261419601</v>
+        <v>29.56666666666665</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,6 +4499,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4400,10 +4518,10 @@
         <v>29.7</v>
       </c>
       <c r="F115" t="n">
-        <v>792.2053</v>
+        <v>50.6734</v>
       </c>
       <c r="G115" t="n">
-        <v>-1591339.466719601</v>
+        <v>29.63333333333331</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,6 +4535,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4426,19 +4545,19 @@
         <v>29.6</v>
       </c>
       <c r="C116" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D116" t="n">
         <v>29.6</v>
       </c>
       <c r="E116" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F116" t="n">
-        <v>5664.59</v>
+        <v>15885.6712</v>
       </c>
       <c r="G116" t="n">
-        <v>-1597004.056719601</v>
+        <v>29.63333333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C117" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D117" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E117" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F117" t="n">
-        <v>1003</v>
+        <v>25000</v>
       </c>
       <c r="G117" t="n">
-        <v>-1597004.056719601</v>
+        <v>29.63333333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,6 +4607,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4496,19 +4617,19 @@
         <v>29.6</v>
       </c>
       <c r="C118" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="D118" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E118" t="n">
         <v>29.6</v>
       </c>
       <c r="F118" t="n">
-        <v>140.4335</v>
+        <v>965.8533</v>
       </c>
       <c r="G118" t="n">
-        <v>-1596863.623219601</v>
+        <v>29.59999999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="C119" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="D119" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="E119" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="F119" t="n">
-        <v>84.4295</v>
+        <v>80792.51210000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-1596779.193719601</v>
+        <v>29.53333333333331</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,273 +4679,325 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="C120" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D120" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="E120" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="F120" t="n">
-        <v>59858.4505</v>
+        <v>248.8746</v>
       </c>
       <c r="G120" t="n">
-        <v>-1536920.743219601</v>
+        <v>29.49999999999998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K120" t="n">
+        <v>29.4</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="C121" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="D121" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="E121" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>19922.3617</v>
       </c>
       <c r="G121" t="n">
-        <v>-1536900.743219601</v>
+        <v>29.43333333333332</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>30.3</v>
+        <v>29.3</v>
       </c>
       <c r="C122" t="n">
-        <v>30.3</v>
+        <v>29.3</v>
       </c>
       <c r="D122" t="n">
-        <v>30.4</v>
+        <v>29.3</v>
       </c>
       <c r="E122" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="F122" t="n">
-        <v>8966.5502</v>
+        <v>6090.8239</v>
       </c>
       <c r="G122" t="n">
-        <v>-1527934.193019601</v>
+        <v>29.39999999999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K122" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="C123" t="n">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="D123" t="n">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="E123" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="F123" t="n">
-        <v>4779.2079</v>
+        <v>40.2243</v>
       </c>
       <c r="G123" t="n">
-        <v>-1527934.193019601</v>
+        <v>29.46666666666665</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>29.3</v>
+      </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="C124" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="D124" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="E124" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="F124" t="n">
-        <v>13752.34</v>
+        <v>334.051</v>
       </c>
       <c r="G124" t="n">
-        <v>-1541686.533019601</v>
+        <v>29.49999999999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K124" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="C125" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="D125" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="E125" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="F125" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-1541638.533019601</v>
+        <v>29.59999999999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K125" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C126" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D126" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E126" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F126" t="n">
-        <v>3317.0091</v>
+        <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>-1541638.533019601</v>
+        <v>29.63333333333332</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="K126" t="n">
+        <v>29.6</v>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C127" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D127" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E127" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F127" t="n">
-        <v>10239.5981</v>
+        <v>9814.551799999999</v>
       </c>
       <c r="G127" t="n">
-        <v>-1541638.533019601</v>
+        <v>29.73333333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,33 +5006,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C128" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="D128" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E128" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F128" t="n">
-        <v>11</v>
+        <v>121.1058</v>
       </c>
       <c r="G128" t="n">
-        <v>-1541649.533019601</v>
+        <v>29.79999999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,33 +5048,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C129" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="D129" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="E129" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="F129" t="n">
-        <v>5394.7831</v>
+        <v>22.2742</v>
       </c>
       <c r="G129" t="n">
-        <v>-1547044.316119601</v>
+        <v>29.83333333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5095,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C130" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D130" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E130" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>790.2248</v>
       </c>
       <c r="G130" t="n">
-        <v>-1547034.316119601</v>
+        <v>29.83333333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5131,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="C131" t="n">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="D131" t="n">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="E131" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F131" t="n">
-        <v>237.5868</v>
+        <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>-1546796.729319601</v>
+        <v>29.86666666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5167,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="C132" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D132" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E132" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="F132" t="n">
-        <v>8.8256</v>
+        <v>30886.7962</v>
       </c>
       <c r="G132" t="n">
-        <v>-1546805.554919601</v>
+        <v>29.89999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,6 +5203,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5021,19 +5213,19 @@
         <v>30.1</v>
       </c>
       <c r="C133" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="D133" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="E133" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F133" t="n">
-        <v>18586.1299</v>
+        <v>99</v>
       </c>
       <c r="G133" t="n">
-        <v>-1528219.425019601</v>
+        <v>30.03333333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5239,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C134" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D134" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E134" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F134" t="n">
-        <v>18.1818</v>
+        <v>2963.522</v>
       </c>
       <c r="G134" t="n">
-        <v>-1528237.606819601</v>
+        <v>30.06666666666665</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5275,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="C135" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D135" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E135" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F135" t="n">
-        <v>1541.7141</v>
+        <v>3883.4768</v>
       </c>
       <c r="G135" t="n">
-        <v>-1529779.320919601</v>
+        <v>30.13333333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5311,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="C136" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="D136" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="E136" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="F136" t="n">
-        <v>7107.7173</v>
+        <v>943.6821</v>
       </c>
       <c r="G136" t="n">
-        <v>-1536887.038219601</v>
+        <v>30.13333333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5347,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C137" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="D137" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E137" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="F137" t="n">
-        <v>7356.69</v>
+        <v>1000</v>
       </c>
       <c r="G137" t="n">
-        <v>-1529530.348219601</v>
+        <v>30.16666666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5383,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C138" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="D138" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E138" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="F138" t="n">
-        <v>17000</v>
+        <v>168.9136</v>
       </c>
       <c r="G138" t="n">
-        <v>-1529530.348219601</v>
+        <v>30.13333333333332</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5419,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C139" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="D139" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="E139" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="F139" t="n">
-        <v>3439.12</v>
+        <v>5195.6687</v>
       </c>
       <c r="G139" t="n">
-        <v>-1529530.348219601</v>
+        <v>30.06666666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,6 +5455,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5275,10 +5474,10 @@
         <v>30</v>
       </c>
       <c r="F140" t="n">
-        <v>23374.778</v>
+        <v>4067.7321</v>
       </c>
       <c r="G140" t="n">
-        <v>-1506155.570219601</v>
+        <v>30.03333333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5491,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C141" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D141" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E141" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="F141" t="n">
-        <v>8323.822</v>
+        <v>12403</v>
       </c>
       <c r="G141" t="n">
-        <v>-1506155.570219601</v>
+        <v>29.96666666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5527,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="C142" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D142" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E142" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="F142" t="n">
-        <v>69603.92630000001</v>
+        <v>344</v>
       </c>
       <c r="G142" t="n">
-        <v>-1506155.570219601</v>
+        <v>30.03333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5563,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C143" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D143" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E143" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="F143" t="n">
-        <v>10509.8305</v>
+        <v>28173.9867</v>
       </c>
       <c r="G143" t="n">
-        <v>-1506155.570219601</v>
+        <v>30.06666666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,28 +5599,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C144" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D144" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E144" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F144" t="n">
-        <v>20170.6666</v>
+        <v>17840.6667</v>
       </c>
       <c r="G144" t="n">
-        <v>-1506155.570219601</v>
+        <v>30.13333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5635,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="C145" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D145" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E145" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="F145" t="n">
-        <v>51397.4899</v>
+        <v>28814.7419</v>
       </c>
       <c r="G145" t="n">
-        <v>-1506155.570219601</v>
+        <v>30.09999999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5671,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C146" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="D146" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E146" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="F146" t="n">
-        <v>30357.1905</v>
+        <v>25835.7061</v>
       </c>
       <c r="G146" t="n">
-        <v>-1536512.760719601</v>
+        <v>30.06666666666665</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +5707,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="C147" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D147" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E147" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="F147" t="n">
-        <v>10118.9333</v>
+        <v>72</v>
       </c>
       <c r="G147" t="n">
-        <v>-1526393.827419601</v>
+        <v>30.06666666666665</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5743,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="C148" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="D148" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="E148" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="F148" t="n">
-        <v>10590.11</v>
+        <v>54</v>
       </c>
       <c r="G148" t="n">
-        <v>-1536983.937419601</v>
+        <v>30.06666666666665</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,28 +5779,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="C149" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D149" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E149" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F149" t="n">
-        <v>3680.9</v>
+        <v>18.841</v>
       </c>
       <c r="G149" t="n">
-        <v>-1533303.037419602</v>
+        <v>30.13333333333332</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,28 +5815,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="C150" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="D150" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="E150" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="F150" t="n">
-        <v>19425.65</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>-1552728.687419601</v>
+        <v>30.16666666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,28 +5851,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="C151" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="D151" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="E151" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="F151" t="n">
-        <v>32182.1724</v>
+        <v>19959.52</v>
       </c>
       <c r="G151" t="n">
-        <v>-1584910.859819602</v>
+        <v>30.16666666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,28 +5887,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="C152" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D152" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="E152" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="F152" t="n">
-        <v>11</v>
+        <v>184331.5756</v>
       </c>
       <c r="G152" t="n">
-        <v>-1584899.859819602</v>
+        <v>30.09999999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,28 +5923,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="C153" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="D153" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="E153" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="F153" t="n">
-        <v>3778.8172</v>
+        <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>-1588678.677019601</v>
+        <v>30.09999999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +5959,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="C154" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="D154" t="n">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E154" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="F154" t="n">
-        <v>42496.5979</v>
+        <v>16665</v>
       </c>
       <c r="G154" t="n">
-        <v>-1631175.274919601</v>
+        <v>30.19999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,28 +5995,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="C155" t="n">
-        <v>29.6</v>
+        <v>30.6</v>
       </c>
       <c r="D155" t="n">
-        <v>29.6</v>
+        <v>30.6</v>
       </c>
       <c r="E155" t="n">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="F155" t="n">
-        <v>12260.753</v>
+        <v>90017.776</v>
       </c>
       <c r="G155" t="n">
-        <v>-1618914.521919601</v>
+        <v>30.39999999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,28 +6031,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="C156" t="n">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="D156" t="n">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="E156" t="n">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="F156" t="n">
-        <v>3778.8171</v>
+        <v>10</v>
       </c>
       <c r="G156" t="n">
-        <v>-1618914.521919601</v>
+        <v>30.56666666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,67 +6067,65 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>29.7</v>
+        <v>30.7</v>
       </c>
       <c r="C157" t="n">
-        <v>29.7</v>
+        <v>30.8</v>
       </c>
       <c r="D157" t="n">
-        <v>29.7</v>
+        <v>30.8</v>
       </c>
       <c r="E157" t="n">
-        <v>29.7</v>
+        <v>30.7</v>
       </c>
       <c r="F157" t="n">
-        <v>50.6734</v>
+        <v>158429.9193</v>
       </c>
       <c r="G157" t="n">
-        <v>-1618863.848519601</v>
+        <v>30.69999999999999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K157" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="C158" t="n">
-        <v>29.6</v>
+        <v>30.8</v>
       </c>
       <c r="D158" t="n">
-        <v>29.6</v>
+        <v>30.8</v>
       </c>
       <c r="E158" t="n">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="F158" t="n">
-        <v>15885.6712</v>
+        <v>1002</v>
       </c>
       <c r="G158" t="n">
-        <v>-1634749.519719601</v>
+        <v>30.76666666666665</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5921,1004 +6134,862 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="C159" t="n">
-        <v>29.6</v>
+        <v>30.9</v>
       </c>
       <c r="D159" t="n">
-        <v>29.6</v>
+        <v>30.9</v>
       </c>
       <c r="E159" t="n">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="F159" t="n">
-        <v>25000</v>
+        <v>95710.6251</v>
       </c>
       <c r="G159" t="n">
-        <v>-1634749.519719601</v>
+        <v>30.83333333333332</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K159" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>29.6</v>
+        <v>31</v>
       </c>
       <c r="C160" t="n">
-        <v>29.6</v>
+        <v>31</v>
       </c>
       <c r="D160" t="n">
-        <v>29.6</v>
+        <v>31</v>
       </c>
       <c r="E160" t="n">
-        <v>29.6</v>
+        <v>31</v>
       </c>
       <c r="F160" t="n">
-        <v>965.8533</v>
+        <v>16149.6129</v>
       </c>
       <c r="G160" t="n">
-        <v>-1634749.519719601</v>
+        <v>30.89999999999999</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K160" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>29.5</v>
+        <v>30.7</v>
       </c>
       <c r="C161" t="n">
-        <v>29.4</v>
+        <v>30.7</v>
       </c>
       <c r="D161" t="n">
-        <v>29.5</v>
+        <v>30.7</v>
       </c>
       <c r="E161" t="n">
-        <v>29.4</v>
+        <v>30.7</v>
       </c>
       <c r="F161" t="n">
-        <v>80792.51210000001</v>
+        <v>134.6192</v>
       </c>
       <c r="G161" t="n">
-        <v>-1715542.031819601</v>
+        <v>30.86666666666666</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K161" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>29.5</v>
+        <v>30.7</v>
       </c>
       <c r="C162" t="n">
-        <v>29.5</v>
+        <v>30.7</v>
       </c>
       <c r="D162" t="n">
-        <v>29.5</v>
+        <v>30.8</v>
       </c>
       <c r="E162" t="n">
-        <v>29.5</v>
+        <v>30.7</v>
       </c>
       <c r="F162" t="n">
-        <v>248.8746</v>
+        <v>18723.6659</v>
       </c>
       <c r="G162" t="n">
-        <v>-1715293.157219601</v>
+        <v>30.79999999999999</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K162" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>29.4</v>
+        <v>30.7</v>
       </c>
       <c r="C163" t="n">
-        <v>29.4</v>
+        <v>31</v>
       </c>
       <c r="D163" t="n">
-        <v>29.4</v>
+        <v>31.1</v>
       </c>
       <c r="E163" t="n">
-        <v>29.4</v>
+        <v>30.7</v>
       </c>
       <c r="F163" t="n">
-        <v>19922.3617</v>
+        <v>120230.2943</v>
       </c>
       <c r="G163" t="n">
-        <v>-1735215.518919601</v>
+        <v>30.79999999999999</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K163" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>29.3</v>
+        <v>30.7</v>
       </c>
       <c r="C164" t="n">
-        <v>29.3</v>
+        <v>30.7</v>
       </c>
       <c r="D164" t="n">
-        <v>29.3</v>
+        <v>30.7</v>
       </c>
       <c r="E164" t="n">
-        <v>29.3</v>
+        <v>30.7</v>
       </c>
       <c r="F164" t="n">
-        <v>6090.8239</v>
+        <v>230.568</v>
       </c>
       <c r="G164" t="n">
-        <v>-1741306.342819601</v>
+        <v>30.79999999999999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K164" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>29.4</v>
+        <v>30.7</v>
       </c>
       <c r="C165" t="n">
-        <v>29.7</v>
+        <v>30.8</v>
       </c>
       <c r="D165" t="n">
-        <v>29.7</v>
+        <v>30.8</v>
       </c>
       <c r="E165" t="n">
-        <v>29.4</v>
+        <v>30.7</v>
       </c>
       <c r="F165" t="n">
-        <v>40.2243</v>
+        <v>1165.1387</v>
       </c>
       <c r="G165" t="n">
-        <v>-1741266.118519601</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K165" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>29.5</v>
+        <v>31</v>
       </c>
       <c r="C166" t="n">
-        <v>29.5</v>
+        <v>31</v>
       </c>
       <c r="D166" t="n">
-        <v>29.5</v>
+        <v>31</v>
       </c>
       <c r="E166" t="n">
-        <v>29.5</v>
+        <v>30.9</v>
       </c>
       <c r="F166" t="n">
-        <v>334.051</v>
+        <v>142687.9889</v>
       </c>
       <c r="G166" t="n">
-        <v>-1741600.169519601</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K166" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>29.6</v>
+        <v>31.1</v>
       </c>
       <c r="C167" t="n">
-        <v>29.6</v>
+        <v>31.1</v>
       </c>
       <c r="D167" t="n">
-        <v>29.6</v>
+        <v>31.1</v>
       </c>
       <c r="E167" t="n">
-        <v>29.6</v>
+        <v>31.1</v>
       </c>
       <c r="F167" t="n">
-        <v>10</v>
+        <v>10407.62056752412</v>
       </c>
       <c r="G167" t="n">
-        <v>-1741590.169519601</v>
+        <v>30.96666666666665</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K167" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>29.8</v>
+        <v>31.1</v>
       </c>
       <c r="C168" t="n">
-        <v>29.8</v>
+        <v>31.1</v>
       </c>
       <c r="D168" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="E168" t="n">
-        <v>29.8</v>
+        <v>31</v>
       </c>
       <c r="F168" t="n">
-        <v>11</v>
+        <v>72740.94127766819</v>
       </c>
       <c r="G168" t="n">
-        <v>-1741579.169519601</v>
+        <v>31.06666666666666</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K168" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="C169" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="D169" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="E169" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="F169" t="n">
-        <v>9814.551799999999</v>
+        <v>2629.9679</v>
       </c>
       <c r="G169" t="n">
-        <v>-1741579.169519601</v>
+        <v>31.13333333333333</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K169" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="C170" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="D170" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="E170" t="n">
-        <v>29.8</v>
+        <v>31.2</v>
       </c>
       <c r="F170" t="n">
-        <v>121.1058</v>
+        <v>16571.915</v>
       </c>
       <c r="G170" t="n">
-        <v>-1741579.169519601</v>
+        <v>31.16666666666666</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K170" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="C171" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="D171" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="E171" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="F171" t="n">
-        <v>22.2742</v>
+        <v>30</v>
       </c>
       <c r="G171" t="n">
-        <v>-1741556.895319601</v>
+        <v>31.16666666666666</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K171" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>29.8</v>
+        <v>31.1</v>
       </c>
       <c r="C172" t="n">
-        <v>29.8</v>
+        <v>31.1</v>
       </c>
       <c r="D172" t="n">
-        <v>29.8</v>
+        <v>31.1</v>
       </c>
       <c r="E172" t="n">
-        <v>29.8</v>
+        <v>31.1</v>
       </c>
       <c r="F172" t="n">
-        <v>790.2248</v>
+        <v>4431.5384</v>
       </c>
       <c r="G172" t="n">
-        <v>-1742347.120119601</v>
+        <v>31.13333333333332</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="C173" t="n">
-        <v>29.9</v>
+        <v>31</v>
       </c>
       <c r="D173" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="E173" t="n">
-        <v>29.9</v>
+        <v>31</v>
       </c>
       <c r="F173" t="n">
-        <v>11</v>
+        <v>6255.7051</v>
       </c>
       <c r="G173" t="n">
-        <v>-1742336.120119601</v>
+        <v>31.06666666666665</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="C174" t="n">
-        <v>30</v>
+        <v>31.1</v>
       </c>
       <c r="D174" t="n">
-        <v>30</v>
+        <v>31.1</v>
       </c>
       <c r="E174" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="F174" t="n">
-        <v>30886.7962</v>
+        <v>11</v>
       </c>
       <c r="G174" t="n">
-        <v>-1711449.323919601</v>
+        <v>31.06666666666665</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>30.1</v>
+        <v>31.1</v>
       </c>
       <c r="C175" t="n">
-        <v>30.2</v>
+        <v>31.1</v>
       </c>
       <c r="D175" t="n">
-        <v>30.2</v>
+        <v>31.1</v>
       </c>
       <c r="E175" t="n">
-        <v>30.1</v>
+        <v>31.1</v>
       </c>
       <c r="F175" t="n">
-        <v>99</v>
+        <v>20190.9842</v>
       </c>
       <c r="G175" t="n">
-        <v>-1711350.323919601</v>
+        <v>31.06666666666665</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>30</v>
+        <v>30.8</v>
       </c>
       <c r="C176" t="n">
-        <v>30</v>
+        <v>31.1</v>
       </c>
       <c r="D176" t="n">
-        <v>30</v>
+        <v>31.1</v>
       </c>
       <c r="E176" t="n">
-        <v>30</v>
+        <v>30.6</v>
       </c>
       <c r="F176" t="n">
-        <v>2963.522</v>
+        <v>5806.57</v>
       </c>
       <c r="G176" t="n">
-        <v>-1714313.845919601</v>
+        <v>31.09999999999998</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="C177" t="n">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="D177" t="n">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="E177" t="n">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="F177" t="n">
-        <v>3883.4768</v>
+        <v>102.5806</v>
       </c>
       <c r="G177" t="n">
-        <v>-1710430.369119601</v>
+        <v>31.06666666666665</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="C178" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="D178" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="E178" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="F178" t="n">
-        <v>943.6821</v>
+        <v>107.3226</v>
       </c>
       <c r="G178" t="n">
-        <v>-1710430.369119601</v>
+        <v>30.99999999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="C179" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="D179" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="E179" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="F179" t="n">
-        <v>1000</v>
+        <v>639</v>
       </c>
       <c r="G179" t="n">
-        <v>-1711430.369119601</v>
+        <v>30.93333333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="C180" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="D180" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="E180" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="F180" t="n">
-        <v>168.9136</v>
+        <v>0.7453</v>
       </c>
       <c r="G180" t="n">
-        <v>-1711430.369119601</v>
+        <v>30.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>30</v>
+        <v>30.7</v>
       </c>
       <c r="C181" t="n">
-        <v>30</v>
+        <v>30.6</v>
       </c>
       <c r="D181" t="n">
-        <v>30.1</v>
+        <v>30.7</v>
       </c>
       <c r="E181" t="n">
-        <v>30</v>
+        <v>30.6</v>
       </c>
       <c r="F181" t="n">
-        <v>5195.6687</v>
+        <v>47601.5119</v>
       </c>
       <c r="G181" t="n">
-        <v>-1716626.037819601</v>
+        <v>30.79999999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>30</v>
+        <v>30.7</v>
       </c>
       <c r="C182" t="n">
-        <v>30</v>
+        <v>30.7</v>
       </c>
       <c r="D182" t="n">
-        <v>30</v>
+        <v>30.7</v>
       </c>
       <c r="E182" t="n">
-        <v>30</v>
+        <v>30.7</v>
       </c>
       <c r="F182" t="n">
-        <v>4067.7321</v>
+        <v>4995.5977</v>
       </c>
       <c r="G182" t="n">
-        <v>-1716626.037819601</v>
+        <v>30.73333333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6927,162 +6998,142 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="C183" t="n">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="D183" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="E183" t="n">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="F183" t="n">
-        <v>12403</v>
+        <v>11</v>
       </c>
       <c r="G183" t="n">
-        <v>-1729029.037819601</v>
+        <v>30.73333333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="C184" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="D184" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="E184" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="F184" t="n">
-        <v>344</v>
+        <v>266.1031</v>
       </c>
       <c r="G184" t="n">
-        <v>-1728685.037819601</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="C185" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="D185" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="E185" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="F185" t="n">
-        <v>28173.9867</v>
+        <v>603.1741</v>
       </c>
       <c r="G185" t="n">
-        <v>-1756859.024519601</v>
+        <v>30.93333333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="C186" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="D186" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="E186" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="F186" t="n">
-        <v>17840.6667</v>
+        <v>583.3516</v>
       </c>
       <c r="G186" t="n">
-        <v>-1756859.024519601</v>
+        <v>30.96666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7091,80 +7142,70 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="C187" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="D187" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="E187" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="F187" t="n">
-        <v>28814.7419</v>
+        <v>11835.2937</v>
       </c>
       <c r="G187" t="n">
-        <v>-1756859.024519601</v>
+        <v>31</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C188" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D188" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E188" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F188" t="n">
-        <v>25835.7061</v>
+        <v>10000</v>
       </c>
       <c r="G188" t="n">
-        <v>-1782694.730619601</v>
+        <v>31</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7173,1742 +7214,120 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="C189" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="D189" t="n">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="E189" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="F189" t="n">
-        <v>72</v>
+        <v>3531.3107</v>
       </c>
       <c r="G189" t="n">
-        <v>-1782622.730619601</v>
+        <v>30.96666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="C190" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="D190" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="E190" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="F190" t="n">
-        <v>54</v>
+        <v>32815.3398</v>
       </c>
       <c r="G190" t="n">
-        <v>-1782622.730619601</v>
+        <v>30.93333333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="C191" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="D191" t="n">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="E191" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="F191" t="n">
-        <v>18.841</v>
+        <v>3544.0204</v>
       </c>
       <c r="G191" t="n">
-        <v>-1782603.889619601</v>
+        <v>30.83333333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C192" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D192" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E192" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F192" t="n">
-        <v>10</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1782603.889619601</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C193" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E193" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>19959.52</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1802563.409619601</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C194" t="n">
-        <v>30</v>
-      </c>
-      <c r="D194" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E194" t="n">
-        <v>30</v>
-      </c>
-      <c r="F194" t="n">
-        <v>184331.5756</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1986894.985219602</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C195" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D195" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F195" t="n">
-        <v>10</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-1986884.985219602</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C196" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D196" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E196" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F196" t="n">
-        <v>16665</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-1970219.985219602</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C197" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D197" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E197" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F197" t="n">
-        <v>90017.776</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-1880202.209219601</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C198" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D198" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E198" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F198" t="n">
-        <v>10</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-1880192.209219601</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C199" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D199" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E199" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F199" t="n">
-        <v>158429.9193</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1721762.289919602</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C200" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D200" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E200" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1002</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-1721762.289919602</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C201" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D201" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E201" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F201" t="n">
-        <v>95710.6251</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-1626051.664819601</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>31</v>
-      </c>
-      <c r="C202" t="n">
-        <v>31</v>
-      </c>
-      <c r="D202" t="n">
-        <v>31</v>
-      </c>
-      <c r="E202" t="n">
-        <v>31</v>
-      </c>
-      <c r="F202" t="n">
-        <v>16149.6129</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-1609902.051919601</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C203" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D203" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E203" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F203" t="n">
-        <v>134.6192</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1610036.671119601</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C204" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D204" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E204" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F204" t="n">
-        <v>18723.6659</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-1610036.671119601</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C205" t="n">
-        <v>31</v>
-      </c>
-      <c r="D205" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E205" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F205" t="n">
-        <v>120230.2943</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1489806.376819602</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C206" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D206" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E206" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F206" t="n">
-        <v>230.568</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1490036.944819601</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C207" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D207" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E207" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1165.1387</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1488871.806119601</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>31</v>
-      </c>
-      <c r="C208" t="n">
-        <v>31</v>
-      </c>
-      <c r="D208" t="n">
-        <v>31</v>
-      </c>
-      <c r="E208" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F208" t="n">
-        <v>142687.9889</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1346183.817219601</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C209" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D209" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E209" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F209" t="n">
-        <v>10407.62056752412</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1335776.196652077</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C210" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D210" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E210" t="n">
-        <v>31</v>
-      </c>
-      <c r="F210" t="n">
-        <v>72740.94127766819</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1335776.196652077</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C211" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D211" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E211" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2629.9679</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1333146.228752077</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C212" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D212" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E212" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F212" t="n">
-        <v>16571.915</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1333146.228752077</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C213" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D213" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E213" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F213" t="n">
-        <v>30</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1333176.228752077</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1.045675675675676</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C214" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D214" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E214" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>4431.5384</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1333176.228752077</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C215" t="n">
-        <v>31</v>
-      </c>
-      <c r="D215" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E215" t="n">
-        <v>31</v>
-      </c>
-      <c r="F215" t="n">
-        <v>6255.7051</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1339431.933852077</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C216" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D216" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E216" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F216" t="n">
-        <v>11</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1339420.933852077</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C217" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D217" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E217" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F217" t="n">
-        <v>20190.9842</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1339420.933852077</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C218" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D218" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E218" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F218" t="n">
-        <v>5806.57</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1339420.933852077</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>31</v>
-      </c>
-      <c r="C219" t="n">
-        <v>31</v>
-      </c>
-      <c r="D219" t="n">
-        <v>31</v>
-      </c>
-      <c r="E219" t="n">
-        <v>31</v>
-      </c>
-      <c r="F219" t="n">
-        <v>102.5806</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1339523.514452077</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C220" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D220" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E220" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F220" t="n">
-        <v>107.3226</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1339630.837052077</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C221" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D221" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E221" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F221" t="n">
-        <v>639</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1339630.837052077</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C222" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D222" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E222" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.7453</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1339630.837052077</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C223" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D223" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E223" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F223" t="n">
-        <v>47601.5119</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1387232.348952077</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C224" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D224" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E224" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F224" t="n">
-        <v>4995.5977</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1382236.751252077</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C225" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D225" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E225" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F225" t="n">
-        <v>11</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1382225.751252077</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C226" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D226" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E226" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F226" t="n">
-        <v>266.1031</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1382225.751252077</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>31</v>
-      </c>
-      <c r="C227" t="n">
-        <v>31</v>
-      </c>
-      <c r="D227" t="n">
-        <v>31</v>
-      </c>
-      <c r="E227" t="n">
-        <v>31</v>
-      </c>
-      <c r="F227" t="n">
-        <v>603.1741</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1381622.577152077</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>31</v>
-      </c>
-      <c r="C228" t="n">
-        <v>31</v>
-      </c>
-      <c r="D228" t="n">
-        <v>31</v>
-      </c>
-      <c r="E228" t="n">
-        <v>31</v>
-      </c>
-      <c r="F228" t="n">
-        <v>583.3516</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1381622.577152077</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C229" t="n">
-        <v>31</v>
-      </c>
-      <c r="D229" t="n">
-        <v>31</v>
-      </c>
-      <c r="E229" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F229" t="n">
-        <v>11835.2937</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1381622.577152077</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>31</v>
-      </c>
-      <c r="C230" t="n">
-        <v>31</v>
-      </c>
-      <c r="D230" t="n">
-        <v>31</v>
-      </c>
-      <c r="E230" t="n">
-        <v>31</v>
-      </c>
-      <c r="F230" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1381622.577152077</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>31</v>
-      </c>
-      <c r="C231" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D231" t="n">
-        <v>31</v>
-      </c>
-      <c r="E231" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F231" t="n">
-        <v>3531.3107</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1385153.887852077</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C232" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D232" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E232" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F232" t="n">
-        <v>32815.3398</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1385153.887852077</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C233" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D233" t="n">
-        <v>31</v>
-      </c>
-      <c r="E233" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3544.0204</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1388697.908252077</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
+      <c r="N191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:N262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>130.5181</v>
+        <v>51793.2692</v>
       </c>
       <c r="G2" t="n">
-        <v>30.06666666666663</v>
+        <v>-318280.0812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C3" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E3" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="F3" t="n">
-        <v>23024.187</v>
+        <v>33458.7492</v>
       </c>
       <c r="G3" t="n">
-        <v>30.06666666666663</v>
+        <v>-351738.8304</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C4" t="n">
         <v>29.6</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E4" t="n">
         <v>29.6</v>
       </c>
       <c r="F4" t="n">
-        <v>56333.8294</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>29.79999999999997</v>
+        <v>-351638.8304</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="D5" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="E5" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="F5" t="n">
-        <v>47762.0705</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>29.6333333333333</v>
+        <v>-351628.8304</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="C6" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="D6" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="E6" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>67590.1498</v>
       </c>
       <c r="G6" t="n">
-        <v>29.59999999999997</v>
+        <v>-419218.9802</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="C7" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>3072.3905</v>
+        <v>99484.03690000001</v>
       </c>
       <c r="G7" t="n">
-        <v>29.6333333333333</v>
+        <v>-518703.0171000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G8" t="n">
-        <v>29.79999999999997</v>
+        <v>-516703.0171000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="C9" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="D9" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2861.617080398671</v>
+        <v>1022.114</v>
       </c>
       <c r="G9" t="n">
-        <v>29.93333333333329</v>
+        <v>-517725.1311000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="C10" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="D10" t="n">
         <v>29.8</v>
       </c>
       <c r="E10" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>29.96666666666663</v>
+        <v>-517725.1311000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="C11" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="D11" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="E11" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="F11" t="n">
-        <v>28179.956</v>
+        <v>20.9475</v>
       </c>
       <c r="G11" t="n">
-        <v>29.8333333333333</v>
+        <v>-517704.1836</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D12" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E12" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F12" t="n">
-        <v>115637.3973</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>29.6333333333333</v>
+        <v>-517694.1836</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C13" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="D13" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E13" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>19391.6188</v>
       </c>
       <c r="G13" t="n">
-        <v>29.66666666666663</v>
+        <v>-517694.1836</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="C14" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="D14" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="E14" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>8544.2781</v>
       </c>
       <c r="G14" t="n">
-        <v>29.76666666666663</v>
+        <v>-526238.4617000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>29.6</v>
       </c>
       <c r="C15" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D15" t="n">
         <v>29.6</v>
       </c>
       <c r="E15" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F15" t="n">
-        <v>96554.6507</v>
+        <v>12860.8492</v>
       </c>
       <c r="G15" t="n">
-        <v>29.7333333333333</v>
+        <v>-539099.3109000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>11.0318</v>
+        <v>2431.6986</v>
       </c>
       <c r="G16" t="n">
-        <v>29.69999999999997</v>
+        <v>-536667.6123000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>29.6</v>
       </c>
       <c r="C17" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D17" t="n">
         <v>29.6</v>
       </c>
       <c r="E17" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F17" t="n">
-        <v>2345.8597</v>
+        <v>18711.0202</v>
       </c>
       <c r="G17" t="n">
-        <v>29.56666666666663</v>
+        <v>-555378.6325000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F18" t="n">
-        <v>1762.3675</v>
+        <v>632.1195</v>
       </c>
       <c r="G18" t="n">
-        <v>29.59999999999997</v>
+        <v>-555378.6325000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>33970.9224</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49999999999997</v>
+        <v>-555368.6325000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>6782.0915</v>
+        <v>2423.1654</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49999999999997</v>
+        <v>-555368.6325000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="C21" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="D21" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="E21" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="F21" t="n">
-        <v>4253.0403</v>
+        <v>5292.2005</v>
       </c>
       <c r="G21" t="n">
-        <v>29.49999999999997</v>
+        <v>-550076.4320000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="C22" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="D22" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="E22" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="F22" t="n">
-        <v>1850.8444</v>
+        <v>454.6688</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49999999999997</v>
+        <v>-549621.7632000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="C23" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="D23" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="E23" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>28.3496</v>
       </c>
       <c r="G23" t="n">
-        <v>29.56666666666663</v>
+        <v>-549621.7632000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="D24" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="E24" t="n">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="F24" t="n">
-        <v>49942.919</v>
+        <v>202.5132</v>
       </c>
       <c r="G24" t="n">
-        <v>29.49999999999997</v>
+        <v>-549419.2500000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="C25" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="D25" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="E25" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="F25" t="n">
-        <v>16243.1004</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>29.4333333333333</v>
+        <v>-549443.2500000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="C26" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="D26" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="E26" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="F26" t="n">
-        <v>32736.9852</v>
+        <v>3873.3222</v>
       </c>
       <c r="G26" t="n">
-        <v>29.29999999999997</v>
+        <v>-545569.9278000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="C27" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="D27" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="E27" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="F27" t="n">
-        <v>38137.346</v>
+        <v>7788.5505</v>
       </c>
       <c r="G27" t="n">
-        <v>29.26666666666663</v>
+        <v>-553358.4783000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="C28" t="n">
-        <v>29.1</v>
+        <v>29.6</v>
       </c>
       <c r="D28" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="E28" t="n">
-        <v>29.1</v>
+        <v>29.6</v>
       </c>
       <c r="F28" t="n">
-        <v>19996.1101</v>
+        <v>35874.9832</v>
       </c>
       <c r="G28" t="n">
-        <v>29.19999999999996</v>
+        <v>-589233.4615000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="C29" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="D29" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="E29" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>13568.1301</v>
       </c>
       <c r="G29" t="n">
-        <v>29.16666666666663</v>
+        <v>-589233.4615000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="C30" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D30" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="E30" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F30" t="n">
-        <v>3479.3012</v>
+        <v>30373.998</v>
       </c>
       <c r="G30" t="n">
-        <v>29.16666666666663</v>
+        <v>-619607.4595000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C31" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D31" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E31" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F31" t="n">
-        <v>3136.2397</v>
+        <v>212.0756</v>
       </c>
       <c r="G31" t="n">
-        <v>29.19999999999997</v>
+        <v>-619607.4595000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C32" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D32" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E32" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F32" t="n">
-        <v>10000</v>
+        <v>1797.5845</v>
       </c>
       <c r="G32" t="n">
-        <v>29.19999999999997</v>
+        <v>-619607.4595000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="C33" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D33" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E33" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="F33" t="n">
-        <v>323.4263</v>
+        <v>6102.4155</v>
       </c>
       <c r="G33" t="n">
-        <v>29.19999999999997</v>
+        <v>-625709.8750000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C34" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="D34" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E34" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>23146.64</v>
       </c>
       <c r="G34" t="n">
-        <v>29.2333333333333</v>
+        <v>-625709.8750000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C35" t="n">
         <v>29.3</v>
       </c>
       <c r="D35" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E35" t="n">
         <v>29.3</v>
       </c>
       <c r="F35" t="n">
-        <v>33549.1591</v>
+        <v>21599.8984</v>
       </c>
       <c r="G35" t="n">
-        <v>29.26666666666663</v>
+        <v>-647309.7734000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="C36" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="D36" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="E36" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1985.2861</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>29.4333333333333</v>
+        <v>-647298.7734000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="C37" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="D37" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="E37" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="F37" t="n">
-        <v>22857.9827</v>
+        <v>44083.4199</v>
       </c>
       <c r="G37" t="n">
-        <v>29.5333333333333</v>
+        <v>-691382.1933</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="C38" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="D38" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="E38" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="F38" t="n">
-        <v>76261.20209999999</v>
+        <v>16348.1312</v>
       </c>
       <c r="G38" t="n">
-        <v>29.6333333333333</v>
+        <v>-691382.1933</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>29.6</v>
       </c>
       <c r="F39" t="n">
-        <v>671.9969</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>29.59999999999997</v>
+        <v>-691371.1933</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="C40" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="D40" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="E40" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>2723.1078</v>
       </c>
       <c r="G40" t="n">
-        <v>29.63333333333331</v>
+        <v>-694094.3011</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="C41" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="D41" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="E41" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="F41" t="n">
-        <v>8496.7392</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="n">
-        <v>29.66666666666664</v>
+        <v>-689094.3011</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="C42" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="D42" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E42" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="F42" t="n">
-        <v>4997.0318</v>
+        <v>7286.4429</v>
       </c>
       <c r="G42" t="n">
-        <v>29.69999999999997</v>
+        <v>-681807.8582</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C43" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D43" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E43" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F43" t="n">
-        <v>68573.94809999999</v>
+        <v>3226.39</v>
       </c>
       <c r="G43" t="n">
-        <v>29.66666666666663</v>
+        <v>-685034.2482</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C44" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D44" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E44" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F44" t="n">
-        <v>146.8478</v>
+        <v>1050.46</v>
       </c>
       <c r="G44" t="n">
-        <v>29.6333333333333</v>
+        <v>-685034.2482</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="C45" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="D45" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="E45" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="F45" t="n">
-        <v>868.3292</v>
+        <v>462.7916</v>
       </c>
       <c r="G45" t="n">
-        <v>29.59999999999997</v>
+        <v>-684571.4566</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="C46" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="D46" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="E46" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="F46" t="n">
-        <v>17000</v>
+        <v>5277.9142</v>
       </c>
       <c r="G46" t="n">
-        <v>29.59999999999998</v>
+        <v>-684571.4566</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="C47" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="D47" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="E47" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="F47" t="n">
-        <v>19361.88552188552</v>
+        <v>15925.4849</v>
       </c>
       <c r="G47" t="n">
-        <v>29.63333333333331</v>
+        <v>-668645.9717</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="C48" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="D48" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E48" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="F48" t="n">
-        <v>62579.4629</v>
+        <v>34722.0858</v>
       </c>
       <c r="G48" t="n">
-        <v>29.66666666666664</v>
+        <v>-703368.0575</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C49" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D49" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E49" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>13856.3175</v>
       </c>
       <c r="G49" t="n">
-        <v>29.7333333333333</v>
+        <v>-717224.375</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="C50" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="D50" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="E50" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="F50" t="n">
-        <v>15921.1073</v>
+        <v>5718.936</v>
       </c>
       <c r="G50" t="n">
-        <v>29.76666666666663</v>
+        <v>-722943.311</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C51" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D51" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E51" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="F51" t="n">
-        <v>35129.60287811448</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>29.79999999999997</v>
+        <v>-722932.311</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C52" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D52" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E52" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="F52" t="n">
-        <v>16000.0167</v>
+        <v>27710.7004</v>
       </c>
       <c r="G52" t="n">
-        <v>29.79999999999997</v>
+        <v>-722932.311</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="C53" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D53" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E53" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="F53" t="n">
-        <v>1600.0016</v>
+        <v>8448.795099999999</v>
       </c>
       <c r="G53" t="n">
-        <v>29.79999999999997</v>
+        <v>-722932.311</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C54" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="D54" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="E54" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F54" t="n">
-        <v>33022.7509</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>29.9333333333333</v>
+        <v>-722922.311</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="C55" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="D55" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="E55" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="F55" t="n">
-        <v>43306.3576</v>
+        <v>30000</v>
       </c>
       <c r="G55" t="n">
-        <v>30.06666666666663</v>
+        <v>-752922.311</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="C56" t="n">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="D56" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="E56" t="n">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="F56" t="n">
-        <v>46326.8538</v>
+        <v>229372.7055</v>
       </c>
       <c r="G56" t="n">
-        <v>30.19999999999997</v>
+        <v>-982295.0165</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="D57" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F57" t="n">
-        <v>46326.8538</v>
+        <v>91</v>
       </c>
       <c r="G57" t="n">
-        <v>30.1333333333333</v>
+        <v>-982204.0165</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="C58" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="D58" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="E58" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="F58" t="n">
-        <v>75070.924</v>
+        <v>552.7667</v>
       </c>
       <c r="G58" t="n">
-        <v>30.16666666666663</v>
+        <v>-982204.0165</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="D59" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F59" t="n">
-        <v>14400.0152</v>
+        <v>268.7013</v>
       </c>
       <c r="G59" t="n">
-        <v>30.09999999999997</v>
+        <v>-982204.0165</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F60" t="n">
-        <v>30593</v>
+        <v>47866.9624</v>
       </c>
       <c r="G60" t="n">
-        <v>30.09999999999997</v>
+        <v>-1030070.9789</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C61" t="n">
         <v>29.8</v>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E61" t="n">
         <v>29.8</v>
       </c>
       <c r="F61" t="n">
-        <v>52874.8934</v>
+        <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>29.9333333333333</v>
+        <v>-1030059.9789</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>29.8</v>
       </c>
       <c r="F62" t="n">
-        <v>132.023</v>
+        <v>31880.5747</v>
       </c>
       <c r="G62" t="n">
-        <v>29.86666666666663</v>
+        <v>-1030059.9789</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C63" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="D63" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="E63" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="F63" t="n">
-        <v>22308.9047</v>
+        <v>15968.3056</v>
       </c>
       <c r="G63" t="n">
-        <v>29.76666666666663</v>
+        <v>-1014091.6733</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C64" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="D64" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="E64" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>10440.3289</v>
       </c>
       <c r="G64" t="n">
-        <v>29.89999999999997</v>
+        <v>-1014091.6733</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D65" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E65" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F65" t="n">
-        <v>117.4158</v>
+        <v>11000</v>
       </c>
       <c r="G65" t="n">
-        <v>29.96666666666664</v>
+        <v>-1003091.6733</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="C66" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="D66" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="E66" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="F66" t="n">
-        <v>39907.0232</v>
+        <v>12255.7268</v>
       </c>
       <c r="G66" t="n">
-        <v>29.96666666666664</v>
+        <v>-1003091.6733</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="E67" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F67" t="n">
-        <v>11</v>
+        <v>48781.0612</v>
       </c>
       <c r="G67" t="n">
-        <v>29.89999999999997</v>
+        <v>-954310.6121</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="C68" t="n">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="D68" t="n">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="E68" t="n">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="F68" t="n">
-        <v>4991.786321885522</v>
+        <v>24882.1203</v>
       </c>
       <c r="G68" t="n">
-        <v>29.79999999999997</v>
+        <v>-954310.6121</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="C69" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="D69" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="E69" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="F69" t="n">
-        <v>17247.0945</v>
+        <v>13970.3959</v>
       </c>
       <c r="G69" t="n">
-        <v>29.76666666666664</v>
+        <v>-954310.6121</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="C70" t="n">
-        <v>29.3</v>
+        <v>30.4</v>
       </c>
       <c r="D70" t="n">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="E70" t="n">
-        <v>29.3</v>
+        <v>30.4</v>
       </c>
       <c r="F70" t="n">
-        <v>238.7779</v>
+        <v>32.8947</v>
       </c>
       <c r="G70" t="n">
-        <v>29.5333333333333</v>
+        <v>-954277.7174000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="C71" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="D71" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="E71" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="F71" t="n">
-        <v>43393.9783</v>
+        <v>997.5</v>
       </c>
       <c r="G71" t="n">
-        <v>29.39999999999997</v>
+        <v>-955275.2174000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="C72" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="D72" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="E72" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>29.46666666666663</v>
+        <v>-955264.2174000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="C73" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="E73" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>792.2053</v>
+        <v>130.5181</v>
       </c>
       <c r="G73" t="n">
-        <v>29.59999999999997</v>
+        <v>-955394.7355000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D74" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="E74" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F74" t="n">
-        <v>5664.59</v>
+        <v>23024.187</v>
       </c>
       <c r="G74" t="n">
-        <v>29.66666666666663</v>
+        <v>-978418.9225000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="C75" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D75" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="E75" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F75" t="n">
-        <v>1003</v>
+        <v>56333.8294</v>
       </c>
       <c r="G75" t="n">
-        <v>29.56666666666663</v>
+        <v>-1034752.7519</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C76" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="D76" t="n">
         <v>29.7</v>
       </c>
       <c r="E76" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F76" t="n">
-        <v>140.4335</v>
+        <v>47762.0705</v>
       </c>
       <c r="G76" t="n">
-        <v>29.56666666666663</v>
+        <v>-1082514.8224</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="C77" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="D77" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="E77" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="F77" t="n">
-        <v>84.4295</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>29.66666666666663</v>
+        <v>-1082504.8224</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="C78" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D78" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="E78" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="F78" t="n">
-        <v>59858.4505</v>
+        <v>3072.3905</v>
       </c>
       <c r="G78" t="n">
-        <v>29.8333333333333</v>
+        <v>-1082504.8224</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E79" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>29.99999999999997</v>
+        <v>-1082494.8224</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="D80" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="E80" t="n">
         <v>30</v>
       </c>
       <c r="F80" t="n">
-        <v>8966.5502</v>
+        <v>2861.617080398671</v>
       </c>
       <c r="G80" t="n">
-        <v>30.16666666666663</v>
+        <v>-1079633.205319602</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="C81" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="D81" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="E81" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="F81" t="n">
-        <v>4779.2079</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>30.26666666666663</v>
+        <v>-1079643.205319602</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="C82" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D82" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="E82" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="F82" t="n">
-        <v>13752.34</v>
+        <v>28179.956</v>
       </c>
       <c r="G82" t="n">
-        <v>30.1333333333333</v>
+        <v>-1107823.161319602</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="C83" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="D83" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="E83" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="F83" t="n">
-        <v>48</v>
+        <v>115637.3973</v>
       </c>
       <c r="G83" t="n">
-        <v>30.06666666666663</v>
+        <v>-1223460.558619602</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="C84" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="D84" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="E84" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F84" t="n">
-        <v>3317.0091</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>29.99999999999997</v>
+        <v>-1223450.558619602</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="C85" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="D85" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="E85" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F85" t="n">
-        <v>10239.5981</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>30.09999999999997</v>
+        <v>-1223450.558619602</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="C86" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="D86" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="E86" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="F86" t="n">
-        <v>11</v>
+        <v>96554.6507</v>
       </c>
       <c r="G86" t="n">
-        <v>30.06666666666663</v>
+        <v>-1320005.209319602</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>29.8</v>
       </c>
       <c r="F87" t="n">
-        <v>5394.7831</v>
+        <v>11.0318</v>
       </c>
       <c r="G87" t="n">
-        <v>29.96666666666663</v>
+        <v>-1319994.177519602</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="C88" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="D88" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="E88" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>2345.8597</v>
       </c>
       <c r="G88" t="n">
-        <v>29.96666666666663</v>
+        <v>-1322340.037219602</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="C89" t="n">
-        <v>30.3</v>
+        <v>29.5</v>
       </c>
       <c r="D89" t="n">
-        <v>30.3</v>
+        <v>29.5</v>
       </c>
       <c r="E89" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="F89" t="n">
-        <v>237.5868</v>
+        <v>1762.3675</v>
       </c>
       <c r="G89" t="n">
-        <v>30.06666666666663</v>
+        <v>-1322340.037219602</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="C90" t="n">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="D90" t="n">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="E90" t="n">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="F90" t="n">
-        <v>8.8256</v>
+        <v>33970.9224</v>
       </c>
       <c r="G90" t="n">
-        <v>30.19999999999996</v>
+        <v>-1322340.037219602</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="C91" t="n">
-        <v>30.3</v>
+        <v>29.5</v>
       </c>
       <c r="D91" t="n">
-        <v>30.3</v>
+        <v>29.5</v>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F91" t="n">
-        <v>18586.1299</v>
+        <v>6782.0915</v>
       </c>
       <c r="G91" t="n">
-        <v>30.26666666666663</v>
+        <v>-1322340.037219602</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="C92" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="D92" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="E92" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="F92" t="n">
-        <v>18.1818</v>
+        <v>4253.0403</v>
       </c>
       <c r="G92" t="n">
-        <v>30.19999999999996</v>
+        <v>-1322340.037219602</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D93" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="E93" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F93" t="n">
-        <v>1541.7141</v>
+        <v>1850.8444</v>
       </c>
       <c r="G93" t="n">
-        <v>30.1333333333333</v>
+        <v>-1322340.037219602</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="C94" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="D94" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="E94" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="F94" t="n">
-        <v>7107.7173</v>
+        <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>29.96666666666663</v>
+        <v>-1322329.037219602</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="C95" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="D95" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="E95" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="F95" t="n">
-        <v>7356.69</v>
+        <v>49942.919</v>
       </c>
       <c r="G95" t="n">
-        <v>29.89999999999997</v>
+        <v>-1372271.956219602</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="C96" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="D96" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="E96" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="F96" t="n">
-        <v>17000</v>
+        <v>16243.1004</v>
       </c>
       <c r="G96" t="n">
-        <v>29.86666666666664</v>
+        <v>-1372271.956219602</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="C97" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="D97" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="E97" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="F97" t="n">
-        <v>3439.12</v>
+        <v>32736.9852</v>
       </c>
       <c r="G97" t="n">
-        <v>29.89999999999997</v>
+        <v>-1372271.956219602</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="C98" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="D98" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="E98" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="F98" t="n">
-        <v>23374.778</v>
+        <v>38137.346</v>
       </c>
       <c r="G98" t="n">
-        <v>29.93333333333331</v>
+        <v>-1410409.302219602</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="C99" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="D99" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="E99" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="F99" t="n">
-        <v>8323.822</v>
+        <v>19996.1101</v>
       </c>
       <c r="G99" t="n">
-        <v>29.96666666666664</v>
+        <v>-1430405.412319602</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="C100" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="D100" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="E100" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="F100" t="n">
-        <v>69603.92630000001</v>
+        <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>29.99999999999997</v>
+        <v>-1430394.412319602</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="C101" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="D101" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="E101" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="F101" t="n">
-        <v>10509.8305</v>
+        <v>3479.3012</v>
       </c>
       <c r="G101" t="n">
-        <v>29.99999999999997</v>
+        <v>-1430394.412319602</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="C102" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="D102" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="E102" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="F102" t="n">
-        <v>20170.6666</v>
+        <v>3136.2397</v>
       </c>
       <c r="G102" t="n">
-        <v>29.99999999999997</v>
+        <v>-1430394.412319602</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="C103" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="D103" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="E103" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
       <c r="F103" t="n">
-        <v>51397.4899</v>
+        <v>10000</v>
       </c>
       <c r="G103" t="n">
-        <v>29.99999999999997</v>
+        <v>-1430394.412319602</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="C104" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="D104" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="E104" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="F104" t="n">
-        <v>30357.1905</v>
+        <v>323.4263</v>
       </c>
       <c r="G104" t="n">
-        <v>29.96666666666664</v>
+        <v>-1430394.412319602</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="C105" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="D105" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="E105" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="F105" t="n">
-        <v>10118.9333</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>29.96666666666664</v>
+        <v>-1430384.412319602</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="C106" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="D106" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="E106" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="F106" t="n">
-        <v>10590.11</v>
+        <v>33549.1591</v>
       </c>
       <c r="G106" t="n">
-        <v>29.86666666666664</v>
+        <v>-1430384.412319602</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="C107" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D107" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="E107" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="F107" t="n">
-        <v>3680.9</v>
+        <v>1985.2861</v>
       </c>
       <c r="G107" t="n">
-        <v>29.89999999999998</v>
+        <v>-1428399.126219602</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C108" t="n">
         <v>29.6</v>
       </c>
       <c r="D108" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E108" t="n">
         <v>29.6</v>
       </c>
       <c r="F108" t="n">
-        <v>19425.65</v>
+        <v>22857.9827</v>
       </c>
       <c r="G108" t="n">
-        <v>29.76666666666664</v>
+        <v>-1451257.108919602</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C109" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D109" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E109" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F109" t="n">
-        <v>32182.1724</v>
+        <v>76261.20209999999</v>
       </c>
       <c r="G109" t="n">
-        <v>29.69999999999997</v>
+        <v>-1451257.108919602</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C110" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="D110" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E110" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="F110" t="n">
-        <v>11</v>
+        <v>671.9969</v>
       </c>
       <c r="G110" t="n">
-        <v>29.59999999999998</v>
+        <v>-1451257.108919602</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C111" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D111" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E111" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F111" t="n">
-        <v>3778.8172</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>29.59999999999998</v>
+        <v>-1451247.108919602</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C112" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="D112" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E112" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F112" t="n">
-        <v>42496.5979</v>
+        <v>8496.7392</v>
       </c>
       <c r="G112" t="n">
-        <v>29.59999999999998</v>
+        <v>-1451247.108919602</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C113" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D113" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E113" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F113" t="n">
-        <v>12260.753</v>
+        <v>4997.0318</v>
       </c>
       <c r="G113" t="n">
-        <v>29.56666666666664</v>
+        <v>-1451247.108919602</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4482,10 +4482,10 @@
         <v>29.6</v>
       </c>
       <c r="F114" t="n">
-        <v>3778.8171</v>
+        <v>68573.94809999999</v>
       </c>
       <c r="G114" t="n">
-        <v>29.56666666666665</v>
+        <v>-1519821.057019602</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C115" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="D115" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E115" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="F115" t="n">
-        <v>50.6734</v>
+        <v>146.8478</v>
       </c>
       <c r="G115" t="n">
-        <v>29.63333333333331</v>
+        <v>-1519821.057019602</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>29.6</v>
       </c>
       <c r="F116" t="n">
-        <v>15885.6712</v>
+        <v>868.3292</v>
       </c>
       <c r="G116" t="n">
-        <v>29.63333333333332</v>
+        <v>-1519821.057019602</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4590,10 +4590,10 @@
         <v>29.6</v>
       </c>
       <c r="F117" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="G117" t="n">
-        <v>29.63333333333332</v>
+        <v>-1519821.057019602</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="C118" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D118" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E118" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F118" t="n">
-        <v>965.8533</v>
+        <v>19361.88552188552</v>
       </c>
       <c r="G118" t="n">
-        <v>29.59999999999998</v>
+        <v>-1500459.171497716</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="C119" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="D119" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="E119" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="F119" t="n">
-        <v>80792.51210000001</v>
+        <v>62579.4629</v>
       </c>
       <c r="G119" t="n">
-        <v>29.53333333333331</v>
+        <v>-1500459.171497716</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,35 +4686,31 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="C120" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D120" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="E120" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F120" t="n">
-        <v>248.8746</v>
+        <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>29.49999999999998</v>
+        <v>-1500259.171497716</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K120" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
@@ -4726,40 +4722,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="C121" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="D121" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="E121" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="F121" t="n">
-        <v>19922.3617</v>
+        <v>15921.1073</v>
       </c>
       <c r="G121" t="n">
-        <v>29.43333333333332</v>
+        <v>-1500259.171497716</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K121" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4770,40 +4758,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="C122" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="D122" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="E122" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="F122" t="n">
-        <v>6090.8239</v>
+        <v>35129.60287811448</v>
       </c>
       <c r="G122" t="n">
-        <v>29.39999999999999</v>
+        <v>-1500259.171497716</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K122" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4814,35 +4794,31 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="C123" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="D123" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E123" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="F123" t="n">
-        <v>40.2243</v>
+        <v>16000.0167</v>
       </c>
       <c r="G123" t="n">
-        <v>29.46666666666665</v>
+        <v>-1500259.171497716</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K123" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
@@ -4854,40 +4830,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="C124" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D124" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="E124" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F124" t="n">
-        <v>334.051</v>
+        <v>1600.0016</v>
       </c>
       <c r="G124" t="n">
-        <v>29.49999999999999</v>
+        <v>-1500259.171497716</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K124" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4898,40 +4866,32 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="C125" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="D125" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="E125" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>33022.7509</v>
       </c>
       <c r="G125" t="n">
-        <v>29.59999999999999</v>
+        <v>-1467236.420597716</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K125" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4942,35 +4902,31 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="C126" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="D126" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="E126" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="F126" t="n">
-        <v>11</v>
+        <v>43306.3576</v>
       </c>
       <c r="G126" t="n">
-        <v>29.63333333333332</v>
+        <v>-1467236.420597716</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K126" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
@@ -4982,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="C127" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="D127" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="E127" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="F127" t="n">
-        <v>9814.551799999999</v>
+        <v>46326.8538</v>
       </c>
       <c r="G127" t="n">
-        <v>29.73333333333332</v>
+        <v>-1467236.420597716</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5006,14 +4962,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5024,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C128" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D128" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E128" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F128" t="n">
-        <v>121.1058</v>
+        <v>46326.8538</v>
       </c>
       <c r="G128" t="n">
-        <v>29.79999999999998</v>
+        <v>-1513563.274397716</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5048,14 +4998,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5066,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="C129" t="n">
-        <v>29.9</v>
+        <v>30.3</v>
       </c>
       <c r="D129" t="n">
-        <v>29.9</v>
+        <v>30.3</v>
       </c>
       <c r="E129" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="F129" t="n">
-        <v>22.2742</v>
+        <v>75070.924</v>
       </c>
       <c r="G129" t="n">
-        <v>29.83333333333332</v>
+        <v>-1438492.350397716</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5102,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="C130" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="D130" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="E130" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F130" t="n">
-        <v>790.2248</v>
+        <v>14400.0152</v>
       </c>
       <c r="G130" t="n">
-        <v>29.83333333333332</v>
+        <v>-1452892.365597716</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5138,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C131" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="D131" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E131" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="F131" t="n">
-        <v>11</v>
+        <v>30593</v>
       </c>
       <c r="G131" t="n">
-        <v>29.86666666666665</v>
+        <v>-1452892.365597716</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5174,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C132" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="D132" t="n">
         <v>30</v>
       </c>
       <c r="E132" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F132" t="n">
-        <v>30886.7962</v>
+        <v>52874.8934</v>
       </c>
       <c r="G132" t="n">
-        <v>29.89999999999999</v>
+        <v>-1505767.258997716</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5210,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C133" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="D133" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="E133" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F133" t="n">
-        <v>99</v>
+        <v>132.023</v>
       </c>
       <c r="G133" t="n">
-        <v>30.03333333333332</v>
+        <v>-1505767.258997716</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5246,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C134" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D134" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E134" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="F134" t="n">
-        <v>2963.522</v>
+        <v>22308.9047</v>
       </c>
       <c r="G134" t="n">
-        <v>30.06666666666665</v>
+        <v>-1528076.163697716</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5294,10 +5238,10 @@
         <v>30.2</v>
       </c>
       <c r="F135" t="n">
-        <v>3883.4768</v>
+        <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>30.13333333333332</v>
+        <v>-1528066.163697716</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5318,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="C136" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D136" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E136" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="F136" t="n">
-        <v>943.6821</v>
+        <v>117.4158</v>
       </c>
       <c r="G136" t="n">
-        <v>30.13333333333332</v>
+        <v>-1528183.579497716</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5354,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="C137" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="D137" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="E137" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="F137" t="n">
-        <v>1000</v>
+        <v>39907.0232</v>
       </c>
       <c r="G137" t="n">
-        <v>30.16666666666666</v>
+        <v>-1568090.602697716</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5390,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C138" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D138" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E138" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F138" t="n">
-        <v>168.9136</v>
+        <v>11</v>
       </c>
       <c r="G138" t="n">
-        <v>30.13333333333332</v>
+        <v>-1568079.602697716</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5426,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="C139" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D139" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="E139" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="F139" t="n">
-        <v>5195.6687</v>
+        <v>4991.786321885522</v>
       </c>
       <c r="G139" t="n">
-        <v>30.06666666666665</v>
+        <v>-1573071.389019601</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5462,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="C140" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="D140" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="E140" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="F140" t="n">
-        <v>4067.7321</v>
+        <v>17247.0945</v>
       </c>
       <c r="G140" t="n">
-        <v>30.03333333333332</v>
+        <v>-1590318.483519601</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5498,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="C141" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="D141" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="E141" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="F141" t="n">
-        <v>12403</v>
+        <v>238.7779</v>
       </c>
       <c r="G141" t="n">
-        <v>29.96666666666666</v>
+        <v>-1590557.261419601</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5534,31 +5478,35 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="C142" t="n">
-        <v>30.2</v>
+        <v>29.3</v>
       </c>
       <c r="D142" t="n">
-        <v>30.2</v>
+        <v>29.3</v>
       </c>
       <c r="E142" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="F142" t="n">
-        <v>344</v>
+        <v>43393.9783</v>
       </c>
       <c r="G142" t="n">
-        <v>30.03333333333333</v>
+        <v>-1590557.261419601</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K142" t="n">
+        <v>29.3</v>
+      </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
@@ -5570,32 +5518,40 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C143" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D143" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E143" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F143" t="n">
-        <v>28173.9867</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>30.06666666666666</v>
+        <v>-1590547.261419601</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K143" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5606,32 +5562,40 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="C144" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="D144" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="E144" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="F144" t="n">
-        <v>17840.6667</v>
+        <v>792.2053</v>
       </c>
       <c r="G144" t="n">
-        <v>30.13333333333333</v>
+        <v>-1591339.466719601</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K144" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5642,22 +5606,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="C145" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="D145" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="E145" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="F145" t="n">
-        <v>28814.7419</v>
+        <v>5664.59</v>
       </c>
       <c r="G145" t="n">
-        <v>30.09999999999999</v>
+        <v>-1597004.056719601</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5678,31 +5642,35 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="C146" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D146" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="E146" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F146" t="n">
-        <v>25835.7061</v>
+        <v>1003</v>
       </c>
       <c r="G146" t="n">
-        <v>30.06666666666665</v>
+        <v>-1597004.056719601</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K146" t="n">
+        <v>29.5</v>
+      </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
@@ -5714,32 +5682,40 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="C147" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="D147" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="E147" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="F147" t="n">
-        <v>72</v>
+        <v>140.4335</v>
       </c>
       <c r="G147" t="n">
-        <v>30.06666666666665</v>
+        <v>-1596863.623219601</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K147" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5750,32 +5726,40 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C148" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D148" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E148" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F148" t="n">
-        <v>54</v>
+        <v>84.4295</v>
       </c>
       <c r="G148" t="n">
-        <v>30.06666666666665</v>
+        <v>-1596779.193719601</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K148" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5786,32 +5770,40 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="C149" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D149" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E149" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="F149" t="n">
-        <v>18.841</v>
+        <v>59858.4505</v>
       </c>
       <c r="G149" t="n">
-        <v>30.13333333333332</v>
+        <v>-1536920.743219601</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K149" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5822,7 +5814,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C150" t="n">
         <v>30.2</v>
@@ -5831,13 +5823,13 @@
         <v>30.2</v>
       </c>
       <c r="E150" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F150" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G150" t="n">
-        <v>30.16666666666666</v>
+        <v>-1536900.743219601</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5846,8 +5838,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5858,22 +5856,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="C151" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="D151" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="E151" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F151" t="n">
-        <v>19959.52</v>
+        <v>8966.5502</v>
       </c>
       <c r="G151" t="n">
-        <v>30.16666666666666</v>
+        <v>-1527934.193019601</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5882,8 +5880,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5894,22 +5898,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="C152" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="D152" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="E152" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="F152" t="n">
-        <v>184331.5756</v>
+        <v>4779.2079</v>
       </c>
       <c r="G152" t="n">
-        <v>30.09999999999999</v>
+        <v>-1527934.193019601</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5918,8 +5922,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5930,22 +5940,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C153" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="D153" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="E153" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="F153" t="n">
-        <v>10</v>
+        <v>13752.34</v>
       </c>
       <c r="G153" t="n">
-        <v>30.09999999999999</v>
+        <v>-1541686.533019601</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5954,8 +5964,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5966,22 +5982,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C154" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="D154" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="E154" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F154" t="n">
-        <v>16665</v>
+        <v>48</v>
       </c>
       <c r="G154" t="n">
-        <v>30.19999999999999</v>
+        <v>-1541638.533019601</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5990,8 +6006,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6002,22 +6024,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="C155" t="n">
-        <v>30.6</v>
+        <v>30.1</v>
       </c>
       <c r="D155" t="n">
-        <v>30.6</v>
+        <v>30.1</v>
       </c>
       <c r="E155" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="F155" t="n">
-        <v>90017.776</v>
+        <v>3317.0091</v>
       </c>
       <c r="G155" t="n">
-        <v>30.39999999999999</v>
+        <v>-1541638.533019601</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6026,8 +6048,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6038,22 +6066,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="C156" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="D156" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="E156" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>10239.5981</v>
       </c>
       <c r="G156" t="n">
-        <v>30.56666666666665</v>
+        <v>-1541638.533019601</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6062,8 +6090,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6074,22 +6108,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="C157" t="n">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="D157" t="n">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="E157" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="F157" t="n">
-        <v>158429.9193</v>
+        <v>11</v>
       </c>
       <c r="G157" t="n">
-        <v>30.69999999999999</v>
+        <v>-1541649.533019601</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6098,8 +6132,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6110,22 +6150,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>30.7</v>
+        <v>29.8</v>
       </c>
       <c r="C158" t="n">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="D158" t="n">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="E158" t="n">
-        <v>30.7</v>
+        <v>29.8</v>
       </c>
       <c r="F158" t="n">
-        <v>1002</v>
+        <v>5394.7831</v>
       </c>
       <c r="G158" t="n">
-        <v>30.76666666666665</v>
+        <v>-1547044.316119601</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6134,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6146,22 +6192,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="C159" t="n">
-        <v>30.9</v>
+        <v>30.1</v>
       </c>
       <c r="D159" t="n">
-        <v>30.9</v>
+        <v>30.1</v>
       </c>
       <c r="E159" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="F159" t="n">
-        <v>95710.6251</v>
+        <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>30.83333333333332</v>
+        <v>-1547034.316119601</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6170,8 +6216,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6182,22 +6234,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="C160" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="D160" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="E160" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="F160" t="n">
-        <v>16149.6129</v>
+        <v>237.5868</v>
       </c>
       <c r="G160" t="n">
-        <v>30.89999999999999</v>
+        <v>-1546796.729319601</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6206,8 +6258,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6218,22 +6276,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="C161" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="D161" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="E161" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="F161" t="n">
-        <v>134.6192</v>
+        <v>8.8256</v>
       </c>
       <c r="G161" t="n">
-        <v>30.86666666666666</v>
+        <v>-1546805.554919601</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6242,8 +6300,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6254,22 +6318,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="C162" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="D162" t="n">
-        <v>30.8</v>
+        <v>30.3</v>
       </c>
       <c r="E162" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="F162" t="n">
-        <v>18723.6659</v>
+        <v>18586.1299</v>
       </c>
       <c r="G162" t="n">
-        <v>30.79999999999999</v>
+        <v>-1528219.425019601</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6278,8 +6342,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6290,22 +6360,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="C163" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="D163" t="n">
-        <v>31.1</v>
+        <v>30.1</v>
       </c>
       <c r="E163" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="F163" t="n">
-        <v>120230.2943</v>
+        <v>18.1818</v>
       </c>
       <c r="G163" t="n">
-        <v>30.79999999999999</v>
+        <v>-1528237.606819601</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6314,8 +6384,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6326,22 +6402,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="C164" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="D164" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="E164" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="F164" t="n">
-        <v>230.568</v>
+        <v>1541.7141</v>
       </c>
       <c r="G164" t="n">
-        <v>30.79999999999999</v>
+        <v>-1529779.320919601</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6350,8 +6426,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6362,22 +6444,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>30.7</v>
+        <v>29.8</v>
       </c>
       <c r="C165" t="n">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="D165" t="n">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="E165" t="n">
-        <v>30.7</v>
+        <v>29.8</v>
       </c>
       <c r="F165" t="n">
-        <v>1165.1387</v>
+        <v>7107.7173</v>
       </c>
       <c r="G165" t="n">
-        <v>30.83333333333333</v>
+        <v>-1536887.038219601</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6386,8 +6468,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6398,22 +6486,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C166" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="D166" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E166" t="n">
-        <v>30.9</v>
+        <v>29.9</v>
       </c>
       <c r="F166" t="n">
-        <v>142687.9889</v>
+        <v>7356.69</v>
       </c>
       <c r="G166" t="n">
-        <v>30.83333333333333</v>
+        <v>-1529530.348219601</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6422,8 +6510,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6434,22 +6528,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="C167" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="D167" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="E167" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="F167" t="n">
-        <v>10407.62056752412</v>
+        <v>17000</v>
       </c>
       <c r="G167" t="n">
-        <v>30.96666666666665</v>
+        <v>-1529530.348219601</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6458,8 +6552,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6470,22 +6570,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="C168" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="D168" t="n">
-        <v>31.2</v>
+        <v>29.9</v>
       </c>
       <c r="E168" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="F168" t="n">
-        <v>72740.94127766819</v>
+        <v>3439.12</v>
       </c>
       <c r="G168" t="n">
-        <v>31.06666666666666</v>
+        <v>-1529530.348219601</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6494,8 +6594,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6506,22 +6612,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="C169" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="D169" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="E169" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="F169" t="n">
-        <v>2629.9679</v>
+        <v>23374.778</v>
       </c>
       <c r="G169" t="n">
-        <v>31.13333333333333</v>
+        <v>-1506155.570219601</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6530,8 +6636,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6542,22 +6654,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="C170" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="D170" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="E170" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="F170" t="n">
-        <v>16571.915</v>
+        <v>8323.822</v>
       </c>
       <c r="G170" t="n">
-        <v>31.16666666666666</v>
+        <v>-1506155.570219601</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6566,8 +6678,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6578,32 +6696,38 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="C171" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="D171" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="E171" t="n">
-        <v>31.1</v>
+        <v>29.8</v>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>69603.92630000001</v>
       </c>
       <c r="G171" t="n">
-        <v>31.16666666666666</v>
+        <v>-1506155.570219601</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6614,32 +6738,38 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="C172" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="D172" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="E172" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="F172" t="n">
-        <v>4431.5384</v>
+        <v>10509.8305</v>
       </c>
       <c r="G172" t="n">
-        <v>31.13333333333332</v>
+        <v>-1506155.570219601</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6650,32 +6780,38 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="C173" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D173" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="E173" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F173" t="n">
-        <v>6255.7051</v>
+        <v>20170.6666</v>
       </c>
       <c r="G173" t="n">
-        <v>31.06666666666665</v>
+        <v>-1506155.570219601</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6686,32 +6822,38 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>31.1</v>
+        <v>29.8</v>
       </c>
       <c r="C174" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="D174" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="E174" t="n">
-        <v>31.1</v>
+        <v>29.8</v>
       </c>
       <c r="F174" t="n">
-        <v>11</v>
+        <v>51397.4899</v>
       </c>
       <c r="G174" t="n">
-        <v>31.06666666666665</v>
+        <v>-1506155.570219601</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6722,32 +6864,38 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="C175" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="D175" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="E175" t="n">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="F175" t="n">
-        <v>20190.9842</v>
+        <v>30357.1905</v>
       </c>
       <c r="G175" t="n">
-        <v>31.06666666666665</v>
+        <v>-1536512.760719601</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6758,32 +6906,38 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="C176" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="D176" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="E176" t="n">
-        <v>30.6</v>
+        <v>29.9</v>
       </c>
       <c r="F176" t="n">
-        <v>5806.57</v>
+        <v>10118.9333</v>
       </c>
       <c r="G176" t="n">
-        <v>31.09999999999998</v>
+        <v>-1526393.827419601</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6794,32 +6948,38 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>31</v>
+        <v>29.8</v>
       </c>
       <c r="C177" t="n">
-        <v>31</v>
+        <v>29.7</v>
       </c>
       <c r="D177" t="n">
-        <v>31</v>
+        <v>29.8</v>
       </c>
       <c r="E177" t="n">
-        <v>31</v>
+        <v>29.7</v>
       </c>
       <c r="F177" t="n">
-        <v>102.5806</v>
+        <v>10590.11</v>
       </c>
       <c r="G177" t="n">
-        <v>31.06666666666665</v>
+        <v>-1536983.937419601</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6830,32 +6990,38 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>30.9</v>
+        <v>30</v>
       </c>
       <c r="C178" t="n">
-        <v>30.9</v>
+        <v>30</v>
       </c>
       <c r="D178" t="n">
-        <v>30.9</v>
+        <v>30</v>
       </c>
       <c r="E178" t="n">
-        <v>30.9</v>
+        <v>30</v>
       </c>
       <c r="F178" t="n">
-        <v>107.3226</v>
+        <v>3680.9</v>
       </c>
       <c r="G178" t="n">
-        <v>30.99999999999999</v>
+        <v>-1533303.037419602</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6866,32 +7032,38 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>30.9</v>
+        <v>29.7</v>
       </c>
       <c r="C179" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="D179" t="n">
-        <v>30.9</v>
+        <v>29.7</v>
       </c>
       <c r="E179" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="F179" t="n">
-        <v>639</v>
+        <v>19425.65</v>
       </c>
       <c r="G179" t="n">
-        <v>30.93333333333333</v>
+        <v>-1552728.687419601</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6902,32 +7074,38 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>30.9</v>
+        <v>29.7</v>
       </c>
       <c r="C180" t="n">
-        <v>30.9</v>
+        <v>29.5</v>
       </c>
       <c r="D180" t="n">
-        <v>30.9</v>
+        <v>29.7</v>
       </c>
       <c r="E180" t="n">
-        <v>30.9</v>
+        <v>29.5</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7453</v>
+        <v>32182.1724</v>
       </c>
       <c r="G180" t="n">
-        <v>30.9</v>
+        <v>-1584910.859819602</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6938,32 +7116,38 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>30.7</v>
+        <v>29.7</v>
       </c>
       <c r="C181" t="n">
-        <v>30.6</v>
+        <v>29.7</v>
       </c>
       <c r="D181" t="n">
-        <v>30.7</v>
+        <v>29.7</v>
       </c>
       <c r="E181" t="n">
-        <v>30.6</v>
+        <v>29.7</v>
       </c>
       <c r="F181" t="n">
-        <v>47601.5119</v>
+        <v>11</v>
       </c>
       <c r="G181" t="n">
-        <v>30.79999999999999</v>
+        <v>-1584899.859819602</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6974,22 +7158,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>30.7</v>
+        <v>29.6</v>
       </c>
       <c r="C182" t="n">
-        <v>30.7</v>
+        <v>29.6</v>
       </c>
       <c r="D182" t="n">
-        <v>30.7</v>
+        <v>29.6</v>
       </c>
       <c r="E182" t="n">
-        <v>30.7</v>
+        <v>29.6</v>
       </c>
       <c r="F182" t="n">
-        <v>4995.5977</v>
+        <v>3778.8172</v>
       </c>
       <c r="G182" t="n">
-        <v>30.73333333333333</v>
+        <v>-1588678.677019601</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6998,8 +7182,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7010,32 +7200,38 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="C183" t="n">
-        <v>30.9</v>
+        <v>29.5</v>
       </c>
       <c r="D183" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="E183" t="n">
-        <v>30.9</v>
+        <v>29.5</v>
       </c>
       <c r="F183" t="n">
-        <v>11</v>
+        <v>42496.5979</v>
       </c>
       <c r="G183" t="n">
-        <v>30.73333333333333</v>
+        <v>-1631175.274919601</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7046,32 +7242,38 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="C184" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="D184" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="E184" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="F184" t="n">
-        <v>266.1031</v>
+        <v>12260.753</v>
       </c>
       <c r="G184" t="n">
-        <v>30.83333333333333</v>
+        <v>-1618914.521919601</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7082,32 +7284,38 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="C185" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="D185" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="E185" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="F185" t="n">
-        <v>603.1741</v>
+        <v>3778.8171</v>
       </c>
       <c r="G185" t="n">
-        <v>30.93333333333333</v>
+        <v>-1618914.521919601</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7118,22 +7326,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>31</v>
+        <v>29.7</v>
       </c>
       <c r="C186" t="n">
-        <v>31</v>
+        <v>29.7</v>
       </c>
       <c r="D186" t="n">
-        <v>31</v>
+        <v>29.7</v>
       </c>
       <c r="E186" t="n">
-        <v>31</v>
+        <v>29.7</v>
       </c>
       <c r="F186" t="n">
-        <v>583.3516</v>
+        <v>50.6734</v>
       </c>
       <c r="G186" t="n">
-        <v>30.96666666666667</v>
+        <v>-1618863.848519601</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7142,8 +7350,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7154,32 +7368,38 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="C187" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="D187" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="E187" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="F187" t="n">
-        <v>11835.2937</v>
+        <v>15885.6712</v>
       </c>
       <c r="G187" t="n">
-        <v>31</v>
+        <v>-1634749.519719601</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7190,22 +7410,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="C188" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="D188" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="E188" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="F188" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G188" t="n">
-        <v>31</v>
+        <v>-1634749.519719601</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7214,8 +7434,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7226,32 +7452,38 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="C189" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="D189" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="E189" t="n">
-        <v>30.9</v>
+        <v>29.6</v>
       </c>
       <c r="F189" t="n">
-        <v>3531.3107</v>
+        <v>965.8533</v>
       </c>
       <c r="G189" t="n">
-        <v>30.96666666666667</v>
+        <v>-1634749.519719601</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7262,32 +7494,40 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>30.9</v>
+        <v>29.5</v>
       </c>
       <c r="C190" t="n">
-        <v>30.9</v>
+        <v>29.4</v>
       </c>
       <c r="D190" t="n">
-        <v>30.9</v>
+        <v>29.5</v>
       </c>
       <c r="E190" t="n">
-        <v>30.9</v>
+        <v>29.4</v>
       </c>
       <c r="F190" t="n">
-        <v>32815.3398</v>
+        <v>80792.51210000001</v>
       </c>
       <c r="G190" t="n">
-        <v>30.93333333333334</v>
+        <v>-1715542.031819601</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="K190" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7298,36 +7538,2880 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>248.8746</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1715293.157219601</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K191" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E192" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F192" t="n">
+        <v>19922.3617</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1735215.518919601</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K192" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6090.8239</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1741306.342819601</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K193" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>40.2243</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1741266.118519601</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K194" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>334.051</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1741600.169519601</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K195" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C196" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1741590.169519601</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K196" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E197" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1741579.169519601</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="K197" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C198" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D198" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E198" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F198" t="n">
+        <v>9814.551799999999</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1741579.169519601</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K198" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C199" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D199" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E199" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F199" t="n">
+        <v>121.1058</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1741579.169519601</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K199" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E200" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>22.2742</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1741556.895319601</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C201" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D201" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E201" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>790.2248</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1742347.120119601</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F202" t="n">
+        <v>11</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1742336.120119601</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>30</v>
+      </c>
+      <c r="D203" t="n">
+        <v>30</v>
+      </c>
+      <c r="E203" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F203" t="n">
+        <v>30886.7962</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1711449.323919601</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>99</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1711350.323919601</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>30</v>
+      </c>
+      <c r="C205" t="n">
+        <v>30</v>
+      </c>
+      <c r="D205" t="n">
+        <v>30</v>
+      </c>
+      <c r="E205" t="n">
+        <v>30</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2963.522</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1714313.845919601</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3883.4768</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1710430.369119601</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C207" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>943.6821</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1710430.369119601</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D208" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1711430.369119601</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E209" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>168.9136</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1711430.369119601</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>30</v>
+      </c>
+      <c r="C210" t="n">
+        <v>30</v>
+      </c>
+      <c r="D210" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>30</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5195.6687</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1716626.037819601</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>30</v>
+      </c>
+      <c r="C211" t="n">
+        <v>30</v>
+      </c>
+      <c r="D211" t="n">
+        <v>30</v>
+      </c>
+      <c r="E211" t="n">
+        <v>30</v>
+      </c>
+      <c r="F211" t="n">
+        <v>4067.7321</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1716626.037819601</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D212" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F212" t="n">
+        <v>12403</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1729029.037819601</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>344</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1728685.037819601</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>28173.9867</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1756859.024519601</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E215" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>17840.6667</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1756859.024519601</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>28814.7419</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1756859.024519601</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>30</v>
+      </c>
+      <c r="C217" t="n">
+        <v>30</v>
+      </c>
+      <c r="D217" t="n">
+        <v>30</v>
+      </c>
+      <c r="E217" t="n">
+        <v>30</v>
+      </c>
+      <c r="F217" t="n">
+        <v>25835.7061</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1782694.730619601</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>72</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1782622.730619601</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>54</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1782622.730619601</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C220" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E220" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F220" t="n">
+        <v>18.841</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1782603.889619601</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>10</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1782603.889619601</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E222" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>19959.52</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1802563.409619601</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>30</v>
+      </c>
+      <c r="D223" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E223" t="n">
+        <v>30</v>
+      </c>
+      <c r="F223" t="n">
+        <v>184331.5756</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1986894.985219602</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>10</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1986884.985219602</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C225" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D225" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E225" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F225" t="n">
+        <v>16665</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1970219.985219602</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C226" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E226" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>90017.776</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1880202.209219601</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C227" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D227" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E227" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F227" t="n">
+        <v>10</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1880192.209219601</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C228" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D228" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E228" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F228" t="n">
+        <v>158429.9193</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1721762.289919602</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C229" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D229" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E229" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1002</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1721762.289919602</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C230" t="n">
         <v>30.9</v>
       </c>
-      <c r="C191" t="n">
+      <c r="D230" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E230" t="n">
         <v>30.7</v>
       </c>
-      <c r="D191" t="n">
+      <c r="F230" t="n">
+        <v>95710.6251</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1626051.664819601</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
         <v>31</v>
       </c>
-      <c r="E191" t="n">
+      <c r="C231" t="n">
+        <v>31</v>
+      </c>
+      <c r="D231" t="n">
+        <v>31</v>
+      </c>
+      <c r="E231" t="n">
+        <v>31</v>
+      </c>
+      <c r="F231" t="n">
+        <v>16149.6129</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1609902.051919601</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
         <v>30.7</v>
       </c>
-      <c r="F191" t="n">
+      <c r="C232" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D232" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E232" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F232" t="n">
+        <v>134.6192</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1610036.671119601</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C233" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D233" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E233" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F233" t="n">
+        <v>18723.6659</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1610036.671119601</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C234" t="n">
+        <v>31</v>
+      </c>
+      <c r="D234" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F234" t="n">
+        <v>120230.2943</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1489806.376819602</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C235" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D235" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E235" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F235" t="n">
+        <v>230.568</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1490036.944819601</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1.035677966101695</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C236" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D236" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E236" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1165.1387</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1488871.806119601</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>31</v>
+      </c>
+      <c r="C237" t="n">
+        <v>31</v>
+      </c>
+      <c r="D237" t="n">
+        <v>31</v>
+      </c>
+      <c r="E237" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F237" t="n">
+        <v>142687.9889</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1346183.817219601</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>10407.62056752412</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1335776.196652077</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E239" t="n">
+        <v>31</v>
+      </c>
+      <c r="F239" t="n">
+        <v>72740.94127766819</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1335776.196652077</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C240" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2629.9679</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1333146.228752077</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C241" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F241" t="n">
+        <v>16571.915</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1333146.228752077</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D242" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>30</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1333176.228752077</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>4431.5384</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1333176.228752077</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>31</v>
+      </c>
+      <c r="D244" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>31</v>
+      </c>
+      <c r="F244" t="n">
+        <v>6255.7051</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1339431.933852077</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>11</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1339420.933852077</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E246" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>20190.9842</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1339420.933852077</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C247" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E247" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F247" t="n">
+        <v>5806.57</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1339420.933852077</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>31</v>
+      </c>
+      <c r="C248" t="n">
+        <v>31</v>
+      </c>
+      <c r="D248" t="n">
+        <v>31</v>
+      </c>
+      <c r="E248" t="n">
+        <v>31</v>
+      </c>
+      <c r="F248" t="n">
+        <v>102.5806</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1339523.514452077</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C249" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D249" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E249" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F249" t="n">
+        <v>107.3226</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1339630.837052077</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C250" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D250" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E250" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F250" t="n">
+        <v>639</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1339630.837052077</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C251" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D251" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E251" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.7453</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1339630.837052077</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C252" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E252" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F252" t="n">
+        <v>47601.5119</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1387232.348952077</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C253" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D253" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E253" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F253" t="n">
+        <v>4995.5977</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1382236.751252077</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C254" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D254" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E254" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F254" t="n">
+        <v>11</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1382225.751252077</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C255" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D255" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E255" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F255" t="n">
+        <v>266.1031</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1382225.751252077</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>31</v>
+      </c>
+      <c r="C256" t="n">
+        <v>31</v>
+      </c>
+      <c r="D256" t="n">
+        <v>31</v>
+      </c>
+      <c r="E256" t="n">
+        <v>31</v>
+      </c>
+      <c r="F256" t="n">
+        <v>603.1741</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1381622.577152077</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>31</v>
+      </c>
+      <c r="C257" t="n">
+        <v>31</v>
+      </c>
+      <c r="D257" t="n">
+        <v>31</v>
+      </c>
+      <c r="E257" t="n">
+        <v>31</v>
+      </c>
+      <c r="F257" t="n">
+        <v>583.3516</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1381622.577152077</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C258" t="n">
+        <v>31</v>
+      </c>
+      <c r="D258" t="n">
+        <v>31</v>
+      </c>
+      <c r="E258" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F258" t="n">
+        <v>11835.2937</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1381622.577152077</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>31</v>
+      </c>
+      <c r="C259" t="n">
+        <v>31</v>
+      </c>
+      <c r="D259" t="n">
+        <v>31</v>
+      </c>
+      <c r="E259" t="n">
+        <v>31</v>
+      </c>
+      <c r="F259" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1381622.577152077</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>31</v>
+      </c>
+      <c r="C260" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D260" t="n">
+        <v>31</v>
+      </c>
+      <c r="E260" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3531.3107</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1385153.887852077</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C261" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D261" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E261" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F261" t="n">
+        <v>32815.3398</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1385153.887852077</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C262" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D262" t="n">
+        <v>31</v>
+      </c>
+      <c r="E262" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F262" t="n">
         <v>3544.0204</v>
       </c>
-      <c r="G191" t="n">
-        <v>30.83333333333334</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="G262" t="n">
+        <v>-1388697.908252077</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N262"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-351738.8304</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,19 @@
         <v>-1322340.037219602</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3392,23 @@
         <v>-1322340.037219602</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="J91" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3435,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3474,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3505,19 @@
         <v>-1322329.037219602</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3544,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3581,23 @@
         <v>-1372271.956219602</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>29.3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3622,23 @@
         <v>-1372271.956219602</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>29.3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3665,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3702,23 @@
         <v>-1430405.412319602</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3745,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3782,23 @@
         <v>-1430394.412319602</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3823,23 @@
         <v>-1430394.412319602</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3864,23 @@
         <v>-1430394.412319602</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3907,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3946,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3983,23 @@
         <v>-1430384.412319602</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>29.3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4026,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4065,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4104,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4143,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4182,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4221,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4260,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4299,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4338,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4377,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4416,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4455,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4494,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4533,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4572,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4611,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4650,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4689,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4728,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4765,23 @@
         <v>-1467236.420597716</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>30.2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4808,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4847,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4886,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4925,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4964,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +5003,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +5040,23 @@
         <v>-1505767.258997716</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>29.8</v>
+      </c>
+      <c r="J133" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +5081,23 @@
         <v>-1528076.163697716</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>29.8</v>
+      </c>
+      <c r="J134" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +5122,23 @@
         <v>-1528066.163697716</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>29.7</v>
+      </c>
+      <c r="J135" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +5163,23 @@
         <v>-1528183.579497716</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>30.2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5206,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +5243,23 @@
         <v>-1568079.602697716</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>29.7</v>
+      </c>
+      <c r="J138" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +5284,23 @@
         <v>-1573071.389019601</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J139" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5325,23 @@
         <v>-1590318.483519601</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>29.7</v>
+      </c>
+      <c r="J140" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5366,23 @@
         <v>-1590557.261419601</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>29.6</v>
+      </c>
+      <c r="J141" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,22 +5407,23 @@
         <v>-1590557.261419601</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="J142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5536,26 +5448,23 @@
         <v>-1590547.261419601</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="J143" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K143" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5580,26 +5489,23 @@
         <v>-1591339.466719601</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>29.8</v>
       </c>
       <c r="J144" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K144" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5624,18 +5530,23 @@
         <v>-1597004.056719601</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>29.7</v>
+      </c>
+      <c r="J145" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5660,22 +5571,23 @@
         <v>-1597004.056719601</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="J146" t="n">
         <v>29.5</v>
       </c>
-      <c r="K146" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5700,26 +5612,23 @@
         <v>-1596863.623219601</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="J147" t="n">
         <v>29.5</v>
       </c>
-      <c r="K147" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5744,26 +5653,23 @@
         <v>-1596779.193719601</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>29.7</v>
       </c>
       <c r="J148" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K148" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5788,26 +5694,23 @@
         <v>-1536920.743219601</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>29.8</v>
       </c>
       <c r="J149" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K149" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5832,24 +5735,23 @@
         <v>-1536900.743219601</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J150" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5876,22 +5778,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5916,24 +5815,21 @@
         <v>-1527934.193019601</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5958,24 +5854,21 @@
         <v>-1541686.533019601</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6000,24 +5893,21 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6042,24 +5932,21 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6084,24 +5971,21 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6128,22 +6012,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6170,22 +6051,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6210,24 +6088,21 @@
         <v>-1547034.316119601</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6252,24 +6127,21 @@
         <v>-1546796.729319601</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6296,22 +6168,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6338,22 +6207,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6380,22 +6246,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6420,24 +6283,21 @@
         <v>-1529779.320919601</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6464,22 +6324,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6506,22 +6363,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6546,24 +6400,21 @@
         <v>-1529530.348219601</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6588,24 +6439,21 @@
         <v>-1529530.348219601</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6630,24 +6478,21 @@
         <v>-1506155.570219601</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6672,24 +6517,21 @@
         <v>-1506155.570219601</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6714,24 +6556,21 @@
         <v>-1506155.570219601</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6756,24 +6595,21 @@
         <v>-1506155.570219601</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6800,22 +6636,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6840,24 +6673,21 @@
         <v>-1506155.570219601</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6884,22 +6714,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6924,24 +6751,21 @@
         <v>-1526393.827419601</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6966,24 +6790,21 @@
         <v>-1536983.937419601</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7008,24 +6829,21 @@
         <v>-1533303.037419602</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7050,24 +6868,21 @@
         <v>-1552728.687419601</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7092,24 +6907,21 @@
         <v>-1584910.859819602</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7134,24 +6946,21 @@
         <v>-1584899.859819602</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7178,22 +6987,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7218,24 +7024,21 @@
         <v>-1631175.274919601</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7260,24 +7063,21 @@
         <v>-1618914.521919601</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7302,24 +7102,21 @@
         <v>-1618914.521919601</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7344,24 +7141,21 @@
         <v>-1618863.848519601</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7386,24 +7180,21 @@
         <v>-1634749.519719601</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7428,24 +7219,21 @@
         <v>-1634749.519719601</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7472,22 +7260,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7512,26 +7297,21 @@
         <v>-1715542.031819601</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K190" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7556,26 +7336,23 @@
         <v>-1715293.157219601</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>29.4</v>
       </c>
       <c r="J191" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K191" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7600,26 +7377,21 @@
         <v>-1735215.518919601</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>29.5</v>
       </c>
-      <c r="K192" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7644,26 +7416,23 @@
         <v>-1741306.342819601</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>29.4</v>
       </c>
       <c r="J193" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K193" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7688,26 +7457,21 @@
         <v>-1741266.118519601</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K194" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7732,26 +7496,23 @@
         <v>-1741600.169519601</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>29.7</v>
       </c>
       <c r="J195" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K195" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7776,26 +7537,23 @@
         <v>-1741590.169519601</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="J196" t="n">
         <v>29.5</v>
       </c>
-      <c r="K196" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7820,26 +7578,23 @@
         <v>-1741579.169519601</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="J197" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K197" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7866,24 +7621,19 @@
       <c r="H198" t="n">
         <v>1</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K198" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7910,24 +7660,19 @@
       <c r="H199" t="n">
         <v>1</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K199" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7954,22 +7699,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7996,22 +7738,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8038,22 +7777,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8080,22 +7816,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8122,22 +7855,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8164,22 +7894,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8206,22 +7933,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8248,22 +7972,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8290,22 +8011,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8332,22 +8050,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8374,22 +8089,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8416,22 +8128,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8458,22 +8167,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8500,22 +8206,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8542,22 +8245,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8584,22 +8284,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8626,22 +8323,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8668,22 +8362,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8710,22 +8401,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8752,22 +8440,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8794,22 +8479,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8836,22 +8518,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8878,22 +8557,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8920,22 +8596,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8960,24 +8633,23 @@
         <v>-1986884.985219602</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J224" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9004,22 +8676,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9046,22 +8715,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9088,22 +8754,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9128,24 +8791,21 @@
         <v>-1721762.289919602</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1.03906779661017</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9170,24 +8830,15 @@
         <v>-1721762.289919602</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9212,24 +8863,15 @@
         <v>-1626051.664819601</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9254,24 +8896,15 @@
         <v>-1609902.051919601</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9296,24 +8929,15 @@
         <v>-1610036.671119601</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9338,24 +8962,15 @@
         <v>-1610036.671119601</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9380,24 +8995,15 @@
         <v>-1489806.376819602</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9424,22 +9030,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1.035677966101695</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9466,16 +9063,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9502,16 +9096,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9538,16 +9129,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9572,18 +9160,15 @@
         <v>-1335776.196652077</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9610,16 +9195,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9644,18 +9226,15 @@
         <v>-1333146.228752077</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9680,18 +9259,15 @@
         <v>-1333176.228752077</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9716,18 +9292,15 @@
         <v>-1333176.228752077</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9752,18 +9325,15 @@
         <v>-1339431.933852077</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9790,16 +9360,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9824,18 +9391,15 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9860,18 +9424,15 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9896,18 +9457,15 @@
         <v>-1339523.514452077</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9932,18 +9490,15 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9968,18 +9523,15 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10004,18 +9556,15 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10042,16 +9591,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10078,16 +9624,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10114,16 +9657,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10150,16 +9690,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10186,16 +9723,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10222,16 +9756,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10258,16 +9789,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10294,16 +9822,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10330,16 +9855,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10366,16 +9888,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10402,18 +9921,15 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-318280.0812</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-351738.8304</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-351638.8304</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-351628.8304</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-419218.9802</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-518703.0171000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-516703.0171000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-517725.1311000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-517725.1311000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-517704.1836</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-517694.1836</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-517694.1836</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-526238.4617000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-539099.3109000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-536667.6123000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-555378.6325000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-555378.6325000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-555368.6325000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-555368.6325000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-550076.4320000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-549621.7632000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-549621.7632000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-549419.2500000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-549443.2500000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-545569.9278000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-553358.4783000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-589233.4615000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-589233.4615000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-619607.4595000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-619607.4595000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-619607.4595000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-625709.8750000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-625709.8750000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-647309.7734000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-647298.7734000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-691382.1933</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-691382.1933</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3355,14 +3355,10 @@
         <v>-1322340.037219602</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3392,19 +3388,11 @@
         <v>-1322340.037219602</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3436,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3505,14 +3487,10 @@
         <v>-1322329.037219602</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3545,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3581,19 +3553,11 @@
         <v>-1372271.956219602</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3622,19 +3586,11 @@
         <v>-1372271.956219602</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3666,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3702,19 +3652,11 @@
         <v>-1430405.412319602</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3746,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3782,19 +3718,11 @@
         <v>-1430394.412319602</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3823,19 +3751,11 @@
         <v>-1430394.412319602</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J102" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3864,19 +3784,11 @@
         <v>-1430394.412319602</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3908,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3947,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3983,19 +3883,11 @@
         <v>-1430384.412319602</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4027,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4183,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4222,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4378,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4495,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4612,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4729,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4765,19 +4543,11 @@
         <v>-1467236.420597716</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J126" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4809,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4848,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4887,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4926,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4965,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5004,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5040,19 +4774,11 @@
         <v>-1505767.258997716</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5081,19 +4807,11 @@
         <v>-1528076.163697716</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J134" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5122,19 +4840,15 @@
         <v>-1528066.163697716</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>29.7</v>
       </c>
       <c r="J135" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.7</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5163,17 +4877,15 @@
         <v>-1528183.579497716</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>30.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -5208,11 +4920,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -5243,13 +4955,11 @@
         <v>-1568079.602697716</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5284,13 +4994,11 @@
         <v>-1573071.389019601</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5325,13 +5033,13 @@
         <v>-1590318.483519601</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>29.7</v>
       </c>
       <c r="J140" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5366,13 +5074,13 @@
         <v>-1590557.261419601</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>29.6</v>
       </c>
       <c r="J141" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5407,13 +5115,13 @@
         <v>-1590557.261419601</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>29.3</v>
       </c>
       <c r="J142" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5448,13 +5156,13 @@
         <v>-1590547.261419601</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>29.3</v>
       </c>
       <c r="J143" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5489,13 +5197,13 @@
         <v>-1591339.466719601</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>29.8</v>
       </c>
       <c r="J144" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5530,13 +5238,13 @@
         <v>-1597004.056719601</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>29.7</v>
       </c>
       <c r="J145" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5571,13 +5279,13 @@
         <v>-1597004.056719601</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>29.5</v>
       </c>
       <c r="J146" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5612,13 +5320,13 @@
         <v>-1596863.623219601</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>29.5</v>
       </c>
       <c r="J147" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5653,13 +5361,13 @@
         <v>-1596779.193719601</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>29.7</v>
       </c>
       <c r="J148" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5694,13 +5402,13 @@
         <v>-1536920.743219601</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>29.8</v>
       </c>
       <c r="J149" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5735,13 +5443,13 @@
         <v>-1536900.743219601</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>30</v>
       </c>
       <c r="J150" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5776,11 +5484,13 @@
         <v>-1527934.193019601</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>30.2</v>
+      </c>
       <c r="J151" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5817,9 +5527,11 @@
       <c r="H152" t="n">
         <v>1</v>
       </c>
-      <c r="I152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J152" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5856,9 +5568,11 @@
       <c r="H153" t="n">
         <v>1</v>
       </c>
-      <c r="I153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J153" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5895,9 +5609,11 @@
       <c r="H154" t="n">
         <v>1</v>
       </c>
-      <c r="I154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J154" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5934,9 +5650,11 @@
       <c r="H155" t="n">
         <v>1</v>
       </c>
-      <c r="I155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J155" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5973,9 +5691,11 @@
       <c r="H156" t="n">
         <v>1</v>
       </c>
-      <c r="I156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J156" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6010,11 +5730,13 @@
         <v>-1541649.533019601</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J157" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6049,11 +5771,13 @@
         <v>-1547044.316119601</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>30</v>
+      </c>
       <c r="J158" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6090,9 +5814,11 @@
       <c r="H159" t="n">
         <v>1</v>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J159" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6129,9 +5855,11 @@
       <c r="H160" t="n">
         <v>1</v>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J160" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6170,7 +5898,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6209,7 +5937,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6248,7 +5976,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6283,11 +6011,11 @@
         <v>-1529779.320919601</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6322,11 +6050,13 @@
         <v>-1536887.038219601</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>30</v>
+      </c>
       <c r="J165" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6361,11 +6091,13 @@
         <v>-1529530.348219601</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J166" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6402,9 +6134,11 @@
       <c r="H167" t="n">
         <v>1</v>
       </c>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J167" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6441,9 +6175,11 @@
       <c r="H168" t="n">
         <v>1</v>
       </c>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J168" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6480,9 +6216,11 @@
       <c r="H169" t="n">
         <v>1</v>
       </c>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J169" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6519,9 +6257,11 @@
       <c r="H170" t="n">
         <v>1</v>
       </c>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>30</v>
+      </c>
       <c r="J170" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6558,9 +6298,11 @@
       <c r="H171" t="n">
         <v>1</v>
       </c>
-      <c r="I171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>30</v>
+      </c>
       <c r="J171" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6597,9 +6339,11 @@
       <c r="H172" t="n">
         <v>1</v>
       </c>
-      <c r="I172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>30</v>
+      </c>
       <c r="J172" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6634,11 +6378,13 @@
         <v>-1506155.570219601</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>30</v>
+      </c>
       <c r="J173" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6675,9 +6421,11 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>30</v>
+      </c>
       <c r="J174" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6712,11 +6460,13 @@
         <v>-1536512.760719601</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>30</v>
+      </c>
       <c r="J175" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6753,9 +6503,11 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J176" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6792,9 +6544,11 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>30</v>
+      </c>
       <c r="J177" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6831,9 +6585,11 @@
       <c r="H178" t="n">
         <v>1</v>
       </c>
-      <c r="I178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J178" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6868,11 +6624,11 @@
         <v>-1552728.687419601</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6909,9 +6665,11 @@
       <c r="H180" t="n">
         <v>1</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J180" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6948,9 +6706,11 @@
       <c r="H181" t="n">
         <v>1</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>29.5</v>
+      </c>
       <c r="J181" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6985,11 +6745,13 @@
         <v>-1588678.677019601</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J182" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7026,9 +6788,11 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J183" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7065,9 +6829,11 @@
       <c r="H184" t="n">
         <v>1</v>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>29.5</v>
+      </c>
       <c r="J184" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7104,9 +6870,11 @@
       <c r="H185" t="n">
         <v>1</v>
       </c>
-      <c r="I185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J185" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7143,9 +6911,11 @@
       <c r="H186" t="n">
         <v>1</v>
       </c>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J186" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7182,9 +6952,11 @@
       <c r="H187" t="n">
         <v>1</v>
       </c>
-      <c r="I187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J187" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7221,9 +6993,11 @@
       <c r="H188" t="n">
         <v>1</v>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J188" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7258,11 +7032,13 @@
         <v>-1634749.519719601</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J189" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7297,11 +7073,13 @@
         <v>-1715542.031819601</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J190" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7336,13 +7114,13 @@
         <v>-1715293.157219601</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>29.4</v>
       </c>
       <c r="J191" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7377,11 +7155,13 @@
         <v>-1735215.518919601</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>29.5</v>
+      </c>
       <c r="J192" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7416,13 +7196,13 @@
         <v>-1741306.342819601</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>29.4</v>
       </c>
       <c r="J193" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7457,11 +7237,13 @@
         <v>-1741266.118519601</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J194" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7496,13 +7278,13 @@
         <v>-1741600.169519601</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>29.7</v>
       </c>
       <c r="J195" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7537,13 +7319,13 @@
         <v>-1741590.169519601</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>29.5</v>
       </c>
       <c r="J196" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7578,13 +7360,13 @@
         <v>-1741579.169519601</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>29.6</v>
       </c>
       <c r="J197" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7621,9 +7403,11 @@
       <c r="H198" t="n">
         <v>1</v>
       </c>
-      <c r="I198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J198" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7660,9 +7444,11 @@
       <c r="H199" t="n">
         <v>1</v>
       </c>
-      <c r="I199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J199" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7697,11 +7483,13 @@
         <v>-1741556.895319601</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J200" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7736,11 +7524,13 @@
         <v>-1742347.120119601</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J201" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7775,11 +7565,13 @@
         <v>-1742336.120119601</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J202" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7814,11 +7606,13 @@
         <v>-1711449.323919601</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J203" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7857,7 +7651,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7896,7 +7690,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7935,7 +7729,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7974,7 +7768,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8013,7 +7807,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8048,11 +7842,13 @@
         <v>-1711430.369119601</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J209" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8087,11 +7883,13 @@
         <v>-1716626.037819601</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J210" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8126,11 +7924,13 @@
         <v>-1716626.037819601</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>30</v>
+      </c>
       <c r="J211" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8165,11 +7965,13 @@
         <v>-1729029.037819601</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>30</v>
+      </c>
       <c r="J212" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8204,11 +8006,13 @@
         <v>-1728685.037819601</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J213" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8243,11 +8047,13 @@
         <v>-1756859.024519601</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>30.2</v>
+      </c>
       <c r="J214" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8282,11 +8088,13 @@
         <v>-1756859.024519601</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J215" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8321,11 +8129,13 @@
         <v>-1756859.024519601</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J216" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8360,11 +8170,13 @@
         <v>-1782694.730619601</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J217" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8399,11 +8211,13 @@
         <v>-1782622.730619601</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>30</v>
+      </c>
       <c r="J218" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8438,11 +8252,13 @@
         <v>-1782622.730619601</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J219" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8477,11 +8293,13 @@
         <v>-1782603.889619601</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J220" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8516,11 +8334,13 @@
         <v>-1782603.889619601</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>30.2</v>
+      </c>
       <c r="J221" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8555,11 +8375,13 @@
         <v>-1802563.409619601</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30.2</v>
+      </c>
       <c r="J222" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8594,11 +8416,13 @@
         <v>-1986894.985219602</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J223" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8633,13 +8457,13 @@
         <v>-1986884.985219602</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>30</v>
       </c>
       <c r="J224" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8674,11 +8498,13 @@
         <v>-1970219.985219602</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>30.2</v>
+      </c>
       <c r="J225" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8713,11 +8539,13 @@
         <v>-1880202.209219601</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J226" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8752,11 +8580,13 @@
         <v>-1880192.209219601</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J227" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8791,19 +8621,19 @@
         <v>-1721762.289919602</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1.03906779661017</v>
+        <v>1</v>
       </c>
       <c r="M228" t="inlineStr"/>
     </row>
@@ -8830,11 +8660,17 @@
         <v>-1721762.289919602</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8863,11 +8699,17 @@
         <v>-1626051.664819601</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8896,11 +8738,17 @@
         <v>-1609902.051919601</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8929,11 +8777,17 @@
         <v>-1610036.671119601</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8962,11 +8816,17 @@
         <v>-1610036.671119601</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8995,11 +8855,17 @@
         <v>-1489806.376819602</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9031,8 +8897,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9064,8 +8936,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9097,8 +8975,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9130,8 +9014,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9160,11 +9050,17 @@
         <v>-1335776.196652077</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9196,8 +9092,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9226,11 +9128,17 @@
         <v>-1333146.228752077</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9259,11 +9167,17 @@
         <v>-1333176.228752077</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9292,11 +9206,17 @@
         <v>-1333176.228752077</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9325,11 +9245,17 @@
         <v>-1339431.933852077</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9361,8 +9287,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9391,11 +9323,17 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9424,11 +9362,17 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9457,11 +9401,17 @@
         <v>-1339523.514452077</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9490,11 +9440,17 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9523,11 +9479,17 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9556,11 +9518,17 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9592,8 +9560,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9625,8 +9599,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9658,8 +9638,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9691,8 +9677,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9724,8 +9716,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9757,8 +9755,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9790,8 +9794,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9820,13 +9830,19 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L259" t="n">
-        <v>1</v>
+        <v>1.038771043771044</v>
       </c>
       <c r="M259" t="inlineStr"/>
     </row>
@@ -9853,7 +9869,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9886,7 +9902,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9919,7 +9935,7 @@
         <v>-1388697.908252077</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9930,6 +9946,6 @@
       <c r="M262" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-318280.0812</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-351738.8304</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-351638.8304</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-351628.8304</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-419218.9802</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-518703.0171000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-516703.0171000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-517725.1311000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-517725.1311000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-517704.1836</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-517694.1836</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-517694.1836</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-526238.4617000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-539099.3109000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-536667.6123000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-555378.6325000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-555378.6325000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-555368.6325000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-555368.6325000002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-550076.4320000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-549621.7632000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-549621.7632000002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-549419.2500000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-549443.2500000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-545569.9278000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-553358.4783000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-589233.4615000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-589233.4615000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-619607.4595000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-619607.4595000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-619607.4595000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-625709.8750000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-625709.8750000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-647309.7734000001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-647298.7734000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-691382.1933</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-691382.1933</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1079643.205319602</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -4840,14 +4840,10 @@
         <v>-1528066.163697716</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J135" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -4880,2499 +4876,2033 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>39907.0232</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1568090.602697716</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>30</v>
+      </c>
+      <c r="C138" t="n">
+        <v>30</v>
+      </c>
+      <c r="D138" t="n">
+        <v>30</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1568079.602697716</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4991.786321885522</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1573071.389019601</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F140" t="n">
+        <v>17247.0945</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1590318.483519601</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>238.7779</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1590557.261419601</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>43393.9783</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1590557.261419601</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1590547.261419601</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>792.2053</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1591339.466719601</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5664.59</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1597004.056719601</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1003</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1597004.056719601</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>140.4335</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1596863.623219601</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>84.4295</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1596779.193719601</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>30</v>
+      </c>
+      <c r="D149" t="n">
+        <v>30</v>
+      </c>
+      <c r="E149" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>59858.4505</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1536920.743219601</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>20</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1536900.743219601</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>30</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8966.5502</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1527934.193019601</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4779.2079</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1527934.193019601</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>13752.34</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1541686.533019601</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>48</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1541638.533019601</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3317.0091</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1541638.533019601</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10239.5981</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1541638.533019601</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>30</v>
+      </c>
+      <c r="C157" t="n">
+        <v>30</v>
+      </c>
+      <c r="D157" t="n">
+        <v>30</v>
+      </c>
+      <c r="E157" t="n">
+        <v>30</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1541649.533019601</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5394.7831</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1547044.316119601</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>10</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1547034.316119601</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>237.5868</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1546796.729319601</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8.8256</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1546805.554919601</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>30</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18586.1299</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1528219.425019601</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1528237.606819601</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>30</v>
+      </c>
+      <c r="C164" t="n">
+        <v>30</v>
+      </c>
+      <c r="D164" t="n">
+        <v>30</v>
+      </c>
+      <c r="E164" t="n">
+        <v>30</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1541.7141</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1529779.320919601</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>7107.7173</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1536887.038219601</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>30</v>
+      </c>
+      <c r="C166" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D166" t="n">
+        <v>30</v>
+      </c>
+      <c r="E166" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F166" t="n">
+        <v>7356.69</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1529530.348219601</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>30</v>
+      </c>
+      <c r="C167" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>30</v>
+      </c>
+      <c r="E167" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1529530.348219601</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C168" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3439.12</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1529530.348219601</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>30</v>
+      </c>
+      <c r="C169" t="n">
+        <v>30</v>
+      </c>
+      <c r="D169" t="n">
+        <v>30</v>
+      </c>
+      <c r="E169" t="n">
+        <v>30</v>
+      </c>
+      <c r="F169" t="n">
+        <v>23374.778</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1506155.570219601</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>30</v>
+      </c>
+      <c r="C170" t="n">
+        <v>30</v>
+      </c>
+      <c r="D170" t="n">
+        <v>30</v>
+      </c>
+      <c r="E170" t="n">
+        <v>30</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8323.822</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1506155.570219601</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>30</v>
+      </c>
+      <c r="D171" t="n">
+        <v>30</v>
+      </c>
+      <c r="E171" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>69603.92630000001</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1506155.570219601</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>30</v>
+      </c>
+      <c r="C172" t="n">
+        <v>30</v>
+      </c>
+      <c r="D172" t="n">
+        <v>30</v>
+      </c>
+      <c r="E172" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10509.8305</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1506155.570219601</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>30</v>
+      </c>
+      <c r="C173" t="n">
+        <v>30</v>
+      </c>
+      <c r="D173" t="n">
+        <v>30</v>
+      </c>
+      <c r="E173" t="n">
+        <v>30</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20170.6666</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1506155.570219601</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C174" t="n">
+        <v>30</v>
+      </c>
+      <c r="D174" t="n">
+        <v>30</v>
+      </c>
+      <c r="E174" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>51397.4899</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1506155.570219601</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>30357.1905</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1536512.760719601</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>30</v>
+      </c>
+      <c r="D176" t="n">
+        <v>30</v>
+      </c>
+      <c r="E176" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>10118.9333</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1526393.827419601</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C177" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10590.11</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1536983.937419601</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>30</v>
+      </c>
+      <c r="C178" t="n">
+        <v>30</v>
+      </c>
+      <c r="D178" t="n">
+        <v>30</v>
+      </c>
+      <c r="E178" t="n">
+        <v>30</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3680.9</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1533303.037419602</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F179" t="n">
+        <v>19425.65</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1552728.687419601</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>32182.1724</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1584910.859819602</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>11</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1584899.859819602</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C182" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3778.8172</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1588678.677019601</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C183" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>42496.5979</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1631175.274919601</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F184" t="n">
+        <v>12260.753</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1618914.521919601</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C185" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3778.8171</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1618914.521919601</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>50.6734</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1618863.848519601</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>15885.6712</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1634749.519719601</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1634749.519719601</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>965.8533</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1634749.519719601</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>80792.51210000001</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1715542.031819601</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>248.8746</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1715293.157219601</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E192" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F192" t="n">
+        <v>19922.3617</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1735215.518919601</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6090.8239</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1741306.342819601</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>40.2243</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1741266.118519601</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>334.051</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1741600.169519601</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C196" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1741590.169519601</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J196" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E197" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1741579.169519601</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J197" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>39907.0232</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-1568090.602697716</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>30</v>
-      </c>
-      <c r="C138" t="n">
-        <v>30</v>
-      </c>
-      <c r="D138" t="n">
-        <v>30</v>
-      </c>
-      <c r="E138" t="n">
-        <v>30</v>
-      </c>
-      <c r="F138" t="n">
-        <v>11</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1568079.602697716</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>4991.786321885522</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1573071.389019601</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C140" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D140" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E140" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>17247.0945</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1590318.483519601</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J140" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C141" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D141" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E141" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F141" t="n">
-        <v>238.7779</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1590557.261419601</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J141" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>43393.9783</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1590557.261419601</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J142" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>10</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1590547.261419601</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J143" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C144" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F144" t="n">
-        <v>792.2053</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1591339.466719601</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J144" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C145" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>5664.59</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1597004.056719601</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J145" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1003</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1597004.056719601</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J146" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E147" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>140.4335</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1596863.623219601</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J147" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F148" t="n">
-        <v>84.4295</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1596779.193719601</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J148" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>30</v>
-      </c>
-      <c r="D149" t="n">
-        <v>30</v>
-      </c>
-      <c r="E149" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>59858.4505</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1536920.743219601</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J149" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E150" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>20</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1536900.743219601</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>30</v>
-      </c>
-      <c r="J150" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C151" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D151" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E151" t="n">
-        <v>30</v>
-      </c>
-      <c r="F151" t="n">
-        <v>8966.5502</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1527934.193019601</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J151" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C152" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D152" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E152" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>4779.2079</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1527934.193019601</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J152" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E153" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F153" t="n">
-        <v>13752.34</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1541686.533019601</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J153" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C154" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E154" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F154" t="n">
-        <v>48</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1541638.533019601</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J154" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E155" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3317.0091</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-1541638.533019601</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F156" t="n">
-        <v>10239.5981</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-1541638.533019601</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>30</v>
-      </c>
-      <c r="C157" t="n">
-        <v>30</v>
-      </c>
-      <c r="D157" t="n">
-        <v>30</v>
-      </c>
-      <c r="E157" t="n">
-        <v>30</v>
-      </c>
-      <c r="F157" t="n">
-        <v>11</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1541649.533019601</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C158" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E158" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F158" t="n">
-        <v>5394.7831</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1547044.316119601</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>30</v>
-      </c>
-      <c r="J158" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C159" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>10</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1547034.316119601</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J159" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D160" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E160" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F160" t="n">
-        <v>237.5868</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1546796.729319601</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C161" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D161" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E161" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F161" t="n">
-        <v>8.8256</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-1546805.554919601</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D162" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E162" t="n">
-        <v>30</v>
-      </c>
-      <c r="F162" t="n">
-        <v>18586.1299</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1528219.425019601</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F163" t="n">
-        <v>18.1818</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-1528237.606819601</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>30</v>
-      </c>
-      <c r="C164" t="n">
-        <v>30</v>
-      </c>
-      <c r="D164" t="n">
-        <v>30</v>
-      </c>
-      <c r="E164" t="n">
-        <v>30</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1541.7141</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-1529779.320919601</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D165" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>7107.7173</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1536887.038219601</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>30</v>
-      </c>
-      <c r="J165" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>30</v>
-      </c>
-      <c r="C166" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D166" t="n">
-        <v>30</v>
-      </c>
-      <c r="E166" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F166" t="n">
-        <v>7356.69</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1529530.348219601</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J166" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>30</v>
-      </c>
-      <c r="C167" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>30</v>
-      </c>
-      <c r="E167" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F167" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-1529530.348219601</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J167" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C168" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D168" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E168" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3439.12</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-1529530.348219601</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J168" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>30</v>
-      </c>
-      <c r="C169" t="n">
-        <v>30</v>
-      </c>
-      <c r="D169" t="n">
-        <v>30</v>
-      </c>
-      <c r="E169" t="n">
-        <v>30</v>
-      </c>
-      <c r="F169" t="n">
-        <v>23374.778</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J169" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>30</v>
-      </c>
-      <c r="C170" t="n">
-        <v>30</v>
-      </c>
-      <c r="D170" t="n">
-        <v>30</v>
-      </c>
-      <c r="E170" t="n">
-        <v>30</v>
-      </c>
-      <c r="F170" t="n">
-        <v>8323.822</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>30</v>
-      </c>
-      <c r="J170" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C171" t="n">
-        <v>30</v>
-      </c>
-      <c r="D171" t="n">
-        <v>30</v>
-      </c>
-      <c r="E171" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F171" t="n">
-        <v>69603.92630000001</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>30</v>
-      </c>
-      <c r="J171" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>30</v>
-      </c>
-      <c r="C172" t="n">
-        <v>30</v>
-      </c>
-      <c r="D172" t="n">
-        <v>30</v>
-      </c>
-      <c r="E172" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F172" t="n">
-        <v>10509.8305</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>30</v>
-      </c>
-      <c r="J172" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>30</v>
-      </c>
-      <c r="C173" t="n">
-        <v>30</v>
-      </c>
-      <c r="D173" t="n">
-        <v>30</v>
-      </c>
-      <c r="E173" t="n">
-        <v>30</v>
-      </c>
-      <c r="F173" t="n">
-        <v>20170.6666</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>30</v>
-      </c>
-      <c r="J173" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C174" t="n">
-        <v>30</v>
-      </c>
-      <c r="D174" t="n">
-        <v>30</v>
-      </c>
-      <c r="E174" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F174" t="n">
-        <v>51397.4899</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>30</v>
-      </c>
-      <c r="J174" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D175" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E175" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F175" t="n">
-        <v>30357.1905</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1536512.760719601</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>30</v>
-      </c>
-      <c r="J175" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C176" t="n">
-        <v>30</v>
-      </c>
-      <c r="D176" t="n">
-        <v>30</v>
-      </c>
-      <c r="E176" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F176" t="n">
-        <v>10118.9333</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1526393.827419601</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J176" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C177" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E177" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F177" t="n">
-        <v>10590.11</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1536983.937419601</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>30</v>
-      </c>
-      <c r="J177" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>30</v>
-      </c>
-      <c r="C178" t="n">
-        <v>30</v>
-      </c>
-      <c r="D178" t="n">
-        <v>30</v>
-      </c>
-      <c r="E178" t="n">
-        <v>30</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3680.9</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1533303.037419602</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J178" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C179" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D179" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E179" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F179" t="n">
-        <v>19425.65</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1552728.687419601</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C180" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D180" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F180" t="n">
-        <v>32182.1724</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1584910.859819602</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J180" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C181" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E181" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F181" t="n">
-        <v>11</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1584899.859819602</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J181" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C182" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D182" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E182" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3778.8172</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1588678.677019601</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J182" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C183" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D183" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E183" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F183" t="n">
-        <v>42496.5979</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1631175.274919601</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J183" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C184" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D184" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E184" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F184" t="n">
-        <v>12260.753</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1618914.521919601</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J184" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C185" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D185" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E185" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3778.8171</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1618914.521919601</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J185" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="C186" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D186" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E186" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F186" t="n">
-        <v>50.6734</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1618863.848519601</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J186" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C187" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D187" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E187" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F187" t="n">
-        <v>15885.6712</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1634749.519719601</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J187" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C188" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D188" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E188" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F188" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1634749.519719601</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J188" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C189" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D189" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E189" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F189" t="n">
-        <v>965.8533</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-1634749.519719601</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J189" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C190" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D190" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E190" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F190" t="n">
-        <v>80792.51210000001</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1715542.031819601</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J190" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D191" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>248.8746</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1715293.157219601</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J191" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C192" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D192" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E192" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F192" t="n">
-        <v>19922.3617</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1735215.518919601</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J192" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C193" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D193" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E193" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F193" t="n">
-        <v>6090.8239</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1741306.342819601</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J193" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C194" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D194" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E194" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F194" t="n">
-        <v>40.2243</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1741266.118519601</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J194" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C195" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D195" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E195" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F195" t="n">
-        <v>334.051</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-1741600.169519601</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J195" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C196" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D196" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E196" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F196" t="n">
-        <v>10</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-1741590.169519601</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J196" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C197" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D197" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E197" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F197" t="n">
-        <v>11</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-1741579.169519601</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J197" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7401,17 +6931,15 @@
         <v>-1741579.169519601</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7442,19 +6970,11 @@
         <v>-1741579.169519601</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J199" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7483,19 +7003,11 @@
         <v>-1741556.895319601</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J200" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7524,19 +7036,11 @@
         <v>-1742347.120119601</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J201" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7571,13 +7075,9 @@
         <v>29.8</v>
       </c>
       <c r="J202" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.8</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7112,11 @@
         <v>29.9</v>
       </c>
       <c r="J203" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7647,15 +7147,17 @@
         <v>-1711350.323919601</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>30</v>
+      </c>
       <c r="J204" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7689,14 +7191,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7728,14 +7224,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7767,14 +7257,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7806,14 +7290,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7842,19 +7320,11 @@
         <v>-1711430.369119601</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J209" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7883,19 +7353,11 @@
         <v>-1716626.037819601</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J210" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7924,19 +7386,11 @@
         <v>-1716626.037819601</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>30</v>
-      </c>
-      <c r="J211" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7965,19 +7419,11 @@
         <v>-1729029.037819601</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>30</v>
-      </c>
-      <c r="J212" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8006,19 +7452,11 @@
         <v>-1728685.037819601</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J213" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8047,19 +7485,11 @@
         <v>-1756859.024519601</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J214" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8088,19 +7518,11 @@
         <v>-1756859.024519601</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J215" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8129,19 +7551,11 @@
         <v>-1756859.024519601</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J216" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8170,19 +7584,11 @@
         <v>-1782694.730619601</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J217" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8211,19 +7617,11 @@
         <v>-1782622.730619601</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>30</v>
-      </c>
-      <c r="J218" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8252,19 +7650,11 @@
         <v>-1782622.730619601</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J219" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8293,19 +7683,11 @@
         <v>-1782603.889619601</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J220" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8334,19 +7716,11 @@
         <v>-1782603.889619601</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J221" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8375,19 +7749,11 @@
         <v>-1802563.409619601</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J222" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8416,19 +7782,11 @@
         <v>-1986894.985219602</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J223" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8457,19 +7815,11 @@
         <v>-1986884.985219602</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>30</v>
-      </c>
-      <c r="J224" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8498,19 +7848,11 @@
         <v>-1970219.985219602</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J225" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8539,19 +7881,11 @@
         <v>-1880202.209219601</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J226" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8580,19 +7914,11 @@
         <v>-1880192.209219601</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J227" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8624,14 +7950,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8663,14 +7983,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8702,14 +8016,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8741,14 +8049,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8780,14 +8082,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8819,14 +8115,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8858,14 +8148,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8897,14 +8181,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8936,14 +8214,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8975,14 +8247,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9014,14 +8280,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9053,14 +8313,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9092,14 +8346,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9131,14 +8379,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9170,14 +8412,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9209,14 +8445,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9248,14 +8478,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9287,14 +8511,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9326,14 +8544,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9365,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9404,14 +8610,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9443,14 +8643,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9482,14 +8676,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9521,14 +8709,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9560,14 +8742,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9599,14 +8775,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9638,14 +8808,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9677,14 +8841,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9716,14 +8874,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9755,14 +8907,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9794,14 +8940,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9830,19 +8970,13 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
-        <v>1.038771043771044</v>
+        <v>1</v>
       </c>
       <c r="M259" t="inlineStr"/>
     </row>
@@ -9869,7 +9003,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9902,7 +9036,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9935,7 +9069,7 @@
         <v>-1388697.908252077</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9946,6 +9080,6 @@
       <c r="M262" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -3058,7 +3058,7 @@
         <v>-1079643.205319602</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -5005,10 +5005,14 @@
         <v>-1590318.483519601</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J140" t="n">
+        <v>29.7</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5038,11 +5042,19 @@
         <v>-1590557.261419601</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J141" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5083,19 @@
         <v>-1590557.261419601</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5124,19 @@
         <v>-1590547.261419601</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5165,19 @@
         <v>-1591339.466719601</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5206,19 @@
         <v>-1597004.056719601</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J145" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5247,19 @@
         <v>-1597004.056719601</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J146" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5288,19 @@
         <v>-1596863.623219601</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J147" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5329,19 @@
         <v>-1596779.193719601</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J148" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5370,19 @@
         <v>-1536920.743219601</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J149" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5411,19 @@
         <v>-1536900.743219601</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>30</v>
+      </c>
+      <c r="J150" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5452,19 @@
         <v>-1527934.193019601</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5493,17 @@
         <v>-1527934.193019601</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5532,17 @@
         <v>-1541686.533019601</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5571,17 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5610,17 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5649,17 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5688,17 @@
         <v>-1541649.533019601</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5730,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5769,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5808,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5844,17 @@
         <v>-1546805.554919601</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5886,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +5925,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +5964,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6000,17 @@
         <v>-1536887.038219601</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6042,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6081,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6117,17 @@
         <v>-1529530.348219601</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6159,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6198,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6237,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6276,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6315,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6354,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6393,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6432,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6471,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6510,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6549,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6588,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6627,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6666,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6705,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6744,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6783,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6822,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +6861,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6900,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +6939,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6975,19 @@
         <v>-1715542.031819601</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J190" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7016,19 @@
         <v>-1715293.157219601</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J191" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7060,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7096,19 @@
         <v>-1741306.342819601</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J193" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7137,19 @@
         <v>-1741266.118519601</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J194" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7181,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6859,9 +7223,13 @@
         <v>29.5</v>
       </c>
       <c r="J196" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+        <v>29.7</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6896,11 +7264,11 @@
         <v>29.6</v>
       </c>
       <c r="J197" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -6931,15 +7299,17 @@
         <v>-1741579.169519601</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J198" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -6970,11 +7340,19 @@
         <v>-1741579.169519601</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J199" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7003,11 +7381,19 @@
         <v>-1741556.895319601</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J200" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7036,11 +7422,19 @@
         <v>-1742347.120119601</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J201" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7075,9 +7469,13 @@
         <v>29.8</v>
       </c>
       <c r="J202" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+        <v>29.7</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7106,17 +7504,15 @@
         <v>-1711449.323919601</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>29.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7147,17 +7543,15 @@
         <v>-1711350.323919601</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7191,8 +7585,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7224,8 +7624,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7257,8 +7663,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7290,8 +7702,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7323,8 +7741,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7356,8 +7780,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7386,11 +7816,19 @@
         <v>-1716626.037819601</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>30</v>
+      </c>
+      <c r="J211" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7419,11 +7857,19 @@
         <v>-1729029.037819601</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>30</v>
+      </c>
+      <c r="J212" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7452,11 +7898,19 @@
         <v>-1728685.037819601</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J213" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7488,8 +7942,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7521,8 +7981,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7551,11 +8017,19 @@
         <v>-1756859.024519601</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7584,11 +8058,19 @@
         <v>-1782694.730619601</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7617,11 +8099,19 @@
         <v>-1782622.730619601</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>30</v>
+      </c>
+      <c r="J218" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +8140,19 @@
         <v>-1782622.730619601</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7683,11 +8181,19 @@
         <v>-1782603.889619601</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +8222,19 @@
         <v>-1782603.889619601</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7749,11 +8263,19 @@
         <v>-1802563.409619601</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J222" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7782,11 +8304,19 @@
         <v>-1986894.985219602</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7815,11 +8345,19 @@
         <v>-1986884.985219602</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>30</v>
+      </c>
+      <c r="J224" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7851,8 +8389,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7884,8 +8428,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7917,8 +8467,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7950,8 +8506,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7980,13 +8542,19 @@
         <v>-1721762.289919602</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L229" t="n">
-        <v>1</v>
+        <v>1.032037037037037</v>
       </c>
       <c r="M229" t="inlineStr"/>
     </row>
@@ -8277,7 +8845,7 @@
         <v>-1335776.196652077</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8310,7 +8878,7 @@
         <v>-1335776.196652077</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8343,7 +8911,7 @@
         <v>-1333146.228752077</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8376,7 +8944,7 @@
         <v>-1333146.228752077</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8409,7 +8977,7 @@
         <v>-1333176.228752077</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8442,7 +9010,7 @@
         <v>-1333176.228752077</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8475,7 +9043,7 @@
         <v>-1339431.933852077</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8508,7 +9076,7 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8541,7 +9109,7 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8574,7 +9142,7 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8607,7 +9175,7 @@
         <v>-1339523.514452077</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8640,7 +9208,7 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8673,7 +9241,7 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8706,7 +9274,7 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8739,7 +9307,7 @@
         <v>-1387232.348952077</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8772,7 +9340,7 @@
         <v>-1382236.751252077</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8838,7 +9406,7 @@
         <v>-1382225.751252077</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8871,7 +9439,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8904,7 +9472,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8937,7 +9505,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8970,7 +9538,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9003,7 +9571,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9036,7 +9604,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9069,7 +9637,7 @@
         <v>-1388697.908252077</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-27 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M262"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>51793.2692</v>
       </c>
       <c r="G2" t="n">
-        <v>-318280.0812</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>33458.7492</v>
       </c>
       <c r="G3" t="n">
-        <v>-351738.8304</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>-351638.8304</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-351628.8304</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>67590.1498</v>
       </c>
       <c r="G6" t="n">
-        <v>-419218.9802</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>99484.03690000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-518703.0171000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2000</v>
       </c>
       <c r="G8" t="n">
-        <v>-516703.0171000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1022.114</v>
       </c>
       <c r="G9" t="n">
-        <v>-517725.1311000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>-517725.1311000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>20.9475</v>
       </c>
       <c r="G11" t="n">
-        <v>-517704.1836</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-517694.1836</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>19391.6188</v>
       </c>
       <c r="G13" t="n">
-        <v>-517694.1836</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>8544.2781</v>
       </c>
       <c r="G14" t="n">
-        <v>-526238.4617000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>12860.8492</v>
       </c>
       <c r="G15" t="n">
-        <v>-539099.3109000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2431.6986</v>
       </c>
       <c r="G16" t="n">
-        <v>-536667.6123000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>18711.0202</v>
       </c>
       <c r="G17" t="n">
-        <v>-555378.6325000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>632.1195</v>
       </c>
       <c r="G18" t="n">
-        <v>-555378.6325000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-555368.6325000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2423.1654</v>
       </c>
       <c r="G20" t="n">
-        <v>-555368.6325000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>5292.2005</v>
       </c>
       <c r="G21" t="n">
-        <v>-550076.4320000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>454.6688</v>
       </c>
       <c r="G22" t="n">
-        <v>-549621.7632000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>28.3496</v>
       </c>
       <c r="G23" t="n">
-        <v>-549621.7632000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>202.5132</v>
       </c>
       <c r="G24" t="n">
-        <v>-549419.2500000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>-549443.2500000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>3873.3222</v>
       </c>
       <c r="G26" t="n">
-        <v>-545569.9278000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>7788.5505</v>
       </c>
       <c r="G27" t="n">
-        <v>-553358.4783000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>35874.9832</v>
       </c>
       <c r="G28" t="n">
-        <v>-589233.4615000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>13568.1301</v>
       </c>
       <c r="G29" t="n">
-        <v>-589233.4615000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>30373.998</v>
       </c>
       <c r="G30" t="n">
-        <v>-619607.4595000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>212.0756</v>
       </c>
       <c r="G31" t="n">
-        <v>-619607.4595000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1797.5845</v>
       </c>
       <c r="G32" t="n">
-        <v>-619607.4595000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>6102.4155</v>
       </c>
       <c r="G33" t="n">
-        <v>-625709.8750000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>23146.64</v>
       </c>
       <c r="G34" t="n">
-        <v>-625709.8750000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>21599.8984</v>
       </c>
       <c r="G35" t="n">
-        <v>-647309.7734000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>-647298.7734000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>44083.4199</v>
       </c>
       <c r="G37" t="n">
-        <v>-691382.1933</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>16348.1312</v>
       </c>
       <c r="G38" t="n">
-        <v>-691382.1933</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>-691371.1933</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2723.1078</v>
       </c>
       <c r="G40" t="n">
-        <v>-694094.3011</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>5000</v>
       </c>
       <c r="G41" t="n">
-        <v>-689094.3011</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>7286.4429</v>
       </c>
       <c r="G42" t="n">
-        <v>-681807.8582</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>3226.39</v>
       </c>
       <c r="G43" t="n">
-        <v>-685034.2482</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1050.46</v>
       </c>
       <c r="G44" t="n">
-        <v>-685034.2482</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>462.7916</v>
       </c>
       <c r="G45" t="n">
-        <v>-684571.4566</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>5277.9142</v>
       </c>
       <c r="G46" t="n">
-        <v>-684571.4566</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>15925.4849</v>
       </c>
       <c r="G47" t="n">
-        <v>-668645.9717</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>34722.0858</v>
       </c>
       <c r="G48" t="n">
-        <v>-703368.0575</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>13856.3175</v>
       </c>
       <c r="G49" t="n">
-        <v>-717224.375</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>5718.936</v>
       </c>
       <c r="G50" t="n">
-        <v>-722943.311</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>-722932.311</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>27710.7004</v>
       </c>
       <c r="G52" t="n">
-        <v>-722932.311</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>8448.795099999999</v>
       </c>
       <c r="G53" t="n">
-        <v>-722932.311</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>-722922.311</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>30000</v>
       </c>
       <c r="G55" t="n">
-        <v>-752922.311</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>229372.7055</v>
       </c>
       <c r="G56" t="n">
-        <v>-982295.0165</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>91</v>
       </c>
       <c r="G57" t="n">
-        <v>-982204.0165</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>552.7667</v>
       </c>
       <c r="G58" t="n">
-        <v>-982204.0165</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>268.7013</v>
       </c>
       <c r="G59" t="n">
-        <v>-982204.0165</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>47866.9624</v>
       </c>
       <c r="G60" t="n">
-        <v>-1030070.9789</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>-1030059.9789</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>31880.5747</v>
       </c>
       <c r="G62" t="n">
-        <v>-1030059.9789</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>15968.3056</v>
       </c>
       <c r="G63" t="n">
-        <v>-1014091.6733</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>10440.3289</v>
       </c>
       <c r="G64" t="n">
-        <v>-1014091.6733</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>11000</v>
       </c>
       <c r="G65" t="n">
-        <v>-1003091.6733</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>12255.7268</v>
       </c>
       <c r="G66" t="n">
-        <v>-1003091.6733</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>48781.0612</v>
       </c>
       <c r="G67" t="n">
-        <v>-954310.6121</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>24882.1203</v>
       </c>
       <c r="G68" t="n">
-        <v>-954310.6121</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>13970.3959</v>
       </c>
       <c r="G69" t="n">
-        <v>-954310.6121</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>32.8947</v>
       </c>
       <c r="G70" t="n">
-        <v>-954277.7174000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>997.5</v>
       </c>
       <c r="G71" t="n">
-        <v>-955275.2174000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>-955264.2174000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>130.5181</v>
       </c>
       <c r="G73" t="n">
-        <v>-955394.7355000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>23024.187</v>
       </c>
       <c r="G74" t="n">
-        <v>-978418.9225000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>56333.8294</v>
       </c>
       <c r="G75" t="n">
-        <v>-1034752.7519</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>47762.0705</v>
       </c>
       <c r="G76" t="n">
-        <v>-1082514.8224</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>-1082504.8224</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>3072.3905</v>
       </c>
       <c r="G78" t="n">
-        <v>-1082504.8224</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>-1082494.8224</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>2861.617080398671</v>
       </c>
       <c r="G80" t="n">
-        <v>-1079633.205319602</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-1079643.205319602</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>28179.956</v>
       </c>
       <c r="G82" t="n">
-        <v>-1107823.161319602</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>115637.3973</v>
       </c>
       <c r="G83" t="n">
-        <v>-1223460.558619602</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>-1223450.558619602</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>-1223450.558619602</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>96554.6507</v>
       </c>
       <c r="G86" t="n">
-        <v>-1320005.209319602</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>11.0318</v>
       </c>
       <c r="G87" t="n">
-        <v>-1319994.177519602</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>2345.8597</v>
       </c>
       <c r="G88" t="n">
-        <v>-1322340.037219602</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1762.3675</v>
       </c>
       <c r="G89" t="n">
-        <v>-1322340.037219602</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>33970.9224</v>
       </c>
       <c r="G90" t="n">
-        <v>-1322340.037219602</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>6782.0915</v>
       </c>
       <c r="G91" t="n">
-        <v>-1322340.037219602</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>4253.0403</v>
       </c>
       <c r="G92" t="n">
-        <v>-1322340.037219602</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1850.8444</v>
       </c>
       <c r="G93" t="n">
-        <v>-1322340.037219602</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>-1322329.037219602</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>49942.919</v>
       </c>
       <c r="G95" t="n">
-        <v>-1372271.956219602</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>16243.1004</v>
       </c>
       <c r="G96" t="n">
-        <v>-1372271.956219602</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>32736.9852</v>
       </c>
       <c r="G97" t="n">
-        <v>-1372271.956219602</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>38137.346</v>
       </c>
       <c r="G98" t="n">
-        <v>-1410409.302219602</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>19996.1101</v>
       </c>
       <c r="G99" t="n">
-        <v>-1430405.412319602</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>-1430394.412319602</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>3479.3012</v>
       </c>
       <c r="G101" t="n">
-        <v>-1430394.412319602</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>3136.2397</v>
       </c>
       <c r="G102" t="n">
-        <v>-1430394.412319602</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>10000</v>
       </c>
       <c r="G103" t="n">
-        <v>-1430394.412319602</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>323.4263</v>
       </c>
       <c r="G104" t="n">
-        <v>-1430394.412319602</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-1430384.412319602</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,19 @@
         <v>33549.1591</v>
       </c>
       <c r="G106" t="n">
-        <v>-1430384.412319602</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>29.3</v>
+      </c>
+      <c r="I106" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3597,23 @@
         <v>1985.2861</v>
       </c>
       <c r="G107" t="n">
-        <v>-1428399.126219602</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>29.3</v>
+      </c>
+      <c r="I107" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3635,23 @@
         <v>22857.9827</v>
       </c>
       <c r="G108" t="n">
-        <v>-1451257.108919602</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>29.7</v>
+      </c>
+      <c r="I108" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3673,15 @@
         <v>76261.20209999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-1451257.108919602</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3703,15 @@
         <v>671.9969</v>
       </c>
       <c r="G110" t="n">
-        <v>-1451257.108919602</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3733,15 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-1451247.108919602</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3763,15 @@
         <v>8496.7392</v>
       </c>
       <c r="G112" t="n">
-        <v>-1451247.108919602</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3793,15 @@
         <v>4997.0318</v>
       </c>
       <c r="G113" t="n">
-        <v>-1451247.108919602</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3823,15 @@
         <v>68573.94809999999</v>
       </c>
       <c r="G114" t="n">
-        <v>-1519821.057019602</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3853,15 @@
         <v>146.8478</v>
       </c>
       <c r="G115" t="n">
-        <v>-1519821.057019602</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3883,15 @@
         <v>868.3292</v>
       </c>
       <c r="G116" t="n">
-        <v>-1519821.057019602</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3913,15 @@
         <v>17000</v>
       </c>
       <c r="G117" t="n">
-        <v>-1519821.057019602</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3943,15 @@
         <v>19361.88552188552</v>
       </c>
       <c r="G118" t="n">
-        <v>-1500459.171497716</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3973,15 @@
         <v>62579.4629</v>
       </c>
       <c r="G119" t="n">
-        <v>-1500459.171497716</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4003,15 @@
         <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>-1500259.171497716</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4033,15 @@
         <v>15921.1073</v>
       </c>
       <c r="G121" t="n">
-        <v>-1500259.171497716</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4063,15 @@
         <v>35129.60287811448</v>
       </c>
       <c r="G122" t="n">
-        <v>-1500259.171497716</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4093,15 @@
         <v>16000.0167</v>
       </c>
       <c r="G123" t="n">
-        <v>-1500259.171497716</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4123,15 @@
         <v>1600.0016</v>
       </c>
       <c r="G124" t="n">
-        <v>-1500259.171497716</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4153,15 @@
         <v>33022.7509</v>
       </c>
       <c r="G125" t="n">
-        <v>-1467236.420597716</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4183,15 @@
         <v>43306.3576</v>
       </c>
       <c r="G126" t="n">
-        <v>-1467236.420597716</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4213,15 @@
         <v>46326.8538</v>
       </c>
       <c r="G127" t="n">
-        <v>-1467236.420597716</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4243,15 @@
         <v>46326.8538</v>
       </c>
       <c r="G128" t="n">
-        <v>-1513563.274397716</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4273,15 @@
         <v>75070.924</v>
       </c>
       <c r="G129" t="n">
-        <v>-1438492.350397716</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4303,15 @@
         <v>14400.0152</v>
       </c>
       <c r="G130" t="n">
-        <v>-1452892.365597716</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4333,15 @@
         <v>30593</v>
       </c>
       <c r="G131" t="n">
-        <v>-1452892.365597716</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4363,15 @@
         <v>52874.8934</v>
       </c>
       <c r="G132" t="n">
-        <v>-1505767.258997716</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4393,15 @@
         <v>132.023</v>
       </c>
       <c r="G133" t="n">
-        <v>-1505767.258997716</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4423,15 @@
         <v>22308.9047</v>
       </c>
       <c r="G134" t="n">
-        <v>-1528076.163697716</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4453,15 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>-1528066.163697716</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4483,15 @@
         <v>117.4158</v>
       </c>
       <c r="G136" t="n">
-        <v>-1528183.579497716</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4513,15 @@
         <v>39907.0232</v>
       </c>
       <c r="G137" t="n">
-        <v>-1568090.602697716</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4543,15 @@
         <v>11</v>
       </c>
       <c r="G138" t="n">
-        <v>-1568079.602697716</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4573,15 @@
         <v>4991.786321885522</v>
       </c>
       <c r="G139" t="n">
-        <v>-1573071.389019601</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,22 +4603,15 @@
         <v>17247.0945</v>
       </c>
       <c r="G140" t="n">
-        <v>-1590318.483519601</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J140" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5039,26 +4633,15 @@
         <v>238.7779</v>
       </c>
       <c r="G141" t="n">
-        <v>-1590557.261419601</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J141" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5080,26 +4663,15 @@
         <v>43393.9783</v>
       </c>
       <c r="G142" t="n">
-        <v>-1590557.261419601</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J142" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5121,26 +4693,15 @@
         <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>-1590547.261419601</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J143" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5162,26 +4723,15 @@
         <v>792.2053</v>
       </c>
       <c r="G144" t="n">
-        <v>-1591339.466719601</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J144" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5203,26 +4753,15 @@
         <v>5664.59</v>
       </c>
       <c r="G145" t="n">
-        <v>-1597004.056719601</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J145" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5244,26 +4783,15 @@
         <v>1003</v>
       </c>
       <c r="G146" t="n">
-        <v>-1597004.056719601</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J146" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5285,26 +4813,15 @@
         <v>140.4335</v>
       </c>
       <c r="G147" t="n">
-        <v>-1596863.623219601</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J147" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5326,26 +4843,15 @@
         <v>84.4295</v>
       </c>
       <c r="G148" t="n">
-        <v>-1596779.193719601</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J148" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5367,26 +4873,15 @@
         <v>59858.4505</v>
       </c>
       <c r="G149" t="n">
-        <v>-1536920.743219601</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J149" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5408,26 +4903,15 @@
         <v>20</v>
       </c>
       <c r="G150" t="n">
-        <v>-1536900.743219601</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>30</v>
-      </c>
-      <c r="J150" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5449,26 +4933,15 @@
         <v>8966.5502</v>
       </c>
       <c r="G151" t="n">
-        <v>-1527934.193019601</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J151" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5490,24 +4963,15 @@
         <v>4779.2079</v>
       </c>
       <c r="G152" t="n">
-        <v>-1527934.193019601</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5529,24 +4993,15 @@
         <v>13752.34</v>
       </c>
       <c r="G153" t="n">
-        <v>-1541686.533019601</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5568,24 +5023,15 @@
         <v>48</v>
       </c>
       <c r="G154" t="n">
-        <v>-1541638.533019601</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5607,24 +5053,15 @@
         <v>3317.0091</v>
       </c>
       <c r="G155" t="n">
-        <v>-1541638.533019601</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5646,24 +5083,15 @@
         <v>10239.5981</v>
       </c>
       <c r="G156" t="n">
-        <v>-1541638.533019601</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5685,24 +5113,15 @@
         <v>11</v>
       </c>
       <c r="G157" t="n">
-        <v>-1541649.533019601</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5724,24 +5143,15 @@
         <v>5394.7831</v>
       </c>
       <c r="G158" t="n">
-        <v>-1547044.316119601</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5763,24 +5173,15 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>-1547034.316119601</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5802,24 +5203,15 @@
         <v>237.5868</v>
       </c>
       <c r="G160" t="n">
-        <v>-1546796.729319601</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5841,24 +5233,15 @@
         <v>8.8256</v>
       </c>
       <c r="G161" t="n">
-        <v>-1546805.554919601</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5880,24 +5263,15 @@
         <v>18586.1299</v>
       </c>
       <c r="G162" t="n">
-        <v>-1528219.425019601</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5919,24 +5293,15 @@
         <v>18.1818</v>
       </c>
       <c r="G163" t="n">
-        <v>-1528237.606819601</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5958,24 +5323,15 @@
         <v>1541.7141</v>
       </c>
       <c r="G164" t="n">
-        <v>-1529779.320919601</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5997,24 +5353,15 @@
         <v>7107.7173</v>
       </c>
       <c r="G165" t="n">
-        <v>-1536887.038219601</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6036,24 +5383,15 @@
         <v>7356.69</v>
       </c>
       <c r="G166" t="n">
-        <v>-1529530.348219601</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6075,24 +5413,15 @@
         <v>17000</v>
       </c>
       <c r="G167" t="n">
-        <v>-1529530.348219601</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6114,24 +5443,15 @@
         <v>3439.12</v>
       </c>
       <c r="G168" t="n">
-        <v>-1529530.348219601</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6153,24 +5473,15 @@
         <v>23374.778</v>
       </c>
       <c r="G169" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6192,24 +5503,15 @@
         <v>8323.822</v>
       </c>
       <c r="G170" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6231,24 +5533,15 @@
         <v>69603.92630000001</v>
       </c>
       <c r="G171" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6270,24 +5563,15 @@
         <v>10509.8305</v>
       </c>
       <c r="G172" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6309,24 +5593,15 @@
         <v>20170.6666</v>
       </c>
       <c r="G173" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6348,24 +5623,15 @@
         <v>51397.4899</v>
       </c>
       <c r="G174" t="n">
-        <v>-1506155.570219601</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6387,24 +5653,15 @@
         <v>30357.1905</v>
       </c>
       <c r="G175" t="n">
-        <v>-1536512.760719601</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6426,24 +5683,15 @@
         <v>10118.9333</v>
       </c>
       <c r="G176" t="n">
-        <v>-1526393.827419601</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6465,24 +5713,15 @@
         <v>10590.11</v>
       </c>
       <c r="G177" t="n">
-        <v>-1536983.937419601</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6504,24 +5743,15 @@
         <v>3680.9</v>
       </c>
       <c r="G178" t="n">
-        <v>-1533303.037419602</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6543,24 +5773,15 @@
         <v>19425.65</v>
       </c>
       <c r="G179" t="n">
-        <v>-1552728.687419601</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6582,24 +5803,15 @@
         <v>32182.1724</v>
       </c>
       <c r="G180" t="n">
-        <v>-1584910.859819602</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6621,24 +5833,15 @@
         <v>11</v>
       </c>
       <c r="G181" t="n">
-        <v>-1584899.859819602</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6660,24 +5863,15 @@
         <v>3778.8172</v>
       </c>
       <c r="G182" t="n">
-        <v>-1588678.677019601</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6699,24 +5893,15 @@
         <v>42496.5979</v>
       </c>
       <c r="G183" t="n">
-        <v>-1631175.274919601</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6738,24 +5923,15 @@
         <v>12260.753</v>
       </c>
       <c r="G184" t="n">
-        <v>-1618914.521919601</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6777,24 +5953,15 @@
         <v>3778.8171</v>
       </c>
       <c r="G185" t="n">
-        <v>-1618914.521919601</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6816,24 +5983,15 @@
         <v>50.6734</v>
       </c>
       <c r="G186" t="n">
-        <v>-1618863.848519601</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6855,24 +6013,15 @@
         <v>15885.6712</v>
       </c>
       <c r="G187" t="n">
-        <v>-1634749.519719601</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6894,24 +6043,15 @@
         <v>25000</v>
       </c>
       <c r="G188" t="n">
-        <v>-1634749.519719601</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6933,24 +6073,15 @@
         <v>965.8533</v>
       </c>
       <c r="G189" t="n">
-        <v>-1634749.519719601</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6972,26 +6103,15 @@
         <v>80792.51210000001</v>
       </c>
       <c r="G190" t="n">
-        <v>-1715542.031819601</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J190" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7013,26 +6133,15 @@
         <v>248.8746</v>
       </c>
       <c r="G191" t="n">
-        <v>-1715293.157219601</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J191" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7054,24 +6163,15 @@
         <v>19922.3617</v>
       </c>
       <c r="G192" t="n">
-        <v>-1735215.518919601</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7093,26 +6193,15 @@
         <v>6090.8239</v>
       </c>
       <c r="G193" t="n">
-        <v>-1741306.342819601</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J193" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7134,26 +6223,15 @@
         <v>40.2243</v>
       </c>
       <c r="G194" t="n">
-        <v>-1741266.118519601</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J194" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7175,24 +6253,15 @@
         <v>334.051</v>
       </c>
       <c r="G195" t="n">
-        <v>-1741600.169519601</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7214,26 +6283,15 @@
         <v>10</v>
       </c>
       <c r="G196" t="n">
-        <v>-1741590.169519601</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J196" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7255,26 +6313,15 @@
         <v>11</v>
       </c>
       <c r="G197" t="n">
-        <v>-1741579.169519601</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J197" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7296,26 +6343,15 @@
         <v>9814.551799999999</v>
       </c>
       <c r="G198" t="n">
-        <v>-1741579.169519601</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J198" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7337,26 +6373,15 @@
         <v>121.1058</v>
       </c>
       <c r="G199" t="n">
-        <v>-1741579.169519601</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J199" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7378,26 +6403,15 @@
         <v>22.2742</v>
       </c>
       <c r="G200" t="n">
-        <v>-1741556.895319601</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J200" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7419,26 +6433,15 @@
         <v>790.2248</v>
       </c>
       <c r="G201" t="n">
-        <v>-1742347.120119601</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J201" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7460,26 +6463,15 @@
         <v>11</v>
       </c>
       <c r="G202" t="n">
-        <v>-1742336.120119601</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J202" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7501,24 +6493,15 @@
         <v>30886.7962</v>
       </c>
       <c r="G203" t="n">
-        <v>-1711449.323919601</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7540,24 +6523,15 @@
         <v>99</v>
       </c>
       <c r="G204" t="n">
-        <v>-1711350.323919601</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7579,24 +6553,15 @@
         <v>2963.522</v>
       </c>
       <c r="G205" t="n">
-        <v>-1714313.845919601</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7618,24 +6583,15 @@
         <v>3883.4768</v>
       </c>
       <c r="G206" t="n">
-        <v>-1710430.369119601</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7657,24 +6613,15 @@
         <v>943.6821</v>
       </c>
       <c r="G207" t="n">
-        <v>-1710430.369119601</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7696,24 +6643,15 @@
         <v>1000</v>
       </c>
       <c r="G208" t="n">
-        <v>-1711430.369119601</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7735,24 +6673,15 @@
         <v>168.9136</v>
       </c>
       <c r="G209" t="n">
-        <v>-1711430.369119601</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7774,24 +6703,15 @@
         <v>5195.6687</v>
       </c>
       <c r="G210" t="n">
-        <v>-1716626.037819601</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7813,26 +6733,15 @@
         <v>4067.7321</v>
       </c>
       <c r="G211" t="n">
-        <v>-1716626.037819601</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>30</v>
-      </c>
-      <c r="J211" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7854,26 +6763,15 @@
         <v>12403</v>
       </c>
       <c r="G212" t="n">
-        <v>-1729029.037819601</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>30</v>
-      </c>
-      <c r="J212" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7895,26 +6793,15 @@
         <v>344</v>
       </c>
       <c r="G213" t="n">
-        <v>-1728685.037819601</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J213" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7936,24 +6823,15 @@
         <v>28173.9867</v>
       </c>
       <c r="G214" t="n">
-        <v>-1756859.024519601</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7975,24 +6853,15 @@
         <v>17840.6667</v>
       </c>
       <c r="G215" t="n">
-        <v>-1756859.024519601</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8014,26 +6883,15 @@
         <v>28814.7419</v>
       </c>
       <c r="G216" t="n">
-        <v>-1756859.024519601</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J216" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8055,26 +6913,15 @@
         <v>25835.7061</v>
       </c>
       <c r="G217" t="n">
-        <v>-1782694.730619601</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J217" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8096,26 +6943,15 @@
         <v>72</v>
       </c>
       <c r="G218" t="n">
-        <v>-1782622.730619601</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>30</v>
-      </c>
-      <c r="J218" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8137,26 +6973,15 @@
         <v>54</v>
       </c>
       <c r="G219" t="n">
-        <v>-1782622.730619601</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J219" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8178,26 +7003,15 @@
         <v>18.841</v>
       </c>
       <c r="G220" t="n">
-        <v>-1782603.889619601</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J220" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8219,26 +7033,15 @@
         <v>10</v>
       </c>
       <c r="G221" t="n">
-        <v>-1782603.889619601</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J221" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8260,26 +7063,15 @@
         <v>19959.52</v>
       </c>
       <c r="G222" t="n">
-        <v>-1802563.409619601</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J222" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8301,26 +7093,15 @@
         <v>184331.5756</v>
       </c>
       <c r="G223" t="n">
-        <v>-1986894.985219602</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J223" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8342,26 +7123,15 @@
         <v>10</v>
       </c>
       <c r="G224" t="n">
-        <v>-1986884.985219602</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>30</v>
-      </c>
-      <c r="J224" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8383,24 +7153,15 @@
         <v>16665</v>
       </c>
       <c r="G225" t="n">
-        <v>-1970219.985219602</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8422,24 +7183,15 @@
         <v>90017.776</v>
       </c>
       <c r="G226" t="n">
-        <v>-1880202.209219601</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8461,24 +7213,15 @@
         <v>10</v>
       </c>
       <c r="G227" t="n">
-        <v>-1880192.209219601</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8500,24 +7243,15 @@
         <v>158429.9193</v>
       </c>
       <c r="G228" t="n">
-        <v>-1721762.289919602</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8539,24 +7273,15 @@
         <v>1002</v>
       </c>
       <c r="G229" t="n">
-        <v>-1721762.289919602</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1.032037037037037</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8578,18 +7303,15 @@
         <v>95710.6251</v>
       </c>
       <c r="G230" t="n">
-        <v>-1626051.664819601</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8611,18 +7333,15 @@
         <v>16149.6129</v>
       </c>
       <c r="G231" t="n">
-        <v>-1609902.051919601</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8644,18 +7363,15 @@
         <v>134.6192</v>
       </c>
       <c r="G232" t="n">
-        <v>-1610036.671119601</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8677,18 +7393,15 @@
         <v>18723.6659</v>
       </c>
       <c r="G233" t="n">
-        <v>-1610036.671119601</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8710,18 +7423,15 @@
         <v>120230.2943</v>
       </c>
       <c r="G234" t="n">
-        <v>-1489806.376819602</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8743,18 +7453,15 @@
         <v>230.568</v>
       </c>
       <c r="G235" t="n">
-        <v>-1490036.944819601</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8776,18 +7483,15 @@
         <v>1165.1387</v>
       </c>
       <c r="G236" t="n">
-        <v>-1488871.806119601</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8809,18 +7513,15 @@
         <v>142687.9889</v>
       </c>
       <c r="G237" t="n">
-        <v>-1346183.817219601</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8842,18 +7543,15 @@
         <v>10407.62056752412</v>
       </c>
       <c r="G238" t="n">
-        <v>-1335776.196652077</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8875,18 +7573,15 @@
         <v>72740.94127766819</v>
       </c>
       <c r="G239" t="n">
-        <v>-1335776.196652077</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8908,18 +7603,15 @@
         <v>2629.9679</v>
       </c>
       <c r="G240" t="n">
-        <v>-1333146.228752077</v>
-      </c>
-      <c r="H240" t="n">
         <v>2</v>
       </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8941,18 +7633,15 @@
         <v>16571.915</v>
       </c>
       <c r="G241" t="n">
-        <v>-1333146.228752077</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8974,18 +7663,15 @@
         <v>30</v>
       </c>
       <c r="G242" t="n">
-        <v>-1333176.228752077</v>
-      </c>
-      <c r="H242" t="n">
         <v>2</v>
       </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9007,18 +7693,15 @@
         <v>4431.5384</v>
       </c>
       <c r="G243" t="n">
-        <v>-1333176.228752077</v>
-      </c>
-      <c r="H243" t="n">
         <v>2</v>
       </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9040,18 +7723,15 @@
         <v>6255.7051</v>
       </c>
       <c r="G244" t="n">
-        <v>-1339431.933852077</v>
-      </c>
-      <c r="H244" t="n">
         <v>2</v>
       </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9073,18 +7753,15 @@
         <v>11</v>
       </c>
       <c r="G245" t="n">
-        <v>-1339420.933852077</v>
-      </c>
-      <c r="H245" t="n">
         <v>2</v>
       </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9106,18 +7783,15 @@
         <v>20190.9842</v>
       </c>
       <c r="G246" t="n">
-        <v>-1339420.933852077</v>
-      </c>
-      <c r="H246" t="n">
         <v>2</v>
       </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9139,18 +7813,15 @@
         <v>5806.57</v>
       </c>
       <c r="G247" t="n">
-        <v>-1339420.933852077</v>
-      </c>
-      <c r="H247" t="n">
         <v>2</v>
       </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9172,18 +7843,15 @@
         <v>102.5806</v>
       </c>
       <c r="G248" t="n">
-        <v>-1339523.514452077</v>
-      </c>
-      <c r="H248" t="n">
         <v>2</v>
       </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9205,18 +7873,15 @@
         <v>107.3226</v>
       </c>
       <c r="G249" t="n">
-        <v>-1339630.837052077</v>
-      </c>
-      <c r="H249" t="n">
         <v>2</v>
       </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9238,18 +7903,15 @@
         <v>639</v>
       </c>
       <c r="G250" t="n">
-        <v>-1339630.837052077</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9271,18 +7933,15 @@
         <v>0.7453</v>
       </c>
       <c r="G251" t="n">
-        <v>-1339630.837052077</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9304,18 +7963,15 @@
         <v>47601.5119</v>
       </c>
       <c r="G252" t="n">
-        <v>-1387232.348952077</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9337,18 +7993,15 @@
         <v>4995.5977</v>
       </c>
       <c r="G253" t="n">
-        <v>-1382236.751252077</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9370,18 +8023,15 @@
         <v>11</v>
       </c>
       <c r="G254" t="n">
-        <v>-1382225.751252077</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9403,18 +8053,15 @@
         <v>266.1031</v>
       </c>
       <c r="G255" t="n">
-        <v>-1382225.751252077</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9436,18 +8083,15 @@
         <v>603.1741</v>
       </c>
       <c r="G256" t="n">
-        <v>-1381622.577152077</v>
-      </c>
-      <c r="H256" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9469,18 +8113,15 @@
         <v>583.3516</v>
       </c>
       <c r="G257" t="n">
-        <v>-1381622.577152077</v>
-      </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9502,18 +8143,15 @@
         <v>11835.2937</v>
       </c>
       <c r="G258" t="n">
-        <v>-1381622.577152077</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9535,18 +8173,15 @@
         <v>10000</v>
       </c>
       <c r="G259" t="n">
-        <v>-1381622.577152077</v>
-      </c>
-      <c r="H259" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9568,18 +8203,15 @@
         <v>3531.3107</v>
       </c>
       <c r="G260" t="n">
-        <v>-1385153.887852077</v>
-      </c>
-      <c r="H260" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9601,18 +8233,15 @@
         <v>32815.3398</v>
       </c>
       <c r="G261" t="n">
-        <v>-1385153.887852077</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9634,18 +8263,15 @@
         <v>3544.0204</v>
       </c>
       <c r="G262" t="n">
-        <v>-1388697.908252077</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
